--- a/Jogos_da_Semana_FlashScore_2025-03-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-29.xlsx
@@ -1025,7 +1025,7 @@
         <v>1.03</v>
       </c>
       <c r="K5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L5" t="n">
         <v>1.17</v>
@@ -1522,10 +1522,10 @@
         <v>4.33</v>
       </c>
       <c r="N9" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="O9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P9" t="n">
         <v>1.33</v>
@@ -1534,7 +1534,7 @@
         <v>3.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S9" t="n">
         <v>2.05</v>
@@ -1629,25 +1629,25 @@
         <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J10" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L10" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N10" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="O10" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="P10" t="n">
         <v>1.25</v>
@@ -1656,10 +1656,10 @@
         <v>3.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T10" t="n">
         <v>13</v>
@@ -1668,7 +1668,7 @@
         <v>15</v>
       </c>
       <c r="V10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W10" t="n">
         <v>23</v>
@@ -1751,7 +1751,7 @@
         <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J11" t="n">
         <v>1.07</v>
@@ -1766,10 +1766,10 @@
         <v>3.2</v>
       </c>
       <c r="N11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="P11" t="n">
         <v>1.44</v>
@@ -1778,10 +1778,10 @@
         <v>2.63</v>
       </c>
       <c r="R11" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S11" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T11" t="n">
         <v>6.5</v>
@@ -1817,7 +1817,7 @@
         <v>351</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
         <v>26</v>
@@ -2001,7 +2001,7 @@
         <v>1.07</v>
       </c>
       <c r="K13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L13" t="n">
         <v>1.36</v>
@@ -2496,10 +2496,10 @@
         <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P17" t="n">
         <v>1.5</v>
@@ -2597,13 +2597,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J18" t="n">
         <v>1.05</v>
@@ -2645,7 +2645,7 @@
         <v>12</v>
       </c>
       <c r="W18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X18" t="n">
         <v>26</v>
@@ -2672,7 +2672,7 @@
         <v>8</v>
       </c>
       <c r="AF18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG18" t="n">
         <v>9</v>
@@ -2850,10 +2850,10 @@
         <v>11</v>
       </c>
       <c r="J20" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K20" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>1.33</v>
@@ -2963,25 +2963,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="H21" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I21" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J21" t="n">
         <v>1.07</v>
       </c>
       <c r="K21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M21" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N21" t="n">
         <v>2.2</v>
@@ -2996,10 +2996,10 @@
         <v>2.63</v>
       </c>
       <c r="R21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T21" t="n">
         <v>12</v>
@@ -3041,7 +3041,7 @@
         <v>6.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH21" t="n">
         <v>11</v>
@@ -3817,7 +3817,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H28" t="n">
         <v>3.2</v>
@@ -3826,13 +3826,13 @@
         <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K28" t="n">
         <v>6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="M28" t="n">
         <v>2.25</v>
@@ -3892,7 +3892,7 @@
         <v>9</v>
       </c>
       <c r="AF28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG28" t="n">
         <v>17</v>
@@ -3948,13 +3948,13 @@
         <v>3.7</v>
       </c>
       <c r="J29" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K29" t="n">
         <v>6.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="M29" t="n">
         <v>2.25</v>
@@ -4070,13 +4070,13 @@
         <v>4.75</v>
       </c>
       <c r="J30" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="K30" t="n">
         <v>5.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="M30" t="n">
         <v>2.2</v>
@@ -4932,10 +4932,10 @@
         <v>8</v>
       </c>
       <c r="L38" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M38" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N38" t="n">
         <v>2.3</v>
@@ -5292,10 +5292,10 @@
         <v>5</v>
       </c>
       <c r="J41" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K41" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="L41" t="n">
         <v>1.33</v>
@@ -5304,10 +5304,10 @@
         <v>3.4</v>
       </c>
       <c r="N41" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O41" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="P41" t="n">
         <v>1.44</v>
@@ -5340,7 +5340,7 @@
         <v>29</v>
       </c>
       <c r="Z41" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA41" t="n">
         <v>7</v>
@@ -5405,19 +5405,19 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="H42" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I42" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="J42" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L42" t="n">
         <v>1.3</v>
@@ -5426,10 +5426,10 @@
         <v>3.4</v>
       </c>
       <c r="N42" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O42" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P42" t="n">
         <v>1.4</v>
@@ -5447,13 +5447,13 @@
         <v>7</v>
       </c>
       <c r="U42" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V42" t="n">
         <v>8.5</v>
       </c>
       <c r="W42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X42" t="n">
         <v>15</v>
@@ -5477,19 +5477,19 @@
         <v>301</v>
       </c>
       <c r="AE42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG42" t="n">
         <v>15</v>
       </c>
       <c r="AH42" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ42" t="n">
         <v>41</v>
@@ -5670,10 +5670,10 @@
         <v>3.75</v>
       </c>
       <c r="N44" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O44" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P44" t="n">
         <v>1.36</v>
@@ -6137,13 +6137,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H48" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J48" t="n">
         <v>1.11</v>
@@ -6164,10 +6164,10 @@
         <v>1.44</v>
       </c>
       <c r="P48" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R48" t="n">
         <v>2.2</v>
@@ -6218,7 +6218,7 @@
         <v>13</v>
       </c>
       <c r="AH48" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI48" t="n">
         <v>34</v>
@@ -6747,19 +6747,19 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H53" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I53" t="n">
         <v>1.22</v>
       </c>
       <c r="J53" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K53" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L53" t="n">
         <v>1.2</v>
@@ -6780,10 +6780,10 @@
         <v>3.4</v>
       </c>
       <c r="R53" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S53" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T53" t="n">
         <v>23</v>
@@ -6795,7 +6795,7 @@
         <v>34</v>
       </c>
       <c r="W53" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="X53" t="n">
         <v>101</v>
@@ -6825,16 +6825,16 @@
         <v>5.5</v>
       </c>
       <c r="AG53" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH53" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI53" t="n">
         <v>12</v>
       </c>
       <c r="AJ53" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54">
@@ -8102,10 +8102,10 @@
         <v>8</v>
       </c>
       <c r="L64" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M64" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N64" t="n">
         <v>2.2</v>
@@ -8114,10 +8114,10 @@
         <v>1.67</v>
       </c>
       <c r="P64" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R64" t="n">
         <v>1.83</v>
@@ -8236,7 +8236,7 @@
         <v>1.67</v>
       </c>
       <c r="P65" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q65" t="n">
         <v>2.5</v>
@@ -8346,10 +8346,10 @@
         <v>8</v>
       </c>
       <c r="L66" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M66" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N66" t="n">
         <v>2.3</v>
@@ -8456,7 +8456,7 @@
         <v>2.1</v>
       </c>
       <c r="H67" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I67" t="n">
         <v>3.4</v>
@@ -8465,7 +8465,7 @@
         <v>1.06</v>
       </c>
       <c r="K67" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L67" t="n">
         <v>1.33</v>
@@ -8510,7 +8510,7 @@
         <v>29</v>
       </c>
       <c r="Z67" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA67" t="n">
         <v>6.5</v>
@@ -9674,16 +9674,16 @@
         <v>1.95</v>
       </c>
       <c r="H77" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I77" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J77" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K77" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L77" t="n">
         <v>1.36</v>
@@ -9698,10 +9698,10 @@
         <v>1.67</v>
       </c>
       <c r="P77" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R77" t="n">
         <v>1.95</v>
@@ -9728,7 +9728,7 @@
         <v>29</v>
       </c>
       <c r="Z77" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA77" t="n">
         <v>6.5</v>
@@ -9749,7 +9749,7 @@
         <v>19</v>
       </c>
       <c r="AG77" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH77" t="n">
         <v>41</v>
@@ -9804,10 +9804,10 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M78" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="N78" t="n">
         <v>1.62</v>
@@ -9818,10 +9818,10 @@
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="S78" t="n">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="T78" t="n">
         <v>6.8</v>
@@ -12110,7 +12110,7 @@
         <v>2.05</v>
       </c>
       <c r="P97" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q97" t="n">
         <v>3</v>
@@ -12232,7 +12232,7 @@
         <v>2.4</v>
       </c>
       <c r="P98" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q98" t="n">
         <v>3.5</v>
@@ -12354,7 +12354,7 @@
         <v>1.98</v>
       </c>
       <c r="P99" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q99" t="n">
         <v>3</v>
@@ -12455,7 +12455,7 @@
         <v>4.1</v>
       </c>
       <c r="I100" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="J100" t="n">
         <v>1.03</v>
@@ -12571,13 +12571,13 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="H101" t="n">
         <v>3</v>
       </c>
       <c r="I101" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J101" t="n">
         <v>1.08</v>
@@ -12610,10 +12610,10 @@
         <v>1.83</v>
       </c>
       <c r="T101" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U101" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V101" t="n">
         <v>11</v>
@@ -12625,7 +12625,7 @@
         <v>26</v>
       </c>
       <c r="Y101" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z101" t="n">
         <v>8</v>
@@ -12640,7 +12640,7 @@
         <v>51</v>
       </c>
       <c r="AD101" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE101" t="n">
         <v>7.5</v>
@@ -12702,10 +12702,10 @@
         <v>3.25</v>
       </c>
       <c r="J102" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K102" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L102" t="n">
         <v>1.36</v>
@@ -12714,10 +12714,10 @@
         <v>3</v>
       </c>
       <c r="N102" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O102" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P102" t="n">
         <v>1.5</v>
@@ -12848,10 +12848,10 @@
         <v>2.63</v>
       </c>
       <c r="R103" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S103" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T103" t="n">
         <v>7.5</v>
@@ -12970,10 +12970,10 @@
         <v>2.63</v>
       </c>
       <c r="R104" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S104" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T104" t="n">
         <v>7.5</v>
@@ -13065,7 +13065,7 @@
         <v>3.2</v>
       </c>
       <c r="I105" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="J105" t="n">
         <v>1.08</v>
@@ -13086,7 +13086,7 @@
         <v>1.57</v>
       </c>
       <c r="P105" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q105" t="n">
         <v>2.5</v>
@@ -13095,7 +13095,7 @@
         <v>2</v>
       </c>
       <c r="S105" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T105" t="n">
         <v>9</v>
@@ -13193,7 +13193,7 @@
         <v>1.08</v>
       </c>
       <c r="K106" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L106" t="n">
         <v>1.4</v>
@@ -13208,10 +13208,10 @@
         <v>1.57</v>
       </c>
       <c r="P106" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R106" t="n">
         <v>1.95</v>
@@ -13244,13 +13244,13 @@
         <v>6</v>
       </c>
       <c r="AB106" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC106" t="n">
         <v>51</v>
       </c>
       <c r="AD106" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE106" t="n">
         <v>8</v>
@@ -13330,7 +13330,7 @@
         <v>1.62</v>
       </c>
       <c r="P107" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q107" t="n">
         <v>2.5</v>
@@ -13452,7 +13452,7 @@
         <v>1.62</v>
       </c>
       <c r="P108" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q108" t="n">
         <v>2.5</v>
@@ -13791,19 +13791,19 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H111" t="n">
         <v>3.4</v>
       </c>
       <c r="I111" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="J111" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K111" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L111" t="n">
         <v>1.29</v>
@@ -13830,19 +13830,19 @@
         <v>2</v>
       </c>
       <c r="T111" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U111" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V111" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W111" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X111" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y111" t="n">
         <v>29</v>
@@ -13863,16 +13863,16 @@
         <v>201</v>
       </c>
       <c r="AE111" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF111" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG111" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH111" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI111" t="n">
         <v>21</v>
@@ -14035,13 +14035,13 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H113" t="n">
         <v>3.4</v>
       </c>
       <c r="I113" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J113" t="n">
         <v>1.08</v>
@@ -14157,7 +14157,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H114" t="n">
         <v>3</v>
@@ -14285,7 +14285,7 @@
         <v>3.5</v>
       </c>
       <c r="I115" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J115" t="n">
         <v>1.06</v>
@@ -14407,13 +14407,13 @@
         <v>3</v>
       </c>
       <c r="I116" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J116" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="K116" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="L116" t="n">
         <v>1.57</v>
@@ -14422,10 +14422,10 @@
         <v>2.25</v>
       </c>
       <c r="N116" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="O116" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P116" t="n">
         <v>1.62</v>
@@ -14449,7 +14449,7 @@
         <v>10</v>
       </c>
       <c r="W116" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X116" t="n">
         <v>23</v>
@@ -14458,7 +14458,7 @@
         <v>41</v>
       </c>
       <c r="Z116" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA116" t="n">
         <v>6</v>
@@ -14473,7 +14473,7 @@
         <v>101</v>
       </c>
       <c r="AE116" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF116" t="n">
         <v>15</v>
@@ -14485,7 +14485,7 @@
         <v>41</v>
       </c>
       <c r="AI116" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ116" t="n">
         <v>51</v>
@@ -14767,13 +14767,13 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H119" t="n">
         <v>3.6</v>
       </c>
       <c r="I119" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J119" t="n">
         <v>1.05</v>
@@ -14827,7 +14827,7 @@
         <v>11</v>
       </c>
       <c r="AA119" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB119" t="n">
         <v>15</v>
@@ -15027,12 +15027,12 @@
         <v>1.48</v>
       </c>
       <c r="O121" t="n">
-        <v>2.47</v>
+        <v>2.48</v>
       </c>
       <c r="P121" t="inlineStr"/>
       <c r="Q121" t="inlineStr"/>
       <c r="R121" t="n">
-        <v>2.33</v>
+        <v>2.32</v>
       </c>
       <c r="S121" t="n">
         <v>1.54</v>
@@ -15121,13 +15121,13 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H122" t="n">
-        <v>4.45</v>
+        <v>4.25</v>
       </c>
       <c r="I122" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -15141,63 +15141,63 @@
         <v>1.65</v>
       </c>
       <c r="O122" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P122" t="inlineStr"/>
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="n">
-        <v>2.11</v>
+        <v>2.08</v>
       </c>
       <c r="S122" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="T122" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="U122" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="V122" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="W122" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="X122" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y122" t="n">
         <v>22</v>
       </c>
       <c r="Z122" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AA122" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AB122" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC122" t="n">
         <v>75</v>
       </c>
       <c r="AD122" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE122" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AF122" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG122" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AH122" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI122" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ122" t="n">
         <v>60</v>
@@ -15235,13 +15235,13 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H123" t="n">
         <v>3.1</v>
       </c>
       <c r="I123" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J123" t="n">
         <v>1.08</v>
@@ -15256,10 +15256,10 @@
         <v>3</v>
       </c>
       <c r="N123" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O123" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P123" t="n">
         <v>1.5</v>
@@ -15277,7 +15277,7 @@
         <v>7.5</v>
       </c>
       <c r="U123" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V123" t="n">
         <v>10</v>
@@ -15310,19 +15310,19 @@
         <v>8.5</v>
       </c>
       <c r="AF123" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG123" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH123" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI123" t="n">
         <v>26</v>
       </c>
       <c r="AJ123" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124">
@@ -15610,10 +15610,10 @@
         <v>4.33</v>
       </c>
       <c r="J126" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K126" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L126" t="n">
         <v>1.29</v>
@@ -15837,13 +15837,13 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H128" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="I128" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -15866,43 +15866,43 @@
         <v>2.6</v>
       </c>
       <c r="R128" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S128" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T128" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="U128" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="V128" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W128" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="X128" t="n">
         <v>13</v>
       </c>
       <c r="Y128" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z128" t="n">
         <v>10.25</v>
       </c>
       <c r="AA128" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AB128" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC128" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD128" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AE128" t="n">
         <v>13.5</v>
@@ -15911,16 +15911,16 @@
         <v>30</v>
       </c>
       <c r="AG128" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH128" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI128" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ128" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129">
@@ -16692,10 +16692,10 @@
         <v>2.75</v>
       </c>
       <c r="N135" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O135" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P135" t="n">
         <v>1.5</v>
@@ -16915,19 +16915,19 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H137" t="n">
         <v>3.2</v>
       </c>
       <c r="I137" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J137" t="n">
         <v>1.06</v>
       </c>
       <c r="K137" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L137" t="n">
         <v>1.3</v>
@@ -16948,25 +16948,25 @@
         <v>2.75</v>
       </c>
       <c r="R137" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S137" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T137" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U137" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V137" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W137" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X137" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y137" t="n">
         <v>29</v>
@@ -16978,13 +16978,13 @@
         <v>6.5</v>
       </c>
       <c r="AB137" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC137" t="n">
         <v>51</v>
       </c>
       <c r="AD137" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE137" t="n">
         <v>10</v>
@@ -17525,13 +17525,13 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H142" t="n">
         <v>3.25</v>
       </c>
       <c r="I142" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J142" t="n">
         <v>1.05</v>
@@ -17546,10 +17546,10 @@
         <v>3.5</v>
       </c>
       <c r="N142" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O142" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P142" t="n">
         <v>1.4</v>
@@ -17558,16 +17558,16 @@
         <v>2.75</v>
       </c>
       <c r="R142" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S142" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T142" t="n">
         <v>11</v>
       </c>
       <c r="U142" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V142" t="n">
         <v>13</v>
@@ -17582,19 +17582,19 @@
         <v>34</v>
       </c>
       <c r="Z142" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA142" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB142" t="n">
         <v>13</v>
       </c>
       <c r="AC142" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD142" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE142" t="n">
         <v>7.5</v>
@@ -18022,10 +18022,10 @@
         <v>3.7</v>
       </c>
       <c r="J146" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K146" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L146" t="n">
         <v>1.33</v>
@@ -18144,10 +18144,10 @@
         <v>1.33</v>
       </c>
       <c r="J147" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K147" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L147" t="n">
         <v>1.22</v>
@@ -18156,10 +18156,10 @@
         <v>4</v>
       </c>
       <c r="N147" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O147" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P147" t="n">
         <v>1.33</v>
@@ -18278,10 +18278,10 @@
         <v>3.75</v>
       </c>
       <c r="N148" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O148" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P148" t="n">
         <v>1.36</v>
@@ -18626,7 +18626,7 @@
         <v>1.45</v>
       </c>
       <c r="H151" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I151" t="n">
         <v>6</v>
@@ -18635,7 +18635,7 @@
         <v>1.04</v>
       </c>
       <c r="K151" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L151" t="n">
         <v>1.22</v>
@@ -18650,10 +18650,10 @@
         <v>2.05</v>
       </c>
       <c r="P151" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q151" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R151" t="n">
         <v>1.91</v>
@@ -18710,7 +18710,7 @@
         <v>41</v>
       </c>
       <c r="AJ151" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="152">
@@ -18882,16 +18882,16 @@
         <v>10</v>
       </c>
       <c r="L153" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M153" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N153" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O153" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P153" t="n">
         <v>1.44</v>
@@ -20331,19 +20331,19 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H165" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I165" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J165" t="n">
         <v>1.07</v>
       </c>
       <c r="K165" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="L165" t="n">
         <v>1.33</v>
@@ -20361,7 +20361,7 @@
         <v>1.4</v>
       </c>
       <c r="Q165" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="R165" t="n">
         <v>1.75</v>
@@ -20370,7 +20370,7 @@
         <v>1.98</v>
       </c>
       <c r="T165" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U165" t="n">
         <v>14.5</v>
@@ -20382,43 +20382,43 @@
         <v>35</v>
       </c>
       <c r="X165" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y165" t="n">
         <v>32</v>
       </c>
       <c r="Z165" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AA165" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB165" t="n">
         <v>13.5</v>
       </c>
       <c r="AC165" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD165" t="n">
         <v>500</v>
       </c>
       <c r="AE165" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AF165" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG165" t="n">
         <v>9.25</v>
       </c>
       <c r="AH165" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI165" t="n">
         <v>20</v>
       </c>
       <c r="AJ165" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="166">
@@ -20828,10 +20828,10 @@
         <v>3.3</v>
       </c>
       <c r="J169" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K169" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L169" t="n">
         <v>1.53</v>
@@ -20950,10 +20950,10 @@
         <v>2.1</v>
       </c>
       <c r="J170" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K170" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L170" t="n">
         <v>1.44</v>
@@ -20962,10 +20962,10 @@
         <v>2.63</v>
       </c>
       <c r="N170" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O170" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P170" t="n">
         <v>1.53</v>
@@ -21450,10 +21450,10 @@
         <v>3.5</v>
       </c>
       <c r="N174" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O174" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P174" t="n">
         <v>1.4</v>
@@ -21468,7 +21468,7 @@
         <v>2</v>
       </c>
       <c r="T174" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U174" t="n">
         <v>15</v>
@@ -21495,7 +21495,7 @@
         <v>15</v>
       </c>
       <c r="AC174" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD174" t="n">
         <v>201</v>
@@ -21563,7 +21563,7 @@
         <v>1.02</v>
       </c>
       <c r="K175" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L175" t="n">
         <v>1.13</v>
@@ -22527,13 +22527,13 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H183" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I183" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J183" t="n">
         <v>1.02</v>
@@ -22566,13 +22566,13 @@
         <v>2</v>
       </c>
       <c r="T183" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U183" t="n">
         <v>8</v>
       </c>
       <c r="V183" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W183" t="n">
         <v>10</v>
@@ -22593,10 +22593,10 @@
         <v>17</v>
       </c>
       <c r="AC183" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD183" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE183" t="n">
         <v>21</v>
@@ -22605,7 +22605,7 @@
         <v>41</v>
       </c>
       <c r="AG183" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH183" t="n">
         <v>67</v>
@@ -22893,13 +22893,13 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H186" t="n">
         <v>3.5</v>
       </c>
       <c r="I186" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J186" t="n">
         <v>1.03</v>
@@ -22935,10 +22935,10 @@
         <v>13</v>
       </c>
       <c r="U186" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V186" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W186" t="n">
         <v>34</v>
@@ -22947,7 +22947,7 @@
         <v>21</v>
       </c>
       <c r="Y186" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z186" t="n">
         <v>15</v>
@@ -23503,19 +23503,19 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H191" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I191" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J191" t="n">
         <v>1.04</v>
       </c>
       <c r="K191" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L191" t="n">
         <v>1.22</v>
@@ -23524,10 +23524,10 @@
         <v>4</v>
       </c>
       <c r="N191" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O191" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P191" t="n">
         <v>1.33</v>
@@ -23560,22 +23560,22 @@
         <v>23</v>
       </c>
       <c r="Z191" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA191" t="n">
         <v>6.5</v>
       </c>
       <c r="AB191" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC191" t="n">
         <v>41</v>
       </c>
       <c r="AD191" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE191" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF191" t="n">
         <v>17</v>
@@ -23590,7 +23590,7 @@
         <v>21</v>
       </c>
       <c r="AJ191" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="192">
@@ -23768,10 +23768,10 @@
         <v>4.5</v>
       </c>
       <c r="N193" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O193" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P193" t="n">
         <v>1.3</v>
@@ -25092,22 +25092,22 @@
         <v>1.6</v>
       </c>
       <c r="H204" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I204" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="J204" t="n">
         <v>1.04</v>
       </c>
       <c r="K204" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="L204" t="n">
         <v>1.2</v>
       </c>
       <c r="M204" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="N204" t="n">
         <v>1.62</v>
@@ -25116,10 +25116,10 @@
         <v>2.18</v>
       </c>
       <c r="P204" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="Q204" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="R204" t="n">
         <v>1.65</v>
@@ -25131,7 +25131,7 @@
         <v>8.5</v>
       </c>
       <c r="U204" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="V204" t="n">
         <v>8</v>
@@ -25146,10 +25146,10 @@
         <v>21</v>
       </c>
       <c r="Z204" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA204" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AB204" t="n">
         <v>14.5</v>
@@ -25164,16 +25164,16 @@
         <v>15.5</v>
       </c>
       <c r="AF204" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG204" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH204" t="n">
         <v>80</v>
       </c>
       <c r="AI204" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ204" t="n">
         <v>40</v>
@@ -25333,19 +25333,19 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="H206" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I206" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J206" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K206" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="L206" t="n">
         <v>1.37</v>
@@ -25363,61 +25363,61 @@
         <v>1.47</v>
       </c>
       <c r="Q206" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R206" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S206" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="T206" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="U206" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V206" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="W206" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="X206" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y206" t="n">
         <v>32</v>
       </c>
       <c r="Z206" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AA206" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AB206" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC206" t="n">
         <v>80</v>
       </c>
       <c r="AD206" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE206" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF206" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG206" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AH206" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI206" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ206" t="n">
         <v>40</v>
@@ -25458,7 +25458,7 @@
         <v>5.3</v>
       </c>
       <c r="H207" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="I207" t="n">
         <v>1.5</v>
@@ -25491,16 +25491,16 @@
         <v>1.85</v>
       </c>
       <c r="S207" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T207" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="U207" t="n">
         <v>32</v>
       </c>
       <c r="V207" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="W207" t="n">
         <v>100</v>
@@ -25515,7 +25515,7 @@
         <v>8.25</v>
       </c>
       <c r="AA207" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB207" t="n">
         <v>17.5</v>
@@ -25530,7 +25530,7 @@
         <v>7.2</v>
       </c>
       <c r="AF207" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AG207" t="n">
         <v>8.25</v>
@@ -25542,7 +25542,7 @@
         <v>12</v>
       </c>
       <c r="AJ207" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="208">
@@ -25577,13 +25577,13 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="H208" t="n">
         <v>3.15</v>
       </c>
       <c r="I208" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="J208" t="n">
         <v>1.07</v>
@@ -25610,10 +25610,10 @@
         <v>2.6</v>
       </c>
       <c r="R208" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S208" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T208" t="n">
         <v>8</v>
@@ -25705,7 +25705,7 @@
         <v>3.55</v>
       </c>
       <c r="I209" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="J209" t="n">
         <v>1.07</v>
@@ -25821,19 +25821,19 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="H210" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I210" t="n">
-        <v>2.87</v>
+        <v>2.67</v>
       </c>
       <c r="J210" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K210" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="L210" t="n">
         <v>1.32</v>
@@ -25848,64 +25848,64 @@
         <v>1.78</v>
       </c>
       <c r="P210" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q210" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="R210" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S210" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T210" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="U210" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="V210" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W210" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X210" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y210" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z210" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AA210" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AB210" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC210" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD210" t="n">
         <v>500</v>
       </c>
       <c r="AE210" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AF210" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AG210" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH210" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AI210" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AJ210" t="n">
         <v>32</v>
@@ -26065,18 +26065,18 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H212" t="n">
         <v>3.15</v>
       </c>
       <c r="I212" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M212" t="n">
         <v>2.4</v>
@@ -26088,10 +26088,10 @@
         <v>1.5</v>
       </c>
       <c r="P212" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q212" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="R212" t="n">
         <v>2</v>
@@ -26100,7 +26100,7 @@
         <v>1.65</v>
       </c>
       <c r="T212" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="U212" t="n">
         <v>13.5</v>
@@ -26112,13 +26112,13 @@
         <v>37</v>
       </c>
       <c r="X212" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y212" t="n">
         <v>50</v>
       </c>
       <c r="Z212" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AA212" t="n">
         <v>6.2</v>
@@ -26127,7 +26127,7 @@
         <v>18.5</v>
       </c>
       <c r="AC212" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD212" t="n">
         <v>101</v>
@@ -26136,16 +26136,16 @@
         <v>6.2</v>
       </c>
       <c r="AF212" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AG212" t="n">
         <v>9.75</v>
       </c>
       <c r="AH212" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI212" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ212" t="n">
         <v>40</v>
@@ -26183,7 +26183,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="H213" t="n">
         <v>3.2</v>
@@ -26218,7 +26218,7 @@
         <v>1.7</v>
       </c>
       <c r="T213" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="U213" t="n">
         <v>8.25</v>
@@ -26230,7 +26230,7 @@
         <v>16.5</v>
       </c>
       <c r="X213" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y213" t="n">
         <v>35</v>
@@ -26242,7 +26242,7 @@
         <v>6.3</v>
       </c>
       <c r="AB213" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC213" t="n">
         <v>100</v>
@@ -26254,7 +26254,7 @@
         <v>9.25</v>
       </c>
       <c r="AF213" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG213" t="n">
         <v>13.5</v>
@@ -26263,7 +26263,7 @@
         <v>60</v>
       </c>
       <c r="AI213" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ213" t="n">
         <v>55</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-29.xlsx
@@ -653,7 +653,7 @@
         <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
@@ -775,7 +775,7 @@
         <v>7.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="J3" t="n">
         <v>1.01</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="H4" t="n">
         <v>3.9</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J5" t="n">
         <v>1.03</v>
@@ -1046,10 +1046,10 @@
         <v>3.75</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T5" t="n">
         <v>15</v>
@@ -1064,7 +1064,7 @@
         <v>29</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
         <v>21</v>
@@ -1097,7 +1097,7 @@
         <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
         <v>19</v>
@@ -1135,19 +1135,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="H6" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="I6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J6" t="n">
         <v>1.02</v>
       </c>
       <c r="K6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L6" t="n">
         <v>1.13</v>
@@ -1156,10 +1156,10 @@
         <v>6</v>
       </c>
       <c r="N6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P6" t="n">
         <v>1.22</v>
@@ -1168,16 +1168,16 @@
         <v>4</v>
       </c>
       <c r="R6" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S6" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="T6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V6" t="n">
         <v>10</v>
@@ -1192,7 +1192,7 @@
         <v>29</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
         <v>15</v>
@@ -1204,7 +1204,7 @@
         <v>81</v>
       </c>
       <c r="AD6" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE6" t="n">
         <v>34</v>
@@ -1213,16 +1213,16 @@
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AH6" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AI6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -1278,10 +1278,10 @@
         <v>3.4</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P7" t="n">
         <v>1.44</v>
@@ -1382,10 +1382,10 @@
         <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J8" t="n">
         <v>1.03</v>
@@ -1394,10 +1394,10 @@
         <v>15</v>
       </c>
       <c r="L8" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M8" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N8" t="n">
         <v>1.62</v>
@@ -1421,7 +1421,7 @@
         <v>13</v>
       </c>
       <c r="U8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V8" t="n">
         <v>11</v>
@@ -1436,7 +1436,7 @@
         <v>26</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
         <v>7.5</v>
@@ -1445,13 +1445,13 @@
         <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD8" t="n">
         <v>126</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
         <v>12</v>
@@ -1504,10 +1504,10 @@
         <v>1.65</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>1.04</v>
@@ -1516,10 +1516,10 @@
         <v>13</v>
       </c>
       <c r="L9" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N9" t="n">
         <v>1.73</v>
@@ -1549,7 +1549,7 @@
         <v>8.5</v>
       </c>
       <c r="W9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
@@ -1567,7 +1567,7 @@
         <v>15</v>
       </c>
       <c r="AC9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD9" t="n">
         <v>201</v>
@@ -1576,10 +1576,10 @@
         <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
         <v>51</v>
@@ -1748,7 +1748,7 @@
         <v>1.6</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
         <v>6</v>
@@ -1766,10 +1766,10 @@
         <v>3.5</v>
       </c>
       <c r="N11" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P11" t="n">
         <v>1.4</v>
@@ -1802,7 +1802,7 @@
         <v>29</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA11" t="n">
         <v>7</v>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="H13" t="n">
         <v>3.8</v>
@@ -2034,7 +2034,7 @@
         <v>6.5</v>
       </c>
       <c r="V13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W13" t="n">
         <v>10</v>
@@ -2109,13 +2109,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="J14" t="n">
         <v>1.08</v>
@@ -2130,10 +2130,10 @@
         <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P14" t="n">
         <v>1.5</v>
@@ -2154,7 +2154,7 @@
         <v>23</v>
       </c>
       <c r="V14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W14" t="n">
         <v>51</v>
@@ -2353,13 +2353,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="J16" t="n">
         <v>1.06</v>
@@ -2368,16 +2368,16 @@
         <v>10</v>
       </c>
       <c r="L16" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N16" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O16" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P16" t="n">
         <v>1.44</v>
@@ -2392,28 +2392,28 @@
         <v>1.95</v>
       </c>
       <c r="T16" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="U16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y16" t="n">
         <v>34</v>
       </c>
       <c r="Z16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB16" t="n">
         <v>15</v>
@@ -2425,19 +2425,19 @@
         <v>251</v>
       </c>
       <c r="AE16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI16" t="n">
         <v>21</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>19</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
@@ -2597,13 +2597,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="J18" t="n">
         <v>1.05</v>
@@ -2612,22 +2612,22 @@
         <v>11</v>
       </c>
       <c r="L18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M18" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N18" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="O18" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P18" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R18" t="n">
         <v>1.75</v>
@@ -2636,13 +2636,13 @@
         <v>2</v>
       </c>
       <c r="T18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W18" t="n">
         <v>41</v>
@@ -2657,7 +2657,7 @@
         <v>11</v>
       </c>
       <c r="AA18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB18" t="n">
         <v>15</v>
@@ -2672,19 +2672,19 @@
         <v>8</v>
       </c>
       <c r="AF18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -2782,13 +2782,13 @@
         <v>7</v>
       </c>
       <c r="AB19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
         <v>41</v>
       </c>
       <c r="AD19" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE19" t="n">
         <v>13</v>
@@ -2803,7 +2803,7 @@
         <v>41</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ19" t="n">
         <v>29</v>
@@ -2844,7 +2844,7 @@
         <v>1.4</v>
       </c>
       <c r="H20" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I20" t="n">
         <v>9.5</v>
@@ -2880,25 +2880,25 @@
         <v>1.5</v>
       </c>
       <c r="T20" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
         <v>5.5</v>
       </c>
       <c r="V20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y20" t="n">
         <v>41</v>
       </c>
       <c r="Z20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA20" t="n">
         <v>8.5</v>
@@ -2919,7 +2919,7 @@
         <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH20" t="n">
         <v>126</v>
@@ -2963,13 +2963,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H21" t="n">
         <v>3.7</v>
       </c>
       <c r="I21" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="J21" t="n">
         <v>1.08</v>
@@ -2996,13 +2996,13 @@
         <v>2.5</v>
       </c>
       <c r="R21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U21" t="n">
         <v>26</v>
@@ -3038,7 +3038,7 @@
         <v>5.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG21" t="n">
         <v>9</v>
@@ -3085,13 +3085,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I22" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J22" t="n">
         <v>1.13</v>
@@ -3124,13 +3124,13 @@
         <v>1.57</v>
       </c>
       <c r="T22" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U22" t="n">
         <v>8</v>
       </c>
       <c r="V22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W22" t="n">
         <v>17</v>
@@ -3246,7 +3246,7 @@
         <v>1.67</v>
       </c>
       <c r="T23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U23" t="n">
         <v>6.5</v>
@@ -3264,22 +3264,22 @@
         <v>29</v>
       </c>
       <c r="Z23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA23" t="n">
         <v>13</v>
       </c>
       <c r="AB23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC23" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD23" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF23" t="n">
         <v>67</v>
@@ -3573,19 +3573,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J26" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L26" t="n">
         <v>1.44</v>
@@ -3606,13 +3606,13 @@
         <v>2.38</v>
       </c>
       <c r="R26" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S26" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T26" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="U26" t="n">
         <v>5.5</v>
@@ -3621,7 +3621,7 @@
         <v>9.5</v>
       </c>
       <c r="W26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X26" t="n">
         <v>17</v>
@@ -3633,31 +3633,31 @@
         <v>7</v>
       </c>
       <c r="AA26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB26" t="n">
         <v>29</v>
       </c>
       <c r="AC26" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AD26" t="n">
         <v>501</v>
       </c>
       <c r="AE26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH26" t="n">
         <v>101</v>
       </c>
       <c r="AI26" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ26" t="n">
         <v>81</v>
@@ -4061,25 +4061,25 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H30" t="n">
         <v>2.8</v>
       </c>
       <c r="I30" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="M30" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N30" t="n">
         <v>3.1</v>
@@ -4094,22 +4094,22 @@
         <v>2.1</v>
       </c>
       <c r="R30" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S30" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T30" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="U30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X30" t="n">
         <v>23</v>
@@ -4139,13 +4139,13 @@
         <v>21</v>
       </c>
       <c r="AG30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH30" t="n">
         <v>51</v>
       </c>
       <c r="AI30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ30" t="n">
         <v>67</v>
@@ -4204,10 +4204,10 @@
         <v>4</v>
       </c>
       <c r="N31" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O31" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P31" t="n">
         <v>1.36</v>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H32" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I32" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J32" t="n">
         <v>1.04</v>
@@ -4338,28 +4338,28 @@
         <v>3.25</v>
       </c>
       <c r="R32" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S32" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T32" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U32" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V32" t="n">
         <v>8.5</v>
       </c>
       <c r="W32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X32" t="n">
         <v>12</v>
       </c>
       <c r="Y32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z32" t="n">
         <v>13</v>
@@ -4368,19 +4368,19 @@
         <v>8.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC32" t="n">
         <v>51</v>
       </c>
       <c r="AD32" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG32" t="n">
         <v>19</v>
@@ -4427,13 +4427,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H33" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I33" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J33" t="n">
         <v>1.06</v>
@@ -4448,10 +4448,10 @@
         <v>3.25</v>
       </c>
       <c r="N33" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O33" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P33" t="n">
         <v>1.44</v>
@@ -4460,13 +4460,13 @@
         <v>2.63</v>
       </c>
       <c r="R33" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S33" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T33" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U33" t="n">
         <v>12</v>
@@ -4475,16 +4475,16 @@
         <v>10</v>
       </c>
       <c r="W33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X33" t="n">
         <v>21</v>
       </c>
       <c r="Y33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z33" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA33" t="n">
         <v>6</v>
@@ -4496,10 +4496,10 @@
         <v>51</v>
       </c>
       <c r="AD33" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE33" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF33" t="n">
         <v>13</v>
@@ -4549,13 +4549,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H34" t="n">
         <v>3.6</v>
       </c>
       <c r="I34" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J34" t="n">
         <v>1.03</v>
@@ -4564,31 +4564,31 @@
         <v>15</v>
       </c>
       <c r="L34" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M34" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N34" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O34" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P34" t="n">
         <v>1.3</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R34" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S34" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U34" t="n">
         <v>11</v>
@@ -4600,7 +4600,7 @@
         <v>17</v>
       </c>
       <c r="X34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y34" t="n">
         <v>21</v>
@@ -4618,16 +4618,16 @@
         <v>41</v>
       </c>
       <c r="AD34" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF34" t="n">
         <v>21</v>
       </c>
       <c r="AG34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH34" t="n">
         <v>41</v>
@@ -4698,7 +4698,7 @@
         <v>2.08</v>
       </c>
       <c r="P35" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q35" t="n">
         <v>3.25</v>
@@ -4796,7 +4796,7 @@
         <v>1.5</v>
       </c>
       <c r="H36" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I36" t="n">
         <v>7</v>
@@ -4814,22 +4814,22 @@
         <v>3</v>
       </c>
       <c r="N36" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P36" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R36" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S36" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T36" t="n">
         <v>5.5</v>
@@ -4850,10 +4850,10 @@
         <v>34</v>
       </c>
       <c r="Z36" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA36" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB36" t="n">
         <v>23</v>
@@ -4880,7 +4880,7 @@
         <v>51</v>
       </c>
       <c r="AJ36" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37">
@@ -4942,10 +4942,10 @@
         <v>1.57</v>
       </c>
       <c r="P37" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="R37" t="n">
         <v>2</v>
@@ -5064,7 +5064,7 @@
         <v>1.57</v>
       </c>
       <c r="P38" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q38" t="n">
         <v>2.5</v>
@@ -5159,19 +5159,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H39" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I39" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J39" t="n">
         <v>1.08</v>
       </c>
       <c r="K39" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L39" t="n">
         <v>1.4</v>
@@ -5204,19 +5204,19 @@
         <v>9.5</v>
       </c>
       <c r="V39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X39" t="n">
         <v>19</v>
       </c>
       <c r="Y39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z39" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA39" t="n">
         <v>6</v>
@@ -5231,10 +5231,10 @@
         <v>351</v>
       </c>
       <c r="AE39" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG39" t="n">
         <v>13</v>
@@ -5281,7 +5281,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H40" t="n">
         <v>3.5</v>
@@ -5302,25 +5302,25 @@
         <v>3</v>
       </c>
       <c r="N40" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O40" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P40" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R40" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S40" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T40" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U40" t="n">
         <v>7</v>
@@ -5356,13 +5356,13 @@
         <v>12</v>
       </c>
       <c r="AF40" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG40" t="n">
         <v>19</v>
       </c>
       <c r="AH40" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI40" t="n">
         <v>41</v>
@@ -5525,13 +5525,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H42" t="n">
         <v>3.9</v>
       </c>
       <c r="I42" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J42" t="n">
         <v>1.05</v>
@@ -5552,19 +5552,19 @@
         <v>1.98</v>
       </c>
       <c r="P42" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q42" t="n">
         <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S42" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T42" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U42" t="n">
         <v>8</v>
@@ -5588,7 +5588,7 @@
         <v>7.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC42" t="n">
         <v>51</v>
@@ -5600,7 +5600,7 @@
         <v>13</v>
       </c>
       <c r="AF42" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG42" t="n">
         <v>15</v>
@@ -5609,7 +5609,7 @@
         <v>51</v>
       </c>
       <c r="AI42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ42" t="n">
         <v>41</v>
@@ -5891,7 +5891,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H45" t="n">
         <v>3.4</v>
@@ -5912,16 +5912,16 @@
         <v>3.75</v>
       </c>
       <c r="N45" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O45" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P45" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R45" t="n">
         <v>1.7</v>
@@ -5942,7 +5942,7 @@
         <v>41</v>
       </c>
       <c r="X45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y45" t="n">
         <v>34</v>
@@ -5975,10 +5975,10 @@
         <v>19</v>
       </c>
       <c r="AI45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ45" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46">
@@ -6013,13 +6013,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H46" t="n">
         <v>4.2</v>
       </c>
       <c r="I46" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="J46" t="n">
         <v>1.02</v>
@@ -6034,16 +6034,16 @@
         <v>5.5</v>
       </c>
       <c r="N46" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O46" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P46" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R46" t="n">
         <v>1.57</v>
@@ -6052,10 +6052,10 @@
         <v>2.25</v>
       </c>
       <c r="T46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U46" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V46" t="n">
         <v>15</v>
@@ -6070,7 +6070,7 @@
         <v>34</v>
       </c>
       <c r="Z46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA46" t="n">
         <v>8.5</v>
@@ -6135,13 +6135,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="H47" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I47" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="J47" t="n">
         <v>1.04</v>
@@ -6156,10 +6156,10 @@
         <v>3.75</v>
       </c>
       <c r="N47" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O47" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P47" t="n">
         <v>1.36</v>
@@ -6174,16 +6174,16 @@
         <v>2.1</v>
       </c>
       <c r="T47" t="n">
+        <v>9</v>
+      </c>
+      <c r="U47" t="n">
+        <v>12</v>
+      </c>
+      <c r="V47" t="n">
         <v>9.5</v>
       </c>
-      <c r="U47" t="n">
-        <v>13</v>
-      </c>
-      <c r="V47" t="n">
-        <v>10</v>
-      </c>
       <c r="W47" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X47" t="n">
         <v>19</v>
@@ -6198,7 +6198,7 @@
         <v>6.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC47" t="n">
         <v>41</v>
@@ -6207,13 +6207,13 @@
         <v>151</v>
       </c>
       <c r="AE47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF47" t="n">
         <v>15</v>
       </c>
       <c r="AG47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH47" t="n">
         <v>29</v>
@@ -6222,7 +6222,7 @@
         <v>21</v>
       </c>
       <c r="AJ47" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48">
@@ -6257,25 +6257,25 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H48" t="n">
         <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J48" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K48" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L48" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="M48" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N48" t="n">
         <v>2.88</v>
@@ -6284,22 +6284,22 @@
         <v>1.4</v>
       </c>
       <c r="P48" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R48" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S48" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T48" t="n">
         <v>5.5</v>
       </c>
       <c r="U48" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V48" t="n">
         <v>11</v>
@@ -6314,7 +6314,7 @@
         <v>41</v>
       </c>
       <c r="Z48" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA48" t="n">
         <v>6</v>
@@ -6335,13 +6335,13 @@
         <v>15</v>
       </c>
       <c r="AG48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH48" t="n">
         <v>41</v>
       </c>
       <c r="AI48" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ48" t="n">
         <v>51</v>
@@ -6379,10 +6379,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H49" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I49" t="n">
         <v>7</v>
@@ -6412,28 +6412,28 @@
         <v>2.63</v>
       </c>
       <c r="R49" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S49" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T49" t="n">
         <v>5.5</v>
       </c>
       <c r="U49" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V49" t="n">
+        <v>9</v>
+      </c>
+      <c r="W49" t="n">
         <v>9.5</v>
-      </c>
-      <c r="W49" t="n">
-        <v>9</v>
       </c>
       <c r="X49" t="n">
         <v>15</v>
       </c>
       <c r="Y49" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z49" t="n">
         <v>8.5</v>
@@ -6457,13 +6457,13 @@
         <v>34</v>
       </c>
       <c r="AG49" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH49" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ49" t="n">
         <v>67</v>
@@ -6501,13 +6501,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H50" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I50" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J50" t="n">
         <v>1.05</v>
@@ -6516,16 +6516,16 @@
         <v>11</v>
       </c>
       <c r="L50" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M50" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N50" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O50" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P50" t="n">
         <v>1.4</v>
@@ -6745,94 +6745,94 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="H52" t="n">
         <v>5.75</v>
       </c>
       <c r="I52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J52" t="n">
         <v>1.03</v>
       </c>
       <c r="K52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L52" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N52" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O52" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P52" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q52" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R52" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S52" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="T52" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="U52" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V52" t="n">
         <v>10</v>
       </c>
       <c r="W52" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X52" t="n">
         <v>11</v>
       </c>
       <c r="Y52" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA52" t="n">
         <v>11</v>
       </c>
       <c r="AB52" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>401</v>
+      </c>
+      <c r="AE52" t="n">
         <v>26</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>501</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>29</v>
       </c>
       <c r="AF52" t="n">
         <v>51</v>
       </c>
       <c r="AG52" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH52" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AI52" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AJ52" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53">
@@ -6867,10 +6867,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H53" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="I53" t="n">
         <v>1.22</v>
@@ -6888,7 +6888,7 @@
         <v>4.33</v>
       </c>
       <c r="N53" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="O53" t="n">
         <v>2.15</v>
@@ -6900,10 +6900,10 @@
         <v>3.4</v>
       </c>
       <c r="R53" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S53" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T53" t="n">
         <v>23</v>
@@ -6915,7 +6915,7 @@
         <v>34</v>
       </c>
       <c r="W53" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="X53" t="n">
         <v>101</v>
@@ -6945,16 +6945,16 @@
         <v>5.5</v>
       </c>
       <c r="AG53" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI53" t="n">
         <v>12</v>
       </c>
       <c r="AJ53" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
@@ -7004,16 +7004,16 @@
         <v>11</v>
       </c>
       <c r="L54" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M54" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N54" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O54" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P54" t="n">
         <v>1.4</v>
@@ -7120,10 +7120,10 @@
         <v>2.05</v>
       </c>
       <c r="J55" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K55" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L55" t="n">
         <v>1.36</v>
@@ -7135,7 +7135,7 @@
         <v>2.15</v>
       </c>
       <c r="O55" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P55" t="n">
         <v>1.5</v>
@@ -7233,13 +7233,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="H56" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="I56" t="n">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="J56" t="n">
         <v>1.05</v>
@@ -7266,52 +7266,52 @@
         <v>2.75</v>
       </c>
       <c r="R56" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S56" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T56" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U56" t="n">
         <v>7</v>
-      </c>
-      <c r="U56" t="n">
-        <v>8.5</v>
       </c>
       <c r="V56" t="n">
         <v>8.5</v>
       </c>
       <c r="W56" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="X56" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y56" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z56" t="n">
         <v>10</v>
       </c>
       <c r="AA56" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB56" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC56" t="n">
         <v>51</v>
       </c>
       <c r="AD56" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AE56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF56" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AG56" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AH56" t="n">
         <v>51</v>
@@ -7320,7 +7320,7 @@
         <v>41</v>
       </c>
       <c r="AJ56" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57">
@@ -7355,49 +7355,49 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H57" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I57" t="n">
         <v>3.2</v>
       </c>
       <c r="J57" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K57" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L57" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M57" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N57" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O57" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="P57" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R57" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S57" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="T57" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="U57" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="V57" t="n">
         <v>9.5</v>
@@ -7406,28 +7406,28 @@
         <v>21</v>
       </c>
       <c r="X57" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y57" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z57" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA57" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB57" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC57" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD57" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AE57" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF57" t="n">
         <v>15</v>
@@ -7439,10 +7439,10 @@
         <v>34</v>
       </c>
       <c r="AI57" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ57" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
@@ -7477,49 +7477,49 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H58" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I58" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J58" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K58" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L58" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M58" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N58" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="O58" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="P58" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R58" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S58" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="T58" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U58" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V58" t="n">
         <v>8.5</v>
@@ -7528,25 +7528,25 @@
         <v>11</v>
       </c>
       <c r="X58" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y58" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z58" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA58" t="n">
         <v>7.5</v>
       </c>
       <c r="AB58" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC58" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD58" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE58" t="n">
         <v>13</v>
@@ -7561,7 +7561,7 @@
         <v>67</v>
       </c>
       <c r="AI58" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ58" t="n">
         <v>51</v>
@@ -7614,16 +7614,16 @@
         <v>8</v>
       </c>
       <c r="L59" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M59" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N59" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O59" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P59" t="n">
         <v>1.5</v>
@@ -7721,31 +7721,31 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H60" t="n">
         <v>3.3</v>
       </c>
       <c r="I60" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J60" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K60" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="L60" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M60" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N60" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O60" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P60" t="n">
         <v>1.44</v>
@@ -7754,19 +7754,19 @@
         <v>2.63</v>
       </c>
       <c r="R60" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S60" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T60" t="n">
         <v>8.5</v>
       </c>
       <c r="U60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V60" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W60" t="n">
         <v>29</v>
@@ -7778,10 +7778,10 @@
         <v>34</v>
       </c>
       <c r="Z60" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA60" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB60" t="n">
         <v>15</v>
@@ -7793,13 +7793,13 @@
         <v>251</v>
       </c>
       <c r="AE60" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG60" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH60" t="n">
         <v>23</v>
@@ -7963,7 +7963,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H62" t="n">
         <v>3.9</v>
@@ -8097,7 +8097,7 @@
         <v>1.06</v>
       </c>
       <c r="K63" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L63" t="n">
         <v>1.3</v>
@@ -8210,19 +8210,19 @@
         <v>2.2</v>
       </c>
       <c r="H64" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I64" t="n">
         <v>3.4</v>
       </c>
       <c r="J64" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K64" t="n">
         <v>8</v>
       </c>
       <c r="L64" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
@@ -8240,10 +8240,10 @@
         <v>2.5</v>
       </c>
       <c r="R64" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S64" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T64" t="n">
         <v>7</v>
@@ -8264,25 +8264,25 @@
         <v>34</v>
       </c>
       <c r="Z64" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA64" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB64" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC64" t="n">
         <v>51</v>
       </c>
       <c r="AD64" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE64" t="n">
         <v>9</v>
       </c>
       <c r="AF64" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG64" t="n">
         <v>12</v>
@@ -8338,13 +8338,13 @@
         <v>3.6</v>
       </c>
       <c r="J65" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K65" t="n">
         <v>8</v>
       </c>
       <c r="L65" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
@@ -8451,25 +8451,25 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="H66" t="n">
         <v>3.6</v>
       </c>
       <c r="I66" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J66" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K66" t="n">
         <v>7</v>
       </c>
       <c r="L66" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M66" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N66" t="n">
         <v>2.38</v>
@@ -8484,10 +8484,10 @@
         <v>2.38</v>
       </c>
       <c r="R66" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S66" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T66" t="n">
         <v>5</v>
@@ -8529,7 +8529,7 @@
         <v>26</v>
       </c>
       <c r="AG66" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH66" t="n">
         <v>67</v>
@@ -8582,16 +8582,16 @@
         <v>3.3</v>
       </c>
       <c r="J67" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K67" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L67" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M67" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N67" t="n">
         <v>2.1</v>
@@ -8606,16 +8606,16 @@
         <v>2.63</v>
       </c>
       <c r="R67" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S67" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T67" t="n">
         <v>7</v>
       </c>
       <c r="U67" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V67" t="n">
         <v>9</v>
@@ -8642,19 +8642,19 @@
         <v>51</v>
       </c>
       <c r="AD67" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE67" t="n">
         <v>9</v>
       </c>
       <c r="AF67" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG67" t="n">
         <v>12</v>
       </c>
       <c r="AH67" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI67" t="n">
         <v>29</v>
@@ -8695,94 +8695,94 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H68" t="n">
         <v>3.8</v>
       </c>
       <c r="I68" t="n">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="J68" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="K68" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L68" t="n">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="M68" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N68" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O68" t="n">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="P68" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="R68" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="S68" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="T68" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="U68" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="V68" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W68" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X68" t="n">
         <v>15</v>
       </c>
       <c r="Y68" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Z68" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AA68" t="n">
         <v>7.5</v>
       </c>
       <c r="AB68" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC68" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AD68" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AE68" t="n">
         <v>13</v>
       </c>
       <c r="AF68" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AG68" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AH68" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI68" t="n">
         <v>51</v>
       </c>
-      <c r="AI68" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ68" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69">
@@ -8817,37 +8817,37 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="H69" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="I69" t="n">
         <v>13</v>
       </c>
       <c r="J69" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K69" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L69" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="M69" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="N69" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="O69" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="P69" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q69" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R69" t="n">
         <v>2.5</v>
@@ -8874,7 +8874,7 @@
         <v>41</v>
       </c>
       <c r="Z69" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA69" t="n">
         <v>12</v>
@@ -8887,13 +8887,13 @@
       </c>
       <c r="AD69" t="inlineStr"/>
       <c r="AE69" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF69" t="n">
         <v>51</v>
       </c>
       <c r="AG69" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AH69" t="n">
         <v>201</v>
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H70" t="n">
         <v>3.5</v>
       </c>
       <c r="I70" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J70" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K70" t="n">
         <v>13</v>
       </c>
       <c r="L70" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
@@ -9059,19 +9059,19 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H71" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I71" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="J71" t="n">
         <v>1.06</v>
       </c>
       <c r="K71" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L71" t="n">
         <v>1.33</v>
@@ -9080,10 +9080,10 @@
         <v>3.25</v>
       </c>
       <c r="N71" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O71" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P71" t="n">
         <v>1.44</v>
@@ -9098,25 +9098,25 @@
         <v>1.91</v>
       </c>
       <c r="T71" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U71" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V71" t="n">
         <v>12</v>
       </c>
       <c r="W71" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X71" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y71" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z71" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA71" t="n">
         <v>6.5</v>
@@ -9131,19 +9131,19 @@
         <v>301</v>
       </c>
       <c r="AE71" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF71" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG71" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH71" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI71" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ71" t="n">
         <v>29</v>
@@ -9193,7 +9193,7 @@
         <v>1.07</v>
       </c>
       <c r="K72" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L72" t="n">
         <v>1.36</v>
@@ -9202,10 +9202,10 @@
         <v>3</v>
       </c>
       <c r="N72" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O72" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P72" t="n">
         <v>1.5</v>
@@ -9303,7 +9303,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H73" t="n">
         <v>3.5</v>
@@ -9312,22 +9312,22 @@
         <v>1.9</v>
       </c>
       <c r="J73" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K73" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L73" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M73" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N73" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="O73" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P73" t="n">
         <v>1.5</v>
@@ -9336,10 +9336,10 @@
         <v>2.5</v>
       </c>
       <c r="R73" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S73" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T73" t="n">
         <v>9</v>
@@ -9348,7 +9348,7 @@
         <v>19</v>
       </c>
       <c r="V73" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W73" t="n">
         <v>41</v>
@@ -9360,10 +9360,10 @@
         <v>41</v>
       </c>
       <c r="Z73" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA73" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB73" t="n">
         <v>19</v>
@@ -9387,7 +9387,7 @@
         <v>15</v>
       </c>
       <c r="AI73" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ73" t="n">
         <v>34</v>
@@ -9431,7 +9431,7 @@
         <v>3.5</v>
       </c>
       <c r="I74" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J74" t="n">
         <v>1.04</v>
@@ -9473,16 +9473,16 @@
         <v>10</v>
       </c>
       <c r="W74" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X74" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y74" t="n">
         <v>23</v>
       </c>
       <c r="Z74" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA74" t="n">
         <v>7</v>
@@ -9491,7 +9491,7 @@
         <v>12</v>
       </c>
       <c r="AC74" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD74" t="n">
         <v>126</v>
@@ -9500,13 +9500,13 @@
         <v>11</v>
       </c>
       <c r="AF74" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG74" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH74" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI74" t="n">
         <v>19</v>
@@ -9678,10 +9678,10 @@
         <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K76" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L76" t="n">
         <v>1.33</v>
@@ -9690,10 +9690,10 @@
         <v>3.25</v>
       </c>
       <c r="N76" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O76" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P76" t="n">
         <v>1.44</v>
@@ -9791,94 +9791,94 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H77" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I77" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="J77" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K77" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L77" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="M77" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N77" t="n">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O77" t="n">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="P77" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="R77" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="S77" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="T77" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U77" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W77" t="n">
+        <v>15</v>
+      </c>
+      <c r="X77" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z77" t="n">
         <v>6.5</v>
-      </c>
-      <c r="U77" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="V77" t="n">
-        <v>9</v>
-      </c>
-      <c r="W77" t="n">
-        <v>17</v>
-      </c>
-      <c r="X77" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>8</v>
       </c>
       <c r="AA77" t="n">
         <v>6.5</v>
       </c>
       <c r="AB77" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>501</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG77" t="n">
         <v>17</v>
       </c>
-      <c r="AC77" t="n">
+      <c r="AH77" t="n">
         <v>51</v>
       </c>
-      <c r="AD77" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH77" t="n">
+      <c r="AI77" t="n">
         <v>41</v>
       </c>
-      <c r="AI77" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ77" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78">
@@ -9913,13 +9913,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="H78" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I78" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -9944,55 +9944,55 @@
         <v>1.98</v>
       </c>
       <c r="T78" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="U78" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="V78" t="n">
         <v>7</v>
       </c>
       <c r="W78" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="X78" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Y78" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z78" t="n">
         <v>11.75</v>
       </c>
       <c r="AA78" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AB78" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC78" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD78" t="n">
         <v>350</v>
       </c>
       <c r="AE78" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF78" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG78" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH78" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AI78" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AJ78" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79">
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="H79" t="n">
         <v>3.55</v>
@@ -10058,10 +10058,10 @@
         <v>2.33</v>
       </c>
       <c r="T79" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="U79" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="V79" t="n">
         <v>9</v>
@@ -10070,10 +10070,10 @@
         <v>28</v>
       </c>
       <c r="X79" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y79" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z79" t="n">
         <v>13.5</v>
@@ -10100,13 +10100,13 @@
         <v>7.5</v>
       </c>
       <c r="AH79" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI79" t="n">
         <v>12.5</v>
       </c>
       <c r="AJ79" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80">
@@ -10251,13 +10251,13 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H81" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I81" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="J81" t="n">
         <v>1.05</v>
@@ -10266,16 +10266,16 @@
         <v>11</v>
       </c>
       <c r="L81" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M81" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N81" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O81" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P81" t="n">
         <v>1.4</v>
@@ -10290,7 +10290,7 @@
         <v>1.83</v>
       </c>
       <c r="T81" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U81" t="n">
         <v>26</v>
@@ -10332,10 +10332,10 @@
         <v>8.5</v>
       </c>
       <c r="AH81" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI81" t="n">
         <v>13</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>15</v>
       </c>
       <c r="AJ81" t="n">
         <v>26</v>
@@ -10495,46 +10495,46 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H83" t="n">
         <v>3.5</v>
       </c>
       <c r="I83" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J83" t="n">
         <v>1.03</v>
       </c>
       <c r="K83" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L83" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M83" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N83" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O83" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="P83" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q83" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R83" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S83" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T83" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U83" t="n">
         <v>15</v>
@@ -10552,7 +10552,7 @@
         <v>21</v>
       </c>
       <c r="Z83" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA83" t="n">
         <v>7</v>
@@ -10567,7 +10567,7 @@
         <v>101</v>
       </c>
       <c r="AE83" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF83" t="n">
         <v>17</v>
@@ -10617,13 +10617,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H84" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I84" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J84" t="n">
         <v>1.03</v>
@@ -10644,22 +10644,22 @@
         <v>2.35</v>
       </c>
       <c r="P84" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q84" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R84" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S84" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T84" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U84" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V84" t="n">
         <v>8.5</v>
@@ -10668,13 +10668,13 @@
         <v>15</v>
       </c>
       <c r="X84" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y84" t="n">
         <v>21</v>
       </c>
       <c r="Z84" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA84" t="n">
         <v>8</v>
@@ -10686,13 +10686,13 @@
         <v>41</v>
       </c>
       <c r="AD84" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE84" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF84" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG84" t="n">
         <v>15</v>
@@ -10745,7 +10745,7 @@
         <v>3.3</v>
       </c>
       <c r="I85" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J85" t="n">
         <v>1.05</v>
@@ -10861,13 +10861,13 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H86" t="n">
         <v>3.6</v>
       </c>
       <c r="I86" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
         <v>1.03</v>
@@ -10882,16 +10882,16 @@
         <v>5</v>
       </c>
       <c r="N86" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O86" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P86" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q86" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R86" t="n">
         <v>1.5</v>
@@ -10900,16 +10900,16 @@
         <v>2.5</v>
       </c>
       <c r="T86" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U86" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V86" t="n">
         <v>9.5</v>
       </c>
       <c r="W86" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X86" t="n">
         <v>17</v>
@@ -10918,10 +10918,10 @@
         <v>21</v>
       </c>
       <c r="Z86" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA86" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB86" t="n">
         <v>11</v>
@@ -11105,19 +11105,19 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H88" t="n">
         <v>3.25</v>
       </c>
       <c r="I88" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="J88" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K88" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L88" t="n">
         <v>1.33</v>
@@ -11126,10 +11126,10 @@
         <v>3.25</v>
       </c>
       <c r="N88" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O88" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P88" t="n">
         <v>1.44</v>
@@ -11138,25 +11138,25 @@
         <v>2.63</v>
       </c>
       <c r="R88" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S88" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T88" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U88" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V88" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W88" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X88" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y88" t="n">
         <v>29</v>
@@ -11177,19 +11177,19 @@
         <v>251</v>
       </c>
       <c r="AE88" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF88" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG88" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH88" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI88" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ88" t="n">
         <v>34</v>
@@ -11349,31 +11349,31 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H90" t="n">
         <v>3.4</v>
       </c>
       <c r="I90" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J90" t="n">
         <v>1.06</v>
       </c>
       <c r="K90" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L90" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M90" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N90" t="n">
         <v>2.05</v>
       </c>
       <c r="O90" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P90" t="n">
         <v>1.44</v>
@@ -11382,16 +11382,16 @@
         <v>2.63</v>
       </c>
       <c r="R90" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S90" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T90" t="n">
         <v>9.5</v>
       </c>
       <c r="U90" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V90" t="n">
         <v>12</v>
@@ -11400,7 +11400,7 @@
         <v>34</v>
       </c>
       <c r="X90" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y90" t="n">
         <v>34</v>
@@ -11427,10 +11427,10 @@
         <v>10</v>
       </c>
       <c r="AG90" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH90" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI90" t="n">
         <v>19</v>
@@ -11715,13 +11715,13 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H93" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I93" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J93" t="n">
         <v>1.08</v>
@@ -11736,10 +11736,10 @@
         <v>3</v>
       </c>
       <c r="N93" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O93" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P93" t="n">
         <v>1.5</v>
@@ -11757,13 +11757,13 @@
         <v>7</v>
       </c>
       <c r="U93" t="n">
+        <v>11</v>
+      </c>
+      <c r="V93" t="n">
         <v>10</v>
       </c>
-      <c r="V93" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W93" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X93" t="n">
         <v>21</v>
@@ -11772,10 +11772,10 @@
         <v>34</v>
       </c>
       <c r="Z93" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA93" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB93" t="n">
         <v>15</v>
@@ -12081,31 +12081,31 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H96" t="n">
         <v>3</v>
       </c>
       <c r="I96" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="J96" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K96" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L96" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M96" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N96" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="O96" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="P96" t="n">
         <v>1.57</v>
@@ -12114,25 +12114,25 @@
         <v>2.25</v>
       </c>
       <c r="R96" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S96" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T96" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U96" t="n">
         <v>15</v>
       </c>
       <c r="V96" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W96" t="n">
+        <v>41</v>
+      </c>
+      <c r="X96" t="n">
         <v>34</v>
-      </c>
-      <c r="X96" t="n">
-        <v>29</v>
       </c>
       <c r="Y96" t="n">
         <v>41</v>
@@ -12153,7 +12153,7 @@
         <v>501</v>
       </c>
       <c r="AE96" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF96" t="n">
         <v>10</v>
@@ -12162,10 +12162,10 @@
         <v>10</v>
       </c>
       <c r="AH96" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI96" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ96" t="n">
         <v>41</v>
@@ -12453,19 +12453,19 @@
         <v>2.9</v>
       </c>
       <c r="I99" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J99" t="n">
         <v>1.08</v>
       </c>
       <c r="K99" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L99" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M99" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N99" t="n">
         <v>2.25</v>
@@ -12480,10 +12480,10 @@
         <v>2.5</v>
       </c>
       <c r="R99" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S99" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T99" t="n">
         <v>7</v>
@@ -12504,7 +12504,7 @@
         <v>34</v>
       </c>
       <c r="Z99" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA99" t="n">
         <v>6</v>
@@ -12531,7 +12531,7 @@
         <v>34</v>
       </c>
       <c r="AI99" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ99" t="n">
         <v>41</v>
@@ -12816,43 +12816,43 @@
         <v>4.2</v>
       </c>
       <c r="H102" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K102" t="n">
+        <v>9</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M102" t="n">
         <v>3</v>
       </c>
-      <c r="I102" t="n">
+      <c r="N102" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O102" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P102" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R102" t="n">
         <v>2</v>
       </c>
-      <c r="J102" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K102" t="n">
-        <v>7</v>
-      </c>
-      <c r="L102" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M102" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N102" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O102" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P102" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R102" t="n">
-        <v>2.1</v>
-      </c>
       <c r="S102" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="T102" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U102" t="n">
         <v>19</v>
@@ -12867,22 +12867,22 @@
         <v>41</v>
       </c>
       <c r="Y102" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z102" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA102" t="n">
         <v>6</v>
       </c>
       <c r="AB102" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC102" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD102" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AE102" t="n">
         <v>6</v>
@@ -12891,16 +12891,16 @@
         <v>8.5</v>
       </c>
       <c r="AG102" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH102" t="n">
         <v>17</v>
       </c>
       <c r="AI102" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ102" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103">
@@ -12938,7 +12938,7 @@
         <v>2.55</v>
       </c>
       <c r="H103" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I103" t="n">
         <v>3</v>
@@ -12950,10 +12950,10 @@
         <v>8</v>
       </c>
       <c r="L103" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M103" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N103" t="n">
         <v>2.25</v>
@@ -12962,40 +12962,40 @@
         <v>1.62</v>
       </c>
       <c r="P103" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R103" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S103" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T103" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U103" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V103" t="n">
         <v>10</v>
       </c>
       <c r="W103" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X103" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y103" t="n">
         <v>34</v>
       </c>
       <c r="Z103" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA103" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB103" t="n">
         <v>15</v>
@@ -13004,16 +13004,16 @@
         <v>51</v>
       </c>
       <c r="AD103" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE103" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF103" t="n">
         <v>13</v>
       </c>
       <c r="AG103" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH103" t="n">
         <v>29</v>
@@ -13022,7 +13022,7 @@
         <v>26</v>
       </c>
       <c r="AJ103" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104">
@@ -13060,34 +13060,34 @@
         <v>2.05</v>
       </c>
       <c r="H104" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I104" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J104" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K104" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L104" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M104" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N104" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="O104" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="P104" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R104" t="n">
         <v>1.8</v>
@@ -13099,7 +13099,7 @@
         <v>7.5</v>
       </c>
       <c r="U104" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V104" t="n">
         <v>9</v>
@@ -13111,13 +13111,13 @@
         <v>17</v>
       </c>
       <c r="Y104" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z104" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA104" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB104" t="n">
         <v>15</v>
@@ -13129,13 +13129,13 @@
         <v>251</v>
       </c>
       <c r="AE104" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF104" t="n">
         <v>19</v>
       </c>
       <c r="AG104" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH104" t="n">
         <v>41</v>
@@ -13144,7 +13144,7 @@
         <v>29</v>
       </c>
       <c r="AJ104" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105">
@@ -13182,10 +13182,10 @@
         <v>1.95</v>
       </c>
       <c r="H105" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I105" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J105" t="n">
         <v>1.07</v>
@@ -13206,10 +13206,10 @@
         <v>1.67</v>
       </c>
       <c r="P105" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R105" t="n">
         <v>1.95</v>
@@ -13233,31 +13233,31 @@
         <v>17</v>
       </c>
       <c r="Y105" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z105" t="n">
         <v>8</v>
       </c>
       <c r="AA105" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB105" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC105" t="n">
         <v>51</v>
       </c>
       <c r="AD105" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AE105" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AF105" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG105" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH105" t="n">
         <v>41</v>
@@ -13307,13 +13307,13 @@
         <v>4.75</v>
       </c>
       <c r="I106" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J106" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K106" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L106" t="n">
         <v>1.22</v>
@@ -13322,10 +13322,10 @@
         <v>4</v>
       </c>
       <c r="N106" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O106" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P106" t="n">
         <v>1.33</v>
@@ -13334,10 +13334,10 @@
         <v>3.25</v>
       </c>
       <c r="R106" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S106" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T106" t="n">
         <v>6.5</v>
@@ -13346,10 +13346,10 @@
         <v>6</v>
       </c>
       <c r="V106" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W106" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X106" t="n">
         <v>12</v>
@@ -13358,19 +13358,19 @@
         <v>29</v>
       </c>
       <c r="Z106" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA106" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB106" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC106" t="n">
         <v>67</v>
       </c>
       <c r="AD106" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE106" t="n">
         <v>21</v>
@@ -13382,7 +13382,7 @@
         <v>26</v>
       </c>
       <c r="AH106" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI106" t="n">
         <v>67</v>
@@ -14542,10 +14542,10 @@
         <v>3.5</v>
       </c>
       <c r="N116" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O116" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P116" t="n">
         <v>1.4</v>
@@ -14797,7 +14797,7 @@
         <v>1.95</v>
       </c>
       <c r="S118" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="T118" t="n">
         <v>8.25</v>
@@ -14912,13 +14912,13 @@
         <v>2.5</v>
       </c>
       <c r="R119" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="S119" t="n">
         <v>1.72</v>
       </c>
       <c r="T119" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="U119" t="n">
         <v>5.3</v>
@@ -14933,7 +14933,7 @@
         <v>9.75</v>
       </c>
       <c r="Y119" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z119" t="n">
         <v>10.5</v>
@@ -14942,7 +14942,7 @@
         <v>7.3</v>
       </c>
       <c r="AB119" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC119" t="n">
         <v>80</v>
@@ -14966,7 +14966,7 @@
         <v>65</v>
       </c>
       <c r="AJ119" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120">
@@ -15132,10 +15132,10 @@
         <v>4.1</v>
       </c>
       <c r="J121" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K121" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L121" t="n">
         <v>1.33</v>
@@ -15144,10 +15144,10 @@
         <v>3.25</v>
       </c>
       <c r="N121" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O121" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P121" t="n">
         <v>1.44</v>
@@ -15388,10 +15388,10 @@
         <v>3.4</v>
       </c>
       <c r="N123" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O123" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P123" t="n">
         <v>1.4</v>
@@ -15606,24 +15606,24 @@
         <v>1.57</v>
       </c>
       <c r="H125" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I125" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M125" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="N125" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O125" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P125" t="n">
         <v>1.38</v>
@@ -15635,13 +15635,13 @@
         <v>1.75</v>
       </c>
       <c r="S125" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T125" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="U125" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="V125" t="n">
         <v>8</v>
@@ -15650,16 +15650,16 @@
         <v>11.5</v>
       </c>
       <c r="X125" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y125" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z125" t="n">
         <v>11.75</v>
       </c>
       <c r="AA125" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AB125" t="n">
         <v>16</v>
@@ -15671,16 +15671,16 @@
         <v>500</v>
       </c>
       <c r="AE125" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF125" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG125" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH125" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI125" t="n">
         <v>50</v>
@@ -16071,13 +16071,13 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H129" t="n">
         <v>4</v>
       </c>
       <c r="I129" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J129" t="n">
         <v>1.03</v>
@@ -16098,7 +16098,7 @@
         <v>2.25</v>
       </c>
       <c r="P129" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Q129" t="n">
         <v>3.4</v>
@@ -16113,16 +16113,16 @@
         <v>9</v>
       </c>
       <c r="U129" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V129" t="n">
         <v>8.5</v>
       </c>
       <c r="W129" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X129" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y129" t="n">
         <v>21</v>
@@ -16143,7 +16143,7 @@
         <v>151</v>
       </c>
       <c r="AE129" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF129" t="n">
         <v>26</v>
@@ -16193,19 +16193,19 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H130" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I130" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="J130" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K130" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L130" t="n">
         <v>1.2</v>
@@ -16214,10 +16214,10 @@
         <v>4.33</v>
       </c>
       <c r="N130" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O130" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P130" t="n">
         <v>1.33</v>
@@ -16226,25 +16226,25 @@
         <v>3.25</v>
       </c>
       <c r="R130" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S130" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T130" t="n">
         <v>13</v>
       </c>
       <c r="U130" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V130" t="n">
         <v>12</v>
       </c>
       <c r="W130" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X130" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y130" t="n">
         <v>29</v>
@@ -16271,10 +16271,10 @@
         <v>11</v>
       </c>
       <c r="AG130" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH130" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI130" t="n">
         <v>15</v>
@@ -16336,10 +16336,10 @@
         <v>3.4</v>
       </c>
       <c r="N131" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O131" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P131" t="n">
         <v>1.4</v>
@@ -16681,10 +16681,10 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H134" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I134" t="n">
         <v>4.5</v>
@@ -16714,13 +16714,13 @@
         <v>3</v>
       </c>
       <c r="R134" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S134" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T134" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U134" t="n">
         <v>8</v>
@@ -16741,10 +16741,10 @@
         <v>11</v>
       </c>
       <c r="AA134" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB134" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC134" t="n">
         <v>51</v>
@@ -16806,7 +16806,7 @@
         <v>1.18</v>
       </c>
       <c r="H135" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I135" t="n">
         <v>13</v>
@@ -16818,16 +16818,16 @@
         <v>19</v>
       </c>
       <c r="L135" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M135" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N135" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O135" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="P135" t="n">
         <v>1.22</v>
@@ -16857,13 +16857,13 @@
         <v>11</v>
       </c>
       <c r="Y135" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z135" t="n">
         <v>19</v>
       </c>
       <c r="AA135" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB135" t="n">
         <v>23</v>
@@ -17169,7 +17169,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H138" t="n">
         <v>3.4</v>
@@ -17214,7 +17214,7 @@
         <v>17</v>
       </c>
       <c r="V138" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W138" t="n">
         <v>34</v>
@@ -17223,7 +17223,7 @@
         <v>23</v>
       </c>
       <c r="Y138" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z138" t="n">
         <v>13</v>
@@ -17241,7 +17241,7 @@
         <v>126</v>
       </c>
       <c r="AE138" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF138" t="n">
         <v>12</v>
@@ -17291,82 +17291,82 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H139" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I139" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J139" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K139" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L139" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="M139" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N139" t="n">
-        <v>2.03</v>
+        <v>1.73</v>
       </c>
       <c r="O139" t="n">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="P139" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q139" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R139" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="S139" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="T139" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U139" t="n">
         <v>19</v>
       </c>
       <c r="V139" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W139" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X139" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y139" t="n">
         <v>29</v>
       </c>
-      <c r="Y139" t="n">
-        <v>34</v>
-      </c>
       <c r="Z139" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA139" t="n">
         <v>6.5</v>
       </c>
       <c r="AB139" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC139" t="n">
         <v>41</v>
       </c>
       <c r="AD139" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE139" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AF139" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG139" t="n">
         <v>9</v>
@@ -17375,10 +17375,10 @@
         <v>19</v>
       </c>
       <c r="AI139" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ139" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140">
@@ -17434,10 +17434,10 @@
         <v>3.15</v>
       </c>
       <c r="N140" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O140" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P140" t="n">
         <v>1.44</v>
@@ -17544,10 +17544,10 @@
         <v>4</v>
       </c>
       <c r="J141" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K141" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L141" t="n">
         <v>1.29</v>
@@ -17559,7 +17559,7 @@
         <v>1.95</v>
       </c>
       <c r="O141" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P141" t="n">
         <v>1.4</v>
@@ -17657,13 +17657,13 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H142" t="n">
         <v>3.5</v>
       </c>
       <c r="I142" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J142" t="n">
         <v>1.07</v>
@@ -17732,7 +17732,7 @@
         <v>11</v>
       </c>
       <c r="AF142" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG142" t="n">
         <v>17</v>
@@ -17791,19 +17791,19 @@
         <v>1.06</v>
       </c>
       <c r="K143" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L143" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M143" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N143" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="O143" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P143" t="n">
         <v>1.44</v>
@@ -17812,10 +17812,10 @@
         <v>2.63</v>
       </c>
       <c r="R143" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S143" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T143" t="n">
         <v>7</v>
@@ -17824,7 +17824,7 @@
         <v>9</v>
       </c>
       <c r="V143" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W143" t="n">
         <v>17</v>
@@ -17836,7 +17836,7 @@
         <v>29</v>
       </c>
       <c r="Z143" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA143" t="n">
         <v>6.5</v>
@@ -17851,7 +17851,7 @@
         <v>301</v>
       </c>
       <c r="AE143" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF143" t="n">
         <v>19</v>
@@ -17901,7 +17901,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="H144" t="n">
         <v>4.75</v>
@@ -17910,10 +17910,10 @@
         <v>1.36</v>
       </c>
       <c r="J144" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K144" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L144" t="n">
         <v>1.25</v>
@@ -17949,7 +17949,7 @@
         <v>26</v>
       </c>
       <c r="W144" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="X144" t="n">
         <v>67</v>
@@ -17982,7 +17982,7 @@
         <v>9</v>
       </c>
       <c r="AH144" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI144" t="n">
         <v>13</v>
@@ -18038,16 +18038,16 @@
         <v>11</v>
       </c>
       <c r="L145" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M145" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N145" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O145" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P145" t="n">
         <v>1.36</v>
@@ -18267,13 +18267,13 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H147" t="n">
         <v>3</v>
       </c>
       <c r="I147" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J147" t="n">
         <v>1.07</v>
@@ -18306,7 +18306,7 @@
         <v>1.83</v>
       </c>
       <c r="T147" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U147" t="n">
         <v>13</v>
@@ -18315,7 +18315,7 @@
         <v>11</v>
       </c>
       <c r="W147" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X147" t="n">
         <v>23</v>
@@ -18342,16 +18342,16 @@
         <v>8</v>
       </c>
       <c r="AF147" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG147" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH147" t="n">
         <v>26</v>
       </c>
       <c r="AI147" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ147" t="n">
         <v>34</v>
@@ -18389,13 +18389,13 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H148" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I148" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J148" t="n">
         <v>1.04</v>
@@ -18404,34 +18404,34 @@
         <v>13</v>
       </c>
       <c r="L148" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="M148" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="N148" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="O148" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P148" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q148" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R148" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S148" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T148" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U148" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V148" t="n">
         <v>8.5</v>
@@ -18443,25 +18443,25 @@
         <v>12</v>
       </c>
       <c r="Y148" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Z148" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA148" t="n">
         <v>8.5</v>
       </c>
       <c r="AB148" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC148" t="n">
         <v>51</v>
       </c>
       <c r="AD148" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AE148" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF148" t="n">
         <v>34</v>
@@ -18473,10 +18473,10 @@
         <v>67</v>
       </c>
       <c r="AI148" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ148" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="149">
@@ -18517,7 +18517,7 @@
         <v>3.3</v>
       </c>
       <c r="I149" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J149" t="n">
         <v>1.07</v>
@@ -18526,16 +18526,16 @@
         <v>9</v>
       </c>
       <c r="L149" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M149" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N149" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O149" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P149" t="n">
         <v>1.44</v>
@@ -18553,7 +18553,7 @@
         <v>6.5</v>
       </c>
       <c r="U149" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V149" t="n">
         <v>9</v>
@@ -18568,7 +18568,7 @@
         <v>29</v>
       </c>
       <c r="Z149" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA149" t="n">
         <v>6.5</v>
@@ -18583,7 +18583,7 @@
         <v>351</v>
       </c>
       <c r="AE149" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF149" t="n">
         <v>19</v>
@@ -18755,19 +18755,19 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H151" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I151" t="n">
         <v>5.25</v>
       </c>
       <c r="J151" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K151" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L151" t="n">
         <v>1.29</v>
@@ -18776,10 +18776,10 @@
         <v>3.75</v>
       </c>
       <c r="N151" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O151" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P151" t="n">
         <v>1.4</v>
@@ -18797,13 +18797,13 @@
         <v>7</v>
       </c>
       <c r="U151" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V151" t="n">
         <v>8.5</v>
       </c>
       <c r="W151" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X151" t="n">
         <v>13</v>
@@ -18812,7 +18812,7 @@
         <v>26</v>
       </c>
       <c r="Z151" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA151" t="n">
         <v>7</v>
@@ -18877,19 +18877,19 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H152" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="I152" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J152" t="n">
         <v>1.02</v>
       </c>
       <c r="K152" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L152" t="n">
         <v>1.13</v>
@@ -18898,10 +18898,10 @@
         <v>6</v>
       </c>
       <c r="N152" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O152" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P152" t="n">
         <v>1.22</v>
@@ -18919,7 +18919,7 @@
         <v>10</v>
       </c>
       <c r="U152" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V152" t="n">
         <v>9</v>
@@ -18931,7 +18931,7 @@
         <v>10</v>
       </c>
       <c r="Y152" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z152" t="n">
         <v>21</v>
@@ -18946,13 +18946,13 @@
         <v>51</v>
       </c>
       <c r="AD152" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE152" t="n">
         <v>26</v>
       </c>
       <c r="AF152" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG152" t="n">
         <v>23</v>
@@ -19121,46 +19121,46 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H154" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I154" t="n">
         <v>3</v>
       </c>
       <c r="J154" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K154" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M154" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N154" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O154" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P154" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R154" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S154" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T154" t="n">
         <v>8</v>
-      </c>
-      <c r="L154" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M154" t="n">
-        <v>3</v>
-      </c>
-      <c r="N154" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O154" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P154" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q154" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R154" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S154" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T154" t="n">
-        <v>7</v>
       </c>
       <c r="U154" t="n">
         <v>11</v>
@@ -19169,19 +19169,19 @@
         <v>9.5</v>
       </c>
       <c r="W154" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X154" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y154" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z154" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AA154" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB154" t="n">
         <v>15</v>
@@ -19190,10 +19190,10 @@
         <v>51</v>
       </c>
       <c r="AD154" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AE154" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF154" t="n">
         <v>15</v>
@@ -19205,10 +19205,10 @@
         <v>34</v>
       </c>
       <c r="AI154" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ154" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="155">
@@ -19243,13 +19243,13 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="H155" t="n">
         <v>6</v>
       </c>
       <c r="I155" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="J155" t="n">
         <v>1.02</v>
@@ -19258,16 +19258,16 @@
         <v>19</v>
       </c>
       <c r="L155" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M155" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N155" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O155" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="P155" t="n">
         <v>1.25</v>
@@ -19276,13 +19276,13 @@
         <v>3.75</v>
       </c>
       <c r="R155" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S155" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T155" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U155" t="n">
         <v>41</v>
@@ -19312,25 +19312,25 @@
         <v>51</v>
       </c>
       <c r="AD155" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE155" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF155" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG155" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH155" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI155" t="n">
         <v>11</v>
       </c>
       <c r="AJ155" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="156">
@@ -19365,13 +19365,13 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H156" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I156" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J156" t="n">
         <v>1.06</v>
@@ -19380,16 +19380,16 @@
         <v>8</v>
       </c>
       <c r="L156" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M156" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N156" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="O156" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P156" t="n">
         <v>1.44</v>
@@ -19404,7 +19404,7 @@
         <v>1.73</v>
       </c>
       <c r="T156" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U156" t="n">
         <v>7.5</v>
@@ -19416,16 +19416,16 @@
         <v>13</v>
       </c>
       <c r="X156" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y156" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z156" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA156" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB156" t="n">
         <v>17</v>
@@ -19434,10 +19434,10 @@
         <v>51</v>
       </c>
       <c r="AD156" t="n">
-        <v>800</v>
+        <v>1250</v>
       </c>
       <c r="AE156" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF156" t="n">
         <v>23</v>
@@ -19487,31 +19487,31 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H157" t="n">
         <v>2.9</v>
       </c>
       <c r="I157" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J157" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K157" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L157" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M157" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N157" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="O157" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P157" t="n">
         <v>1.53</v>
@@ -19526,7 +19526,7 @@
         <v>1.73</v>
       </c>
       <c r="T157" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U157" t="n">
         <v>12</v>
@@ -19609,52 +19609,52 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H158" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I158" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J158" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K158" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L158" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M158" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N158" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O158" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="P158" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q158" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R158" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S158" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T158" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U158" t="n">
         <v>15</v>
       </c>
       <c r="V158" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W158" t="n">
         <v>34</v>
@@ -19666,7 +19666,7 @@
         <v>41</v>
       </c>
       <c r="Z158" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA158" t="n">
         <v>6</v>
@@ -19675,28 +19675,28 @@
         <v>17</v>
       </c>
       <c r="AC158" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD158" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE158" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF158" t="n">
         <v>11</v>
       </c>
       <c r="AG158" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH158" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI158" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ158" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="159">
@@ -19853,13 +19853,13 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="H160" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I160" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="J160" t="n">
         <v>1.03</v>
@@ -19892,16 +19892,16 @@
         <v>2.42</v>
       </c>
       <c r="T160" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="U160" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="V160" t="n">
         <v>8.5</v>
       </c>
       <c r="W160" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="X160" t="n">
         <v>12.5</v>
@@ -19913,7 +19913,7 @@
         <v>9.25</v>
       </c>
       <c r="AA160" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB160" t="n">
         <v>12</v>
@@ -19925,19 +19925,19 @@
         <v>200</v>
       </c>
       <c r="AE160" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF160" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG160" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH160" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI160" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ160" t="n">
         <v>27</v>
@@ -20097,13 +20097,13 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="H162" t="n">
         <v>3.1</v>
       </c>
       <c r="I162" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J162" t="n">
         <v>1.07</v>
@@ -20112,28 +20112,28 @@
         <v>6.9</v>
       </c>
       <c r="L162" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M162" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="N162" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O162" t="n">
         <v>1.75</v>
       </c>
       <c r="P162" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q162" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="R162" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S162" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T162" t="n">
         <v>9</v>
@@ -20142,16 +20142,16 @@
         <v>14.5</v>
       </c>
       <c r="V162" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="W162" t="n">
         <v>35</v>
       </c>
       <c r="X162" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y162" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z162" t="n">
         <v>6.9</v>
@@ -20163,25 +20163,25 @@
         <v>13.5</v>
       </c>
       <c r="AC162" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD162" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE162" t="n">
         <v>7.8</v>
       </c>
       <c r="AF162" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AG162" t="n">
         <v>9.25</v>
       </c>
       <c r="AH162" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI162" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ162" t="n">
         <v>30</v>
@@ -20341,19 +20341,19 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="H164" t="n">
         <v>3.15</v>
       </c>
       <c r="I164" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J164" t="n">
         <v>1.08</v>
       </c>
       <c r="K164" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="L164" t="n">
         <v>1.36</v>
@@ -20374,61 +20374,61 @@
         <v>2.7</v>
       </c>
       <c r="R164" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S164" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T164" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="U164" t="n">
         <v>9.5</v>
       </c>
       <c r="V164" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W164" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="X164" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y164" t="n">
         <v>30</v>
       </c>
       <c r="Z164" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AA164" t="n">
         <v>6.1</v>
       </c>
       <c r="AB164" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC164" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD164" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE164" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF164" t="n">
         <v>18.5</v>
       </c>
       <c r="AG164" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AH164" t="n">
         <v>50</v>
       </c>
       <c r="AI164" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ164" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="165">
@@ -20463,13 +20463,13 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="H165" t="n">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="I165" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="J165" t="n">
         <v>1.03</v>
@@ -20481,13 +20481,13 @@
         <v>1.19</v>
       </c>
       <c r="M165" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="N165" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O165" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="P165" t="n">
         <v>1.3</v>
@@ -20499,22 +20499,22 @@
         <v>1.7</v>
       </c>
       <c r="S165" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T165" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="U165" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V165" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="W165" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="X165" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Y165" t="n">
         <v>45</v>
@@ -20526,7 +20526,7 @@
         <v>8.5</v>
       </c>
       <c r="AB165" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC165" t="n">
         <v>60</v>
@@ -20538,19 +20538,19 @@
         <v>8.5</v>
       </c>
       <c r="AF165" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG165" t="n">
         <v>8.25</v>
       </c>
-      <c r="AG165" t="n">
-        <v>8</v>
-      </c>
       <c r="AH165" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AI165" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AJ165" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166">
@@ -21448,16 +21448,16 @@
         <v>3.3</v>
       </c>
       <c r="J173" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="K173" t="n">
         <v>6.5</v>
       </c>
       <c r="L173" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M173" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="N173" t="n">
         <v>2.7</v>
@@ -21561,22 +21561,22 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="H174" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I174" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="J174" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K174" t="n">
         <v>7</v>
       </c>
       <c r="L174" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M174" t="n">
         <v>2.5</v>
@@ -21600,16 +21600,16 @@
         <v>1.67</v>
       </c>
       <c r="T174" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U174" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V174" t="n">
         <v>13</v>
       </c>
       <c r="W174" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X174" t="n">
         <v>34</v>
@@ -21618,10 +21618,10 @@
         <v>41</v>
       </c>
       <c r="Z174" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA174" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB174" t="n">
         <v>19</v>
@@ -21636,16 +21636,16 @@
         <v>6</v>
       </c>
       <c r="AF174" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG174" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH174" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI174" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ174" t="n">
         <v>41</v>
@@ -21683,46 +21683,46 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H175" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I175" t="n">
         <v>1.73</v>
       </c>
       <c r="J175" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K175" t="n">
         <v>11</v>
       </c>
       <c r="L175" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="M175" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N175" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O175" t="n">
         <v>1.98</v>
       </c>
-      <c r="O175" t="n">
-        <v>1.88</v>
-      </c>
       <c r="P175" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q175" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R175" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S175" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T175" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U175" t="n">
         <v>23</v>
@@ -21734,31 +21734,31 @@
         <v>51</v>
       </c>
       <c r="X175" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y175" t="n">
         <v>41</v>
       </c>
       <c r="Z175" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA175" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB175" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC175" t="n">
         <v>51</v>
       </c>
       <c r="AD175" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE175" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF175" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG175" t="n">
         <v>8.5</v>
@@ -21770,7 +21770,7 @@
         <v>15</v>
       </c>
       <c r="AJ175" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="176">
@@ -21814,22 +21814,22 @@
         <v>3.9</v>
       </c>
       <c r="J176" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K176" t="n">
         <v>11</v>
       </c>
       <c r="L176" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M176" t="n">
         <v>3.5</v>
       </c>
       <c r="N176" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O176" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P176" t="n">
         <v>1.4</v>
@@ -21927,13 +21927,13 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H177" t="n">
         <v>3.4</v>
       </c>
       <c r="I177" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J177" t="n">
         <v>1.04</v>
@@ -21948,10 +21948,10 @@
         <v>4</v>
       </c>
       <c r="N177" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="O177" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="P177" t="n">
         <v>1.36</v>
@@ -21960,10 +21960,10 @@
         <v>3</v>
       </c>
       <c r="R177" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="S177" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T177" t="n">
         <v>8.5</v>
@@ -21972,7 +21972,7 @@
         <v>10</v>
       </c>
       <c r="V177" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W177" t="n">
         <v>17</v>
@@ -21990,7 +21990,7 @@
         <v>6.5</v>
       </c>
       <c r="AB177" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC177" t="n">
         <v>41</v>
@@ -22049,7 +22049,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H178" t="n">
         <v>3.4</v>
@@ -22064,16 +22064,16 @@
         <v>10</v>
       </c>
       <c r="L178" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M178" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N178" t="n">
         <v>2.05</v>
       </c>
       <c r="O178" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P178" t="n">
         <v>1.44</v>
@@ -22088,7 +22088,7 @@
         <v>1.95</v>
       </c>
       <c r="T178" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U178" t="n">
         <v>13</v>
@@ -22106,7 +22106,7 @@
         <v>34</v>
       </c>
       <c r="Z178" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA178" t="n">
         <v>6.5</v>
@@ -22171,10 +22171,10 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H179" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I179" t="n">
         <v>5.25</v>
@@ -22186,16 +22186,16 @@
         <v>17</v>
       </c>
       <c r="L179" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M179" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N179" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O179" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P179" t="n">
         <v>1.29</v>
@@ -22204,16 +22204,16 @@
         <v>3.5</v>
       </c>
       <c r="R179" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S179" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="T179" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U179" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V179" t="n">
         <v>8.5</v>
@@ -22228,7 +22228,7 @@
         <v>21</v>
       </c>
       <c r="Z179" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA179" t="n">
         <v>8.5</v>
@@ -22243,7 +22243,7 @@
         <v>151</v>
       </c>
       <c r="AE179" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF179" t="n">
         <v>29</v>
@@ -22258,7 +22258,7 @@
         <v>41</v>
       </c>
       <c r="AJ179" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="180">
@@ -22293,19 +22293,19 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H180" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I180" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J180" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K180" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L180" t="n">
         <v>1.22</v>
@@ -22314,10 +22314,10 @@
         <v>4</v>
       </c>
       <c r="N180" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O180" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P180" t="n">
         <v>1.33</v>
@@ -22326,16 +22326,16 @@
         <v>3.25</v>
       </c>
       <c r="R180" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S180" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T180" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U180" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V180" t="n">
         <v>8.5</v>
@@ -22347,7 +22347,7 @@
         <v>13</v>
       </c>
       <c r="Y180" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z180" t="n">
         <v>13</v>
@@ -22356,28 +22356,28 @@
         <v>7.5</v>
       </c>
       <c r="AB180" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC180" t="n">
         <v>41</v>
       </c>
       <c r="AD180" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE180" t="n">
         <v>13</v>
       </c>
       <c r="AF180" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG180" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH180" t="n">
         <v>41</v>
       </c>
       <c r="AI180" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ180" t="n">
         <v>34</v>
@@ -22421,7 +22421,7 @@
         <v>3.6</v>
       </c>
       <c r="I181" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J181" t="n">
         <v>1.04</v>
@@ -22457,13 +22457,13 @@
         <v>9.5</v>
       </c>
       <c r="U181" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V181" t="n">
         <v>10</v>
       </c>
       <c r="W181" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X181" t="n">
         <v>21</v>
@@ -22475,7 +22475,7 @@
         <v>13</v>
       </c>
       <c r="AA181" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB181" t="n">
         <v>15</v>
@@ -22680,10 +22680,10 @@
         <v>3.5</v>
       </c>
       <c r="N183" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O183" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P183" t="n">
         <v>1.4</v>
@@ -22781,13 +22781,13 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="H184" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I184" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="J184" t="n">
         <v>1.05</v>
@@ -22802,10 +22802,10 @@
         <v>3.5</v>
       </c>
       <c r="N184" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O184" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="P184" t="n">
         <v>1.4</v>
@@ -22820,16 +22820,16 @@
         <v>1.91</v>
       </c>
       <c r="T184" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U184" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V184" t="n">
         <v>8.5</v>
       </c>
       <c r="W184" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X184" t="n">
         <v>15</v>
@@ -22838,10 +22838,10 @@
         <v>26</v>
       </c>
       <c r="Z184" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA184" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB184" t="n">
         <v>15</v>
@@ -22853,16 +22853,16 @@
         <v>251</v>
       </c>
       <c r="AE184" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF184" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG184" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH184" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI184" t="n">
         <v>34</v>
@@ -22912,22 +22912,22 @@
         <v>4.75</v>
       </c>
       <c r="J185" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K185" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L185" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M185" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N185" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="O185" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="P185" t="n">
         <v>1.22</v>
@@ -23150,7 +23150,7 @@
         <v>1.25</v>
       </c>
       <c r="H187" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I187" t="n">
         <v>8.5</v>
@@ -23162,16 +23162,16 @@
         <v>21</v>
       </c>
       <c r="L187" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M187" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N187" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O187" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="P187" t="n">
         <v>1.22</v>
@@ -23189,7 +23189,7 @@
         <v>10</v>
       </c>
       <c r="U187" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V187" t="n">
         <v>9.5</v>
@@ -23207,7 +23207,7 @@
         <v>21</v>
       </c>
       <c r="AA187" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB187" t="n">
         <v>21</v>
@@ -23222,7 +23222,7 @@
         <v>26</v>
       </c>
       <c r="AF187" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG187" t="n">
         <v>23</v>
@@ -23272,7 +23272,7 @@
         <v>1.91</v>
       </c>
       <c r="H188" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I188" t="n">
         <v>3.6</v>
@@ -23290,10 +23290,10 @@
         <v>3.75</v>
       </c>
       <c r="N188" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O188" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="P188" t="n">
         <v>1.36</v>
@@ -23311,7 +23311,7 @@
         <v>8</v>
       </c>
       <c r="U188" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V188" t="n">
         <v>8.5</v>
@@ -23332,7 +23332,7 @@
         <v>7</v>
       </c>
       <c r="AB188" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC188" t="n">
         <v>41</v>
@@ -23391,19 +23391,19 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H189" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I189" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J189" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K189" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L189" t="n">
         <v>1.25</v>
@@ -23439,7 +23439,7 @@
         <v>8.5</v>
       </c>
       <c r="W189" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X189" t="n">
         <v>15</v>
@@ -23454,7 +23454,7 @@
         <v>7</v>
       </c>
       <c r="AB189" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC189" t="n">
         <v>41</v>
@@ -23635,94 +23635,94 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H191" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="I191" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="J191" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K191" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="L191" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="M191" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="N191" t="n">
-        <v>2.37</v>
+        <v>2.62</v>
       </c>
       <c r="O191" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="P191" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="Q191" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="R191" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="S191" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="T191" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="U191" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V191" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="W191" t="n">
+        <v>120</v>
+      </c>
+      <c r="X191" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y191" t="n">
         <v>110</v>
       </c>
-      <c r="X191" t="n">
-        <v>70</v>
-      </c>
-      <c r="Y191" t="n">
-        <v>90</v>
-      </c>
       <c r="Z191" t="n">
-        <v>6.5</v>
+        <v>4.85</v>
       </c>
       <c r="AA191" t="n">
         <v>6.6</v>
       </c>
       <c r="AB191" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AC191" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AD191" t="n">
         <v>101</v>
       </c>
       <c r="AE191" t="n">
-        <v>4.85</v>
+        <v>4.5</v>
       </c>
       <c r="AF191" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AG191" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH191" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI191" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AJ191" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="192">
@@ -23757,27 +23757,27 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>13.5</v>
+        <v>11.75</v>
       </c>
       <c r="H192" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I192" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="M192" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="N192" t="n">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="O192" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="P192" t="n">
         <v>1.38</v>
@@ -23786,61 +23786,61 @@
         <v>2.6</v>
       </c>
       <c r="R192" t="n">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="S192" t="n">
-        <v>1.34</v>
+        <v>1.55</v>
       </c>
       <c r="T192" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="U192" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="V192" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W192" t="n">
-        <v>700</v>
+        <v>450</v>
       </c>
       <c r="X192" t="n">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="Y192" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Z192" t="n">
-        <v>9.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA192" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AB192" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AC192" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="AD192" t="n">
         <v>101</v>
       </c>
       <c r="AE192" t="n">
-        <v>5.2</v>
+        <v>7</v>
       </c>
       <c r="AF192" t="n">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="AG192" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH192" t="n">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="AI192" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AJ192" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="193">
@@ -23875,87 +23875,87 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>10.25</v>
+        <v>7.6</v>
       </c>
       <c r="H193" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="I193" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M193" t="n">
-        <v>2.92</v>
+        <v>2.65</v>
       </c>
       <c r="N193" t="n">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="O193" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="P193" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="Q193" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="R193" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="S193" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="T193" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="U193" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="V193" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="W193" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="X193" t="n">
+        <v>120</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC193" t="n">
         <v>175</v>
-      </c>
-      <c r="Y193" t="n">
-        <v>150</v>
-      </c>
-      <c r="Z193" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AA193" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB193" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC193" t="n">
-        <v>200</v>
       </c>
       <c r="AD193" t="n">
         <v>101</v>
       </c>
       <c r="AE193" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AF193" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="AG193" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH193" t="n">
-        <v>7.2</v>
+        <v>8.75</v>
       </c>
       <c r="AI193" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ193" t="n">
         <v>45</v>
@@ -24359,7 +24359,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H197" t="n">
         <v>3.5</v>
@@ -24374,16 +24374,16 @@
         <v>11</v>
       </c>
       <c r="L197" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M197" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N197" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="O197" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="P197" t="n">
         <v>1.4</v>
@@ -24392,16 +24392,16 @@
         <v>2.75</v>
       </c>
       <c r="R197" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S197" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T197" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U197" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V197" t="n">
         <v>10</v>
@@ -24422,7 +24422,7 @@
         <v>6.5</v>
       </c>
       <c r="AB197" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC197" t="n">
         <v>41</v>
@@ -24431,7 +24431,7 @@
         <v>201</v>
       </c>
       <c r="AE197" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF197" t="n">
         <v>12</v>
@@ -24446,7 +24446,7 @@
         <v>19</v>
       </c>
       <c r="AJ197" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="198">
@@ -24481,13 +24481,13 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="H198" t="n">
         <v>3.4</v>
       </c>
       <c r="I198" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="J198" t="n">
         <v>1.04</v>
@@ -24526,13 +24526,13 @@
         <v>13</v>
       </c>
       <c r="V198" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W198" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X198" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y198" t="n">
         <v>23</v>
@@ -24559,10 +24559,10 @@
         <v>15</v>
       </c>
       <c r="AG198" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH198" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI198" t="n">
         <v>21</v>
@@ -24606,10 +24606,10 @@
         <v>1.75</v>
       </c>
       <c r="H199" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I199" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J199" t="n">
         <v>1.03</v>
@@ -24630,10 +24630,10 @@
         <v>2.2</v>
       </c>
       <c r="P199" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q199" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R199" t="n">
         <v>1.62</v>
@@ -24660,10 +24660,10 @@
         <v>21</v>
       </c>
       <c r="Z199" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA199" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB199" t="n">
         <v>13</v>
@@ -24678,13 +24678,13 @@
         <v>15</v>
       </c>
       <c r="AF199" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG199" t="n">
         <v>15</v>
       </c>
       <c r="AH199" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI199" t="n">
         <v>34</v>
@@ -24725,13 +24725,13 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H200" t="n">
         <v>3.6</v>
       </c>
       <c r="I200" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J200" t="n">
         <v>1.03</v>
@@ -24764,7 +24764,7 @@
         <v>2.38</v>
       </c>
       <c r="T200" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U200" t="n">
         <v>15</v>
@@ -24847,19 +24847,19 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="H201" t="n">
         <v>4.5</v>
       </c>
       <c r="I201" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J201" t="n">
         <v>1.02</v>
       </c>
       <c r="K201" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L201" t="n">
         <v>1.13</v>
@@ -24880,43 +24880,43 @@
         <v>3.75</v>
       </c>
       <c r="R201" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S201" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T201" t="n">
         <v>11</v>
       </c>
       <c r="U201" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V201" t="n">
         <v>8.5</v>
       </c>
       <c r="W201" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X201" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y201" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z201" t="n">
         <v>21</v>
       </c>
       <c r="AA201" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB201" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC201" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD201" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE201" t="n">
         <v>19</v>
@@ -24931,10 +24931,10 @@
         <v>51</v>
       </c>
       <c r="AI201" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ201" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="202">
@@ -24969,19 +24969,19 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="H202" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I202" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="J202" t="n">
         <v>1.03</v>
       </c>
       <c r="K202" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L202" t="n">
         <v>1.17</v>
@@ -25002,61 +25002,61 @@
         <v>3.5</v>
       </c>
       <c r="R202" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S202" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T202" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U202" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V202" t="n">
         <v>8.5</v>
       </c>
       <c r="W202" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="X202" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y202" t="n">
         <v>21</v>
       </c>
       <c r="Z202" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA202" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB202" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC202" t="n">
         <v>41</v>
       </c>
       <c r="AD202" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE202" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF202" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AG202" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH202" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI202" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AJ202" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="203">
@@ -25112,10 +25112,10 @@
         <v>4.33</v>
       </c>
       <c r="N203" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O203" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P203" t="n">
         <v>1.33</v>
@@ -25213,13 +25213,13 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H204" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I204" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J204" t="n">
         <v>1.04</v>
@@ -25255,7 +25255,7 @@
         <v>8</v>
       </c>
       <c r="U204" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V204" t="n">
         <v>8.5</v>
@@ -25288,7 +25288,7 @@
         <v>15</v>
       </c>
       <c r="AF204" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG204" t="n">
         <v>15</v>
@@ -25335,13 +25335,13 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H205" t="n">
         <v>3.4</v>
       </c>
       <c r="I205" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J205" t="n">
         <v>1.05</v>
@@ -25380,13 +25380,13 @@
         <v>12</v>
       </c>
       <c r="V205" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W205" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X205" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y205" t="n">
         <v>26</v>
@@ -25410,13 +25410,13 @@
         <v>11</v>
       </c>
       <c r="AF205" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG205" t="n">
         <v>11</v>
       </c>
       <c r="AH205" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI205" t="n">
         <v>23</v>
@@ -25460,7 +25460,7 @@
         <v>2.3</v>
       </c>
       <c r="H206" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I206" t="n">
         <v>2.88</v>
@@ -25484,22 +25484,22 @@
         <v>2.35</v>
       </c>
       <c r="P206" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q206" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R206" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S206" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T206" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U206" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V206" t="n">
         <v>9.5</v>
@@ -25514,7 +25514,7 @@
         <v>21</v>
       </c>
       <c r="Z206" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA206" t="n">
         <v>7.5</v>
@@ -25579,19 +25579,19 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H207" t="n">
         <v>3.5</v>
       </c>
       <c r="I207" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J207" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K207" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L207" t="n">
         <v>1.25</v>
@@ -25603,7 +25603,7 @@
         <v>1.85</v>
       </c>
       <c r="O207" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P207" t="n">
         <v>1.4</v>
@@ -25621,16 +25621,16 @@
         <v>8.5</v>
       </c>
       <c r="U207" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V207" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W207" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X207" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y207" t="n">
         <v>26</v>
@@ -25660,7 +25660,7 @@
         <v>11</v>
       </c>
       <c r="AH207" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI207" t="n">
         <v>23</v>
@@ -25701,46 +25701,46 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H208" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I208" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J208" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K208" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L208" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M208" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N208" t="n">
-        <v>1.8</v>
+        <v>2.03</v>
       </c>
       <c r="O208" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="P208" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q208" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R208" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S208" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T208" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U208" t="n">
         <v>15</v>
@@ -25749,40 +25749,40 @@
         <v>11</v>
       </c>
       <c r="W208" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X208" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y208" t="n">
         <v>29</v>
       </c>
       <c r="Z208" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA208" t="n">
         <v>6.5</v>
       </c>
       <c r="AB208" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC208" t="n">
         <v>41</v>
       </c>
       <c r="AD208" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE208" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF208" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG208" t="n">
         <v>9.5</v>
       </c>
       <c r="AH208" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI208" t="n">
         <v>19</v>
@@ -25823,19 +25823,19 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H209" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I209" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="J209" t="n">
         <v>1.08</v>
       </c>
       <c r="K209" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="L209" t="n">
         <v>1.39</v>
@@ -25850,67 +25850,67 @@
         <v>1.65</v>
       </c>
       <c r="P209" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q209" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="R209" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S209" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="T209" t="n">
         <v>6.6</v>
       </c>
       <c r="U209" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="V209" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W209" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="X209" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y209" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z209" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AA209" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AB209" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC209" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD209" t="n">
         <v>800</v>
       </c>
       <c r="AE209" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF209" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG209" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AH209" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AI209" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AJ209" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="210">
@@ -25945,7 +25945,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="H210" t="n">
         <v>3.2</v>
@@ -26017,7 +26017,7 @@
         <v>400</v>
       </c>
       <c r="AE210" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF210" t="n">
         <v>12</v>
@@ -26079,13 +26079,13 @@
         <v>1.04</v>
       </c>
       <c r="K211" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="L211" t="n">
         <v>1.2</v>
       </c>
       <c r="M211" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="N211" t="n">
         <v>1.62</v>
@@ -26094,10 +26094,10 @@
         <v>2.18</v>
       </c>
       <c r="P211" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="Q211" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="R211" t="n">
         <v>1.7</v>
@@ -26124,7 +26124,7 @@
         <v>21</v>
       </c>
       <c r="Z211" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA211" t="n">
         <v>8</v>
@@ -26139,7 +26139,7 @@
         <v>400</v>
       </c>
       <c r="AE211" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF211" t="n">
         <v>32</v>
@@ -26207,7 +26207,7 @@
         <v>1.28</v>
       </c>
       <c r="M212" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="N212" t="n">
         <v>1.83</v>
@@ -26240,10 +26240,10 @@
         <v>25</v>
       </c>
       <c r="X212" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y212" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z212" t="n">
         <v>7.3</v>
@@ -26261,10 +26261,10 @@
         <v>350</v>
       </c>
       <c r="AE212" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF212" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG212" t="n">
         <v>10.5</v>
@@ -26273,10 +26273,10 @@
         <v>37</v>
       </c>
       <c r="AI212" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ212" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="213">
@@ -26317,40 +26317,40 @@
         <v>3.15</v>
       </c>
       <c r="I213" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J213" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K213" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L213" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="M213" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="N213" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O213" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="P213" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q213" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="R213" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="S213" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="T213" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="U213" t="n">
         <v>10.25</v>
@@ -26365,40 +26365,40 @@
         <v>19</v>
       </c>
       <c r="Y213" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z213" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AA213" t="n">
         <v>6.2</v>
       </c>
       <c r="AB213" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC213" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AD213" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="AE213" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF213" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG213" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AH213" t="n">
         <v>40</v>
       </c>
       <c r="AI213" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AJ213" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="214">
@@ -26627,7 +26627,7 @@
         <v>500</v>
       </c>
       <c r="AE215" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF215" t="n">
         <v>13.5</v>
@@ -26683,7 +26683,7 @@
         <v>3.55</v>
       </c>
       <c r="I216" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="J216" t="n">
         <v>1.07</v>
@@ -26799,19 +26799,19 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="H217" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I217" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="J217" t="n">
         <v>1.06</v>
       </c>
       <c r="K217" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="L217" t="n">
         <v>1.32</v>
@@ -26835,7 +26835,7 @@
         <v>1.75</v>
       </c>
       <c r="S217" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T217" t="n">
         <v>8.25</v>
@@ -26844,25 +26844,25 @@
         <v>12</v>
       </c>
       <c r="V217" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W217" t="n">
         <v>26</v>
       </c>
       <c r="X217" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y217" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z217" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AA217" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB217" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC217" t="n">
         <v>65</v>
@@ -26874,16 +26874,16 @@
         <v>8.5</v>
       </c>
       <c r="AF217" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG217" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH217" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI217" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ217" t="n">
         <v>32</v>
@@ -26921,13 +26921,13 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.87</v>
+        <v>2.6</v>
       </c>
       <c r="H218" t="n">
         <v>3.25</v>
       </c>
       <c r="I218" t="n">
-        <v>2.25</v>
+        <v>2.47</v>
       </c>
       <c r="J218" t="n">
         <v>1.06</v>
@@ -26945,7 +26945,7 @@
         <v>1.87</v>
       </c>
       <c r="O218" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P218" t="n">
         <v>1.42</v>
@@ -26960,22 +26960,22 @@
         <v>2.05</v>
       </c>
       <c r="T218" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="U218" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="V218" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="W218" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="X218" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y218" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z218" t="n">
         <v>7.3</v>
@@ -26993,22 +26993,22 @@
         <v>400</v>
       </c>
       <c r="AE218" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF218" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AG218" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH218" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AI218" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AJ218" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="219">
@@ -27043,7 +27043,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H219" t="n">
         <v>3.2</v>
@@ -27060,10 +27060,10 @@
         <v>2.47</v>
       </c>
       <c r="N219" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="O219" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P219" t="n">
         <v>1.47</v>
@@ -27096,7 +27096,7 @@
         <v>50</v>
       </c>
       <c r="Z219" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AA219" t="n">
         <v>6.3</v>
@@ -27111,7 +27111,7 @@
         <v>101</v>
       </c>
       <c r="AE219" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AF219" t="n">
         <v>9</v>
@@ -27126,7 +27126,7 @@
         <v>20</v>
       </c>
       <c r="AJ219" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="220">
@@ -27164,10 +27164,10 @@
         <v>1.95</v>
       </c>
       <c r="H220" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I220" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
@@ -27202,13 +27202,13 @@
         <v>8.25</v>
       </c>
       <c r="V220" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W220" t="n">
         <v>16.5</v>
       </c>
       <c r="X220" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y220" t="n">
         <v>35</v>
@@ -27220,7 +27220,7 @@
         <v>6.4</v>
       </c>
       <c r="AB220" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC220" t="n">
         <v>100</v>
@@ -27244,7 +27244,7 @@
         <v>40</v>
       </c>
       <c r="AJ220" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="221">
@@ -27282,49 +27282,49 @@
         <v>4.75</v>
       </c>
       <c r="H221" t="n">
-        <v>4.35</v>
+        <v>4.1</v>
       </c>
       <c r="I221" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="J221" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K221" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="L221" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M221" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="N221" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="O221" t="n">
-        <v>2.65</v>
+        <v>2.35</v>
       </c>
       <c r="P221" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Q221" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="R221" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="S221" t="n">
-        <v>2.35</v>
+        <v>2.18</v>
       </c>
       <c r="T221" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="U221" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V221" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="W221" t="n">
         <v>80</v>
@@ -27333,40 +27333,40 @@
         <v>40</v>
       </c>
       <c r="Y221" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z221" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AA221" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB221" t="n">
         <v>14</v>
       </c>
       <c r="AC221" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD221" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE221" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AF221" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AG221" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH221" t="n">
         <v>12.5</v>
       </c>
       <c r="AI221" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AJ221" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="222">
@@ -27413,7 +27413,7 @@
         <v>1.06</v>
       </c>
       <c r="K222" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="L222" t="n">
         <v>1.31</v>
@@ -27422,10 +27422,10 @@
         <v>3.15</v>
       </c>
       <c r="N222" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="O222" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P222" t="n">
         <v>1.4</v>
@@ -27458,7 +27458,7 @@
         <v>29</v>
       </c>
       <c r="Z222" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AA222" t="n">
         <v>6.6</v>
@@ -27467,7 +27467,7 @@
         <v>14.5</v>
       </c>
       <c r="AC222" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD222" t="n">
         <v>500</v>
@@ -27535,7 +27535,7 @@
         <v>1.07</v>
       </c>
       <c r="K223" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="L223" t="n">
         <v>1.31</v>
@@ -27553,7 +27553,7 @@
         <v>1.44</v>
       </c>
       <c r="Q223" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="R223" t="n">
         <v>1.75</v>
@@ -27562,10 +27562,10 @@
         <v>1.98</v>
       </c>
       <c r="T223" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="U223" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="V223" t="n">
         <v>8.25</v>
@@ -27574,31 +27574,31 @@
         <v>17.5</v>
       </c>
       <c r="X223" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y223" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z223" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AA223" t="n">
         <v>6.3</v>
       </c>
       <c r="AB223" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC223" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD223" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE223" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF223" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG223" t="n">
         <v>12.5</v>
@@ -27607,10 +27607,10 @@
         <v>60</v>
       </c>
       <c r="AI223" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ223" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="224">
@@ -27645,82 +27645,82 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="H224" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="I224" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="J224" t="n">
         <v>1.04</v>
       </c>
       <c r="K224" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="L224" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="M224" t="n">
-        <v>4.15</v>
+        <v>3.95</v>
       </c>
       <c r="N224" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O224" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="P224" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="Q224" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="R224" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S224" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T224" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="U224" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="V224" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W224" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="X224" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Y224" t="n">
         <v>70</v>
       </c>
       <c r="Z224" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA224" t="n">
         <v>9</v>
       </c>
       <c r="AB224" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC224" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD224" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE224" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="AF224" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AG224" t="n">
         <v>8.25</v>
@@ -27729,10 +27729,10 @@
         <v>8.75</v>
       </c>
       <c r="AI224" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AJ224" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-29.xlsx
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="I3" t="n">
         <v>1.17</v>
@@ -802,25 +802,25 @@
         <v>5.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T3" t="n">
         <v>41</v>
       </c>
       <c r="U3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="V3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="W3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="X3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="Y3" t="n">
         <v>51</v>
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>10</v>
@@ -850,7 +850,7 @@
         <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
         <v>10</v>
@@ -906,22 +906,22 @@
         <v>15</v>
       </c>
       <c r="L4" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="P4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R4" t="n">
         <v>1.53</v>
@@ -969,7 +969,7 @@
         <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
         <v>41</v>
@@ -1013,19 +1013,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L5" t="n">
         <v>1.14</v>
@@ -1034,10 +1034,10 @@
         <v>5.5</v>
       </c>
       <c r="N5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="P5" t="n">
         <v>1.25</v>
@@ -1055,7 +1055,7 @@
         <v>15</v>
       </c>
       <c r="U5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V5" t="n">
         <v>11</v>
@@ -1070,13 +1070,13 @@
         <v>21</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC5" t="n">
         <v>29</v>
@@ -1085,16 +1085,16 @@
         <v>81</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
         <v>17</v>
@@ -1150,16 +1150,16 @@
         <v>21</v>
       </c>
       <c r="L6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N6" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="P6" t="n">
         <v>1.22</v>
@@ -1177,10 +1177,10 @@
         <v>9</v>
       </c>
       <c r="U6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W6" t="n">
         <v>7</v>
@@ -1207,16 +1207,16 @@
         <v>451</v>
       </c>
       <c r="AE6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AI6" t="n">
         <v>81</v>
@@ -1257,19 +1257,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>1.33</v>
@@ -1278,10 +1278,10 @@
         <v>3.4</v>
       </c>
       <c r="N7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P7" t="n">
         <v>1.44</v>
@@ -1308,7 +1308,7 @@
         <v>23</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y7" t="n">
         <v>29</v>
@@ -1317,7 +1317,7 @@
         <v>9.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB7" t="n">
         <v>15</v>
@@ -1338,7 +1338,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI7" t="n">
         <v>23</v>
@@ -1400,10 +1400,10 @@
         <v>5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O8" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="P8" t="n">
         <v>1.3</v>
@@ -1412,10 +1412,10 @@
         <v>3.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T8" t="n">
         <v>13</v>
@@ -1436,25 +1436,25 @@
         <v>26</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC8" t="n">
         <v>34</v>
       </c>
       <c r="AD8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG8" t="n">
         <v>9</v>
@@ -1516,10 +1516,10 @@
         <v>13</v>
       </c>
       <c r="L9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N9" t="n">
         <v>1.73</v>
@@ -1745,19 +1745,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="H11" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J11" t="n">
         <v>1.06</v>
       </c>
       <c r="K11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.3</v>
@@ -1766,10 +1766,10 @@
         <v>3.5</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O11" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="P11" t="n">
         <v>1.4</v>
@@ -1778,37 +1778,37 @@
         <v>2.75</v>
       </c>
       <c r="R11" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S11" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V11" t="n">
         <v>8.5</v>
       </c>
       <c r="W11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
         <v>51</v>
@@ -1817,22 +1817,22 @@
         <v>301</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI11" t="n">
         <v>41</v>
       </c>
       <c r="AJ11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
         <v>1.75</v>
@@ -1879,7 +1879,7 @@
         <v>1.07</v>
       </c>
       <c r="K12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.36</v>
@@ -1912,7 +1912,7 @@
         <v>23</v>
       </c>
       <c r="V12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W12" t="n">
         <v>51</v>
@@ -1921,13 +1921,13 @@
         <v>41</v>
       </c>
       <c r="Y12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB12" t="n">
         <v>19</v>
@@ -1936,7 +1936,7 @@
         <v>67</v>
       </c>
       <c r="AD12" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="AJ12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -1989,13 +1989,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H13" t="n">
         <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J13" t="n">
         <v>1.08</v>
@@ -2010,28 +2010,28 @@
         <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P13" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R13" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="S13" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="T13" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V13" t="n">
         <v>9</v>
@@ -2043,19 +2043,19 @@
         <v>15</v>
       </c>
       <c r="Y13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA13" t="n">
         <v>7.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
@@ -2065,7 +2065,7 @@
         <v>34</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH13" t="n">
         <v>81</v>
@@ -2074,7 +2074,7 @@
         <v>51</v>
       </c>
       <c r="AJ13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
@@ -2130,10 +2130,10 @@
         <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P14" t="n">
         <v>1.5</v>
@@ -2142,10 +2142,10 @@
         <v>2.5</v>
       </c>
       <c r="R14" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S14" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T14" t="n">
         <v>11</v>
@@ -2169,7 +2169,7 @@
         <v>8</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB14" t="n">
         <v>19</v>
@@ -2181,10 +2181,10 @@
         <v>501</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG14" t="n">
         <v>9</v>
@@ -2353,13 +2353,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
         <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J16" t="n">
         <v>1.06</v>
@@ -2392,10 +2392,10 @@
         <v>1.95</v>
       </c>
       <c r="T16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V16" t="n">
         <v>11</v>
@@ -2425,13 +2425,13 @@
         <v>251</v>
       </c>
       <c r="AE16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH16" t="n">
         <v>23</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H17" t="n">
         <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J17" t="n">
         <v>1.07</v>
@@ -2526,7 +2526,7 @@
         <v>26</v>
       </c>
       <c r="X17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y17" t="n">
         <v>34</v>
@@ -2544,7 +2544,7 @@
         <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE17" t="n">
         <v>8</v>
@@ -2618,10 +2618,10 @@
         <v>3.75</v>
       </c>
       <c r="N18" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O18" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P18" t="n">
         <v>1.36</v>
@@ -2630,7 +2630,7 @@
         <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S18" t="n">
         <v>2</v>
@@ -2752,7 +2752,7 @@
         <v>3.25</v>
       </c>
       <c r="R19" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S19" t="n">
         <v>2.25</v>
@@ -2788,7 +2788,7 @@
         <v>41</v>
       </c>
       <c r="AD19" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE19" t="n">
         <v>13</v>
@@ -2841,79 +2841,79 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H20" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="I20" t="n">
         <v>9.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L20" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="M20" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N20" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="O20" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="P20" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R20" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S20" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V20" t="n">
         <v>9</v>
       </c>
       <c r="W20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z20" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC20" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD20" t="n">
         <v>501</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="n">
         <v>41</v>
@@ -2925,10 +2925,10 @@
         <v>126</v>
       </c>
       <c r="AI20" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ20" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
@@ -2999,7 +2999,7 @@
         <v>2.1</v>
       </c>
       <c r="S21" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T21" t="n">
         <v>11</v>
@@ -3121,7 +3121,7 @@
         <v>2.25</v>
       </c>
       <c r="S22" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T22" t="n">
         <v>5.5</v>
@@ -3243,7 +3243,7 @@
         <v>2.1</v>
       </c>
       <c r="S23" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T23" t="n">
         <v>8.5</v>
@@ -3338,10 +3338,10 @@
         <v>5.25</v>
       </c>
       <c r="J24" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K24" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L24" t="n">
         <v>1.62</v>
@@ -3582,10 +3582,10 @@
         <v>8</v>
       </c>
       <c r="J26" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L26" t="n">
         <v>1.44</v>
@@ -4204,10 +4204,10 @@
         <v>4</v>
       </c>
       <c r="N31" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O31" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="P31" t="n">
         <v>1.36</v>
@@ -4332,7 +4332,7 @@
         <v>2.08</v>
       </c>
       <c r="P32" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q32" t="n">
         <v>3.25</v>
@@ -4427,46 +4427,46 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H33" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I33" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J33" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L33" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M33" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N33" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O33" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="P33" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R33" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S33" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T33" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U33" t="n">
         <v>12</v>
@@ -4475,16 +4475,16 @@
         <v>10</v>
       </c>
       <c r="W33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X33" t="n">
         <v>21</v>
       </c>
       <c r="Y33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z33" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA33" t="n">
         <v>6</v>
@@ -4496,10 +4496,10 @@
         <v>51</v>
       </c>
       <c r="AD33" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE33" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF33" t="n">
         <v>13</v>
@@ -4576,7 +4576,7 @@
         <v>2.25</v>
       </c>
       <c r="P34" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Q34" t="n">
         <v>3.4</v>
@@ -4698,7 +4698,7 @@
         <v>2.08</v>
       </c>
       <c r="P35" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q35" t="n">
         <v>3.25</v>
@@ -4793,19 +4793,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="H36" t="n">
         <v>3.9</v>
       </c>
       <c r="I36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J36" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K36" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L36" t="n">
         <v>1.4</v>
@@ -4880,7 +4880,7 @@
         <v>51</v>
       </c>
       <c r="AJ36" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37">
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H37" t="n">
         <v>3.1</v>
@@ -5037,19 +5037,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H38" t="n">
         <v>3.1</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J38" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K38" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L38" t="n">
         <v>1.44</v>
@@ -5064,10 +5064,10 @@
         <v>1.57</v>
       </c>
       <c r="P38" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R38" t="n">
         <v>1.95</v>
@@ -5076,7 +5076,7 @@
         <v>1.8</v>
       </c>
       <c r="T38" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U38" t="n">
         <v>11</v>
@@ -5088,7 +5088,7 @@
         <v>23</v>
       </c>
       <c r="X38" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y38" t="n">
         <v>34</v>
@@ -5100,13 +5100,13 @@
         <v>6</v>
       </c>
       <c r="AB38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC38" t="n">
         <v>51</v>
       </c>
       <c r="AD38" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE38" t="n">
         <v>8</v>
@@ -5115,13 +5115,13 @@
         <v>13</v>
       </c>
       <c r="AG38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI38" t="n">
         <v>29</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>26</v>
       </c>
       <c r="AJ38" t="n">
         <v>41</v>
@@ -5165,13 +5165,13 @@
         <v>3.1</v>
       </c>
       <c r="I39" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J39" t="n">
         <v>1.08</v>
       </c>
       <c r="K39" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L39" t="n">
         <v>1.4</v>
@@ -5198,10 +5198,10 @@
         <v>1.8</v>
       </c>
       <c r="T39" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U39" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V39" t="n">
         <v>9.5</v>
@@ -5231,7 +5231,7 @@
         <v>351</v>
       </c>
       <c r="AE39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF39" t="n">
         <v>17</v>
@@ -5243,7 +5243,7 @@
         <v>41</v>
       </c>
       <c r="AI39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ39" t="n">
         <v>41</v>
@@ -5281,13 +5281,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="H40" t="n">
         <v>3.5</v>
       </c>
       <c r="I40" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J40" t="n">
         <v>1.08</v>
@@ -5302,25 +5302,25 @@
         <v>3</v>
       </c>
       <c r="N40" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O40" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P40" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R40" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S40" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T40" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U40" t="n">
         <v>7</v>
@@ -5329,7 +5329,7 @@
         <v>8.5</v>
       </c>
       <c r="W40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X40" t="n">
         <v>15</v>
@@ -5350,7 +5350,7 @@
         <v>67</v>
       </c>
       <c r="AD40" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE40" t="n">
         <v>12</v>
@@ -5359,7 +5359,7 @@
         <v>26</v>
       </c>
       <c r="AG40" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH40" t="n">
         <v>51</v>
@@ -6034,10 +6034,10 @@
         <v>5.5</v>
       </c>
       <c r="N46" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O46" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P46" t="n">
         <v>1.29</v>
@@ -6055,7 +6055,7 @@
         <v>17</v>
       </c>
       <c r="U46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V46" t="n">
         <v>15</v>
@@ -6147,7 +6147,7 @@
         <v>1.04</v>
       </c>
       <c r="K47" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L47" t="n">
         <v>1.25</v>
@@ -6156,10 +6156,10 @@
         <v>3.75</v>
       </c>
       <c r="N47" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O47" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P47" t="n">
         <v>1.36</v>
@@ -6207,7 +6207,7 @@
         <v>151</v>
       </c>
       <c r="AE47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF47" t="n">
         <v>15</v>
@@ -6382,7 +6382,7 @@
         <v>1.45</v>
       </c>
       <c r="H49" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I49" t="n">
         <v>7</v>
@@ -6391,7 +6391,7 @@
         <v>1.07</v>
       </c>
       <c r="K49" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L49" t="n">
         <v>1.36</v>
@@ -6427,7 +6427,7 @@
         <v>9</v>
       </c>
       <c r="W49" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X49" t="n">
         <v>15</v>
@@ -6436,7 +6436,7 @@
         <v>34</v>
       </c>
       <c r="Z49" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA49" t="n">
         <v>8.5</v>
@@ -6504,10 +6504,10 @@
         <v>1.7</v>
       </c>
       <c r="H50" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I50" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J50" t="n">
         <v>1.05</v>
@@ -6522,7 +6522,7 @@
         <v>3.5</v>
       </c>
       <c r="N50" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O50" t="n">
         <v>1.9</v>
@@ -6558,10 +6558,10 @@
         <v>26</v>
       </c>
       <c r="Z50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA50" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB50" t="n">
         <v>17</v>
@@ -6745,19 +6745,19 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="H52" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="I52" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J52" t="n">
         <v>1.03</v>
       </c>
       <c r="K52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L52" t="n">
         <v>1.14</v>
@@ -6778,61 +6778,61 @@
         <v>3.75</v>
       </c>
       <c r="R52" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="S52" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="T52" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U52" t="n">
+        <v>6</v>
+      </c>
+      <c r="V52" t="n">
+        <v>11</v>
+      </c>
+      <c r="W52" t="n">
         <v>6.5</v>
-      </c>
-      <c r="V52" t="n">
-        <v>10</v>
-      </c>
-      <c r="W52" t="n">
-        <v>7.5</v>
       </c>
       <c r="X52" t="n">
         <v>11</v>
       </c>
       <c r="Y52" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z52" t="n">
         <v>15</v>
       </c>
       <c r="AA52" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB52" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC52" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>501</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF52" t="n">
         <v>67</v>
       </c>
-      <c r="AD52" t="n">
-        <v>401</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>51</v>
-      </c>
       <c r="AG52" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AH52" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AI52" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ52" t="n">
         <v>81</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>67</v>
       </c>
     </row>
     <row r="53">
@@ -6882,43 +6882,43 @@
         <v>15</v>
       </c>
       <c r="L53" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M53" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N53" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="O53" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="P53" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q53" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R53" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S53" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T53" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U53" t="n">
         <v>51</v>
       </c>
       <c r="V53" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="W53" t="n">
         <v>151</v>
       </c>
       <c r="X53" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="Y53" t="n">
         <v>81</v>
@@ -6930,10 +6930,10 @@
         <v>12</v>
       </c>
       <c r="AB53" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC53" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD53" t="n">
         <v>501</v>
@@ -6945,16 +6945,16 @@
         <v>5.5</v>
       </c>
       <c r="AG53" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH53" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI53" t="n">
         <v>12</v>
       </c>
       <c r="AJ53" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54">
@@ -6989,13 +6989,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H54" t="n">
         <v>3.4</v>
       </c>
       <c r="I54" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J54" t="n">
         <v>1.05</v>
@@ -7004,16 +7004,16 @@
         <v>11</v>
       </c>
       <c r="L54" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M54" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N54" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O54" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P54" t="n">
         <v>1.4</v>
@@ -7028,10 +7028,10 @@
         <v>2</v>
       </c>
       <c r="T54" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U54" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V54" t="n">
         <v>13</v>
@@ -7061,19 +7061,19 @@
         <v>201</v>
       </c>
       <c r="AE54" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG54" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH54" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI54" t="n">
         <v>17</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>15</v>
       </c>
       <c r="AJ54" t="n">
         <v>26</v>
@@ -7358,7 +7358,7 @@
         <v>2.3</v>
       </c>
       <c r="H57" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I57" t="n">
         <v>3.2</v>
@@ -7367,7 +7367,7 @@
         <v>1.07</v>
       </c>
       <c r="K57" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L57" t="n">
         <v>1.36</v>
@@ -7376,10 +7376,10 @@
         <v>3.2</v>
       </c>
       <c r="N57" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O57" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P57" t="n">
         <v>1.44</v>
@@ -7394,10 +7394,10 @@
         <v>1.83</v>
       </c>
       <c r="T57" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V57" t="n">
         <v>9.5</v>
@@ -7409,10 +7409,10 @@
         <v>19</v>
       </c>
       <c r="Y57" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z57" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA57" t="n">
         <v>6</v>
@@ -7439,10 +7439,10 @@
         <v>34</v>
       </c>
       <c r="AI57" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ57" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58">
@@ -7477,94 +7477,94 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="H58" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I58" t="n">
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
       <c r="J58" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K58" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L58" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M58" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N58" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O58" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="n">
         <v>1.73</v>
       </c>
-      <c r="P58" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R58" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S58" t="n">
-        <v>1.62</v>
-      </c>
       <c r="T58" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="U58" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V58" t="n">
         <v>8.5</v>
       </c>
       <c r="W58" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X58" t="n">
         <v>15</v>
       </c>
       <c r="Y58" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z58" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA58" t="n">
         <v>7.5</v>
       </c>
       <c r="AB58" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC58" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD58" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AE58" t="n">
         <v>13</v>
       </c>
       <c r="AF58" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG58" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH58" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI58" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ58" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59">
@@ -7599,7 +7599,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="H59" t="n">
         <v>3.5</v>
@@ -7620,10 +7620,10 @@
         <v>3</v>
       </c>
       <c r="N59" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O59" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P59" t="n">
         <v>1.5</v>
@@ -7635,7 +7635,7 @@
         <v>2.2</v>
       </c>
       <c r="S59" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T59" t="n">
         <v>5.5</v>
@@ -7742,10 +7742,10 @@
         <v>3.2</v>
       </c>
       <c r="N60" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O60" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="P60" t="n">
         <v>1.44</v>
@@ -7754,10 +7754,10 @@
         <v>2.63</v>
       </c>
       <c r="R60" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S60" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T60" t="n">
         <v>8.5</v>
@@ -7843,19 +7843,19 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="H61" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="I61" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J61" t="n">
         <v>1.04</v>
       </c>
       <c r="K61" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L61" t="n">
         <v>1.22</v>
@@ -7864,10 +7864,10 @@
         <v>4.33</v>
       </c>
       <c r="N61" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="O61" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P61" t="n">
         <v>1.33</v>
@@ -7876,10 +7876,10 @@
         <v>3.25</v>
       </c>
       <c r="R61" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="S61" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="T61" t="n">
         <v>6.5</v>
@@ -7891,7 +7891,7 @@
         <v>9.5</v>
       </c>
       <c r="W61" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X61" t="n">
         <v>12</v>
@@ -7909,17 +7909,17 @@
         <v>29</v>
       </c>
       <c r="AC61" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD61" t="inlineStr"/>
       <c r="AE61" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF61" t="n">
         <v>51</v>
       </c>
       <c r="AG61" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH61" t="n">
         <v>151</v>
@@ -7928,7 +7928,7 @@
         <v>81</v>
       </c>
       <c r="AJ61" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62">
@@ -7963,13 +7963,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H62" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I62" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J62" t="n">
         <v>1.05</v>
@@ -7984,10 +7984,10 @@
         <v>4</v>
       </c>
       <c r="N62" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="O62" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="P62" t="n">
         <v>1.36</v>
@@ -8011,7 +8011,7 @@
         <v>8.5</v>
       </c>
       <c r="W62" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X62" t="n">
         <v>13</v>
@@ -8032,7 +8032,7 @@
         <v>51</v>
       </c>
       <c r="AD62" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE62" t="n">
         <v>15</v>
@@ -8044,7 +8044,7 @@
         <v>17</v>
       </c>
       <c r="AH62" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI62" t="n">
         <v>41</v>
@@ -8085,13 +8085,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H63" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I63" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J63" t="n">
         <v>1.06</v>
@@ -8106,10 +8106,10 @@
         <v>3.5</v>
       </c>
       <c r="N63" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="O63" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="P63" t="n">
         <v>1.4</v>
@@ -8139,7 +8139,7 @@
         <v>17</v>
       </c>
       <c r="Y63" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z63" t="n">
         <v>9.5</v>
@@ -8329,13 +8329,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H65" t="n">
         <v>3.2</v>
       </c>
       <c r="I65" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J65" t="n">
         <v>1.08</v>
@@ -8356,37 +8356,37 @@
         <v>1.67</v>
       </c>
       <c r="P65" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R65" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S65" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T65" t="n">
         <v>7</v>
       </c>
       <c r="U65" t="n">
+        <v>10</v>
+      </c>
+      <c r="V65" t="n">
         <v>9.5</v>
       </c>
-      <c r="V65" t="n">
-        <v>9</v>
-      </c>
       <c r="W65" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X65" t="n">
         <v>19</v>
       </c>
       <c r="Y65" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z65" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA65" t="n">
         <v>6</v>
@@ -8398,10 +8398,10 @@
         <v>51</v>
       </c>
       <c r="AD65" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE65" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF65" t="n">
         <v>17</v>
@@ -8451,19 +8451,19 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H66" t="n">
         <v>3.6</v>
       </c>
       <c r="I66" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J66" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K66" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L66" t="n">
         <v>1.44</v>
@@ -8478,19 +8478,19 @@
         <v>1.57</v>
       </c>
       <c r="P66" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R66" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S66" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T66" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U66" t="n">
         <v>6.5</v>
@@ -8505,16 +8505,16 @@
         <v>17</v>
       </c>
       <c r="Y66" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z66" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA66" t="n">
         <v>7</v>
       </c>
       <c r="AB66" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC66" t="n">
         <v>81</v>
@@ -8523,13 +8523,13 @@
         <v>501</v>
       </c>
       <c r="AE66" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF66" t="n">
         <v>26</v>
       </c>
       <c r="AG66" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH66" t="n">
         <v>67</v>
@@ -8573,19 +8573,19 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H67" t="n">
         <v>3.5</v>
       </c>
       <c r="I67" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J67" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K67" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L67" t="n">
         <v>1.36</v>
@@ -8624,7 +8624,7 @@
         <v>19</v>
       </c>
       <c r="X67" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y67" t="n">
         <v>29</v>
@@ -8645,7 +8645,7 @@
         <v>351</v>
       </c>
       <c r="AE67" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF67" t="n">
         <v>17</v>
@@ -8695,73 +8695,73 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I68" t="n">
         <v>6.5</v>
       </c>
       <c r="J68" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K68" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L68" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M68" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N68" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O68" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="P68" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R68" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="S68" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="T68" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U68" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V68" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W68" t="n">
         <v>10</v>
       </c>
       <c r="X68" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y68" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z68" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AA68" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB68" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC68" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AD68" t="n">
         <v>501</v>
@@ -8782,7 +8782,7 @@
         <v>51</v>
       </c>
       <c r="AJ68" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69">
@@ -8817,49 +8817,49 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H69" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I69" t="n">
         <v>13</v>
       </c>
       <c r="J69" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K69" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L69" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M69" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N69" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="O69" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="P69" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q69" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R69" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S69" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T69" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="U69" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V69" t="n">
         <v>10</v>
@@ -8868,26 +8868,26 @@
         <v>6.5</v>
       </c>
       <c r="X69" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y69" t="n">
         <v>41</v>
       </c>
       <c r="Z69" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA69" t="n">
         <v>11</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>12</v>
       </c>
       <c r="AB69" t="n">
         <v>34</v>
       </c>
       <c r="AC69" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD69" t="inlineStr"/>
       <c r="AE69" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF69" t="n">
         <v>51</v>
@@ -9104,7 +9104,7 @@
         <v>17</v>
       </c>
       <c r="V71" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W71" t="n">
         <v>41</v>
@@ -9196,16 +9196,16 @@
         <v>9</v>
       </c>
       <c r="L72" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M72" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N72" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O72" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P72" t="n">
         <v>1.5</v>
@@ -9303,31 +9303,31 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H73" t="n">
         <v>3.5</v>
       </c>
       <c r="I73" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J73" t="n">
         <v>1.08</v>
       </c>
       <c r="K73" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L73" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M73" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N73" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="O73" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P73" t="n">
         <v>1.5</v>
@@ -9336,10 +9336,10 @@
         <v>2.5</v>
       </c>
       <c r="R73" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S73" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T73" t="n">
         <v>9</v>
@@ -9348,7 +9348,7 @@
         <v>19</v>
       </c>
       <c r="V73" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W73" t="n">
         <v>41</v>
@@ -9360,7 +9360,7 @@
         <v>41</v>
       </c>
       <c r="Z73" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA73" t="n">
         <v>6.5</v>
@@ -9384,10 +9384,10 @@
         <v>9</v>
       </c>
       <c r="AH73" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI73" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ73" t="n">
         <v>34</v>
@@ -9562,16 +9562,16 @@
         <v>15</v>
       </c>
       <c r="L75" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M75" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N75" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O75" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P75" t="n">
         <v>1.33</v>
@@ -9681,7 +9681,7 @@
         <v>1.06</v>
       </c>
       <c r="K76" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L76" t="n">
         <v>1.33</v>
@@ -9702,10 +9702,10 @@
         <v>2.63</v>
       </c>
       <c r="R76" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S76" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T76" t="n">
         <v>7.5</v>
@@ -9726,7 +9726,7 @@
         <v>29</v>
       </c>
       <c r="Z76" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA76" t="n">
         <v>6.5</v>
@@ -9738,10 +9738,10 @@
         <v>51</v>
       </c>
       <c r="AD76" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE76" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF76" t="n">
         <v>15</v>
@@ -9791,10 +9791,10 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H77" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I77" t="n">
         <v>4.75</v>
@@ -9836,7 +9836,7 @@
         <v>7.5</v>
       </c>
       <c r="V77" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W77" t="n">
         <v>15</v>
@@ -9863,10 +9863,10 @@
         <v>501</v>
       </c>
       <c r="AE77" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF77" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG77" t="n">
         <v>17</v>
@@ -10027,13 +10027,13 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="H79" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="I79" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -10044,45 +10044,45 @@
         <v>4.3</v>
       </c>
       <c r="N79" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O79" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S79" t="n">
-        <v>2.33</v>
+        <v>2.34</v>
       </c>
       <c r="T79" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="U79" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V79" t="n">
         <v>9</v>
       </c>
       <c r="W79" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="X79" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y79" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z79" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA79" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AB79" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AC79" t="n">
         <v>32</v>
@@ -10091,19 +10091,19 @@
         <v>175</v>
       </c>
       <c r="AE79" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF79" t="n">
         <v>10</v>
       </c>
       <c r="AG79" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AH79" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI79" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ79" t="n">
         <v>17</v>
@@ -10251,13 +10251,13 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H81" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I81" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="J81" t="n">
         <v>1.05</v>
@@ -10272,16 +10272,16 @@
         <v>3.75</v>
       </c>
       <c r="N81" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O81" t="n">
         <v>1.95</v>
       </c>
       <c r="P81" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R81" t="n">
         <v>1.83</v>
@@ -10293,10 +10293,10 @@
         <v>15</v>
       </c>
       <c r="U81" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V81" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W81" t="n">
         <v>51</v>
@@ -10308,13 +10308,13 @@
         <v>41</v>
       </c>
       <c r="Z81" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA81" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB81" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC81" t="n">
         <v>51</v>
@@ -10326,7 +10326,7 @@
         <v>7</v>
       </c>
       <c r="AF81" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG81" t="n">
         <v>8.5</v>
@@ -10373,13 +10373,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="H82" t="n">
         <v>3.4</v>
       </c>
       <c r="I82" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J82" t="n">
         <v>1.06</v>
@@ -10394,10 +10394,10 @@
         <v>3.25</v>
       </c>
       <c r="N82" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O82" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P82" t="n">
         <v>1.44</v>
@@ -10445,13 +10445,13 @@
         <v>1000</v>
       </c>
       <c r="AE82" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF82" t="n">
         <v>23</v>
       </c>
       <c r="AG82" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH82" t="n">
         <v>51</v>
@@ -10460,7 +10460,7 @@
         <v>41</v>
       </c>
       <c r="AJ82" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83">
@@ -10498,10 +10498,10 @@
         <v>2.45</v>
       </c>
       <c r="H83" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I83" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J83" t="n">
         <v>1.03</v>
@@ -10510,16 +10510,16 @@
         <v>17</v>
       </c>
       <c r="L83" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M83" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N83" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O83" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P83" t="n">
         <v>1.29</v>
@@ -10534,7 +10534,7 @@
         <v>2.63</v>
       </c>
       <c r="T83" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U83" t="n">
         <v>15</v>
@@ -10543,7 +10543,7 @@
         <v>10</v>
       </c>
       <c r="W83" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X83" t="n">
         <v>17</v>
@@ -10555,13 +10555,13 @@
         <v>17</v>
       </c>
       <c r="AA83" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB83" t="n">
         <v>11</v>
       </c>
       <c r="AC83" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD83" t="n">
         <v>101</v>
@@ -10582,7 +10582,7 @@
         <v>19</v>
       </c>
       <c r="AJ83" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
@@ -10617,79 +10617,79 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H84" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I84" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J84" t="n">
         <v>1.03</v>
       </c>
       <c r="K84" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L84" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M84" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="N84" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="O84" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="P84" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="Q84" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="R84" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="S84" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T84" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U84" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="V84" t="n">
         <v>8.5</v>
       </c>
       <c r="W84" t="n">
+        <v>13</v>
+      </c>
+      <c r="X84" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB84" t="n">
         <v>15</v>
-      </c>
-      <c r="X84" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z84" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA84" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB84" t="n">
-        <v>13</v>
       </c>
       <c r="AC84" t="n">
         <v>41</v>
       </c>
       <c r="AD84" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AE84" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF84" t="n">
         <v>26</v>
@@ -10698,13 +10698,13 @@
         <v>15</v>
       </c>
       <c r="AH84" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ84" t="n">
         <v>41</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="85">
@@ -10739,67 +10739,67 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H85" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I85" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J85" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K85" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L85" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M85" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N85" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="O85" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="P85" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R85" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S85" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T85" t="n">
         <v>8.5</v>
       </c>
       <c r="U85" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V85" t="n">
         <v>9</v>
       </c>
       <c r="W85" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X85" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y85" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z85" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA85" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB85" t="n">
         <v>13</v>
@@ -10808,19 +10808,19 @@
         <v>41</v>
       </c>
       <c r="AD85" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE85" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF85" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG85" t="n">
         <v>12</v>
       </c>
       <c r="AH85" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI85" t="n">
         <v>26</v>
@@ -10867,13 +10867,13 @@
         <v>3.6</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J86" t="n">
         <v>1.03</v>
       </c>
       <c r="K86" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L86" t="n">
         <v>1.17</v>
@@ -10882,10 +10882,10 @@
         <v>5</v>
       </c>
       <c r="N86" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O86" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P86" t="n">
         <v>1.3</v>
@@ -10912,7 +10912,7 @@
         <v>21</v>
       </c>
       <c r="X86" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y86" t="n">
         <v>21</v>
@@ -10936,13 +10936,13 @@
         <v>13</v>
       </c>
       <c r="AF86" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG86" t="n">
         <v>11</v>
       </c>
       <c r="AH86" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI86" t="n">
         <v>21</v>
@@ -10983,13 +10983,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H87" t="n">
         <v>3.8</v>
       </c>
       <c r="I87" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="J87" t="n">
         <v>1.03</v>
@@ -10998,43 +10998,43 @@
         <v>15</v>
       </c>
       <c r="L87" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M87" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N87" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O87" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S87" t="n">
         <v>2.2</v>
       </c>
-      <c r="P87" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R87" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S87" t="n">
-        <v>2.25</v>
-      </c>
       <c r="T87" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U87" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V87" t="n">
         <v>8.5</v>
       </c>
       <c r="W87" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X87" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y87" t="n">
         <v>21</v>
@@ -11055,7 +11055,7 @@
         <v>151</v>
       </c>
       <c r="AE87" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF87" t="n">
         <v>21</v>
@@ -11067,10 +11067,10 @@
         <v>41</v>
       </c>
       <c r="AI87" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ87" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88">
@@ -11105,13 +11105,13 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H88" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I88" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="J88" t="n">
         <v>1.06</v>
@@ -11144,19 +11144,19 @@
         <v>1.83</v>
       </c>
       <c r="T88" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U88" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="V88" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W88" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X88" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y88" t="n">
         <v>29</v>
@@ -11165,7 +11165,7 @@
         <v>9</v>
       </c>
       <c r="AA88" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB88" t="n">
         <v>15</v>
@@ -11174,25 +11174,25 @@
         <v>51</v>
       </c>
       <c r="AD88" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE88" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF88" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG88" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH88" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI88" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ88" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89">
@@ -11227,13 +11227,13 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H89" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I89" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J89" t="n">
         <v>1.04</v>
@@ -11248,10 +11248,10 @@
         <v>4</v>
       </c>
       <c r="N89" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O89" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P89" t="n">
         <v>1.33</v>
@@ -11278,7 +11278,7 @@
         <v>15</v>
       </c>
       <c r="X89" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y89" t="n">
         <v>23</v>
@@ -11299,7 +11299,7 @@
         <v>151</v>
       </c>
       <c r="AE89" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF89" t="n">
         <v>21</v>
@@ -11349,13 +11349,13 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H90" t="n">
         <v>3.4</v>
       </c>
       <c r="I90" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
         <v>1.06</v>
@@ -11364,16 +11364,16 @@
         <v>9.5</v>
       </c>
       <c r="L90" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M90" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N90" t="n">
         <v>2.05</v>
       </c>
       <c r="O90" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P90" t="n">
         <v>1.44</v>
@@ -11382,28 +11382,28 @@
         <v>2.63</v>
       </c>
       <c r="R90" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S90" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T90" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U90" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V90" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W90" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X90" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y90" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z90" t="n">
         <v>9.5</v>
@@ -11418,22 +11418,22 @@
         <v>51</v>
       </c>
       <c r="AD90" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE90" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF90" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG90" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH90" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI90" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ90" t="n">
         <v>29</v>
@@ -11492,10 +11492,10 @@
         <v>3.5</v>
       </c>
       <c r="N91" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O91" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="P91" t="n">
         <v>1.4</v>
@@ -11837,52 +11837,52 @@
         </is>
       </c>
       <c r="G94" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K94" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N94" t="n">
         <v>2.7</v>
       </c>
-      <c r="H94" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="K94" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L94" t="n">
+      <c r="O94" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P94" t="n">
         <v>1.62</v>
       </c>
-      <c r="M94" t="n">
+      <c r="Q94" t="n">
         <v>2.2</v>
       </c>
-      <c r="N94" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O94" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P94" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>2.1</v>
-      </c>
       <c r="R94" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S94" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T94" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U94" t="n">
         <v>11</v>
       </c>
       <c r="V94" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W94" t="n">
         <v>29</v>
@@ -11894,13 +11894,13 @@
         <v>41</v>
       </c>
       <c r="Z94" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA94" t="n">
         <v>5.5</v>
       </c>
       <c r="AB94" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC94" t="n">
         <v>81</v>
@@ -11912,19 +11912,19 @@
         <v>6.5</v>
       </c>
       <c r="AF94" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG94" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH94" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI94" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ94" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95">
@@ -11959,94 +11959,94 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H95" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I95" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J95" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K95" t="n">
+        <v>11</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S95" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T95" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U95" t="n">
+        <v>11</v>
+      </c>
+      <c r="V95" t="n">
         <v>9</v>
-      </c>
-      <c r="L95" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M95" t="n">
-        <v>3</v>
-      </c>
-      <c r="N95" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O95" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P95" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R95" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S95" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T95" t="n">
-        <v>7</v>
-      </c>
-      <c r="U95" t="n">
-        <v>10</v>
-      </c>
-      <c r="V95" t="n">
-        <v>9.5</v>
       </c>
       <c r="W95" t="n">
         <v>21</v>
       </c>
       <c r="X95" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y95" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Z95" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AA95" t="n">
         <v>6.5</v>
       </c>
       <c r="AB95" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC95" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD95" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AE95" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF95" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG95" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH95" t="n">
         <v>34</v>
       </c>
       <c r="AI95" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ95" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ95" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="96">
@@ -12102,10 +12102,10 @@
         <v>2.63</v>
       </c>
       <c r="N96" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O96" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P96" t="n">
         <v>1.57</v>
@@ -12813,13 +12813,13 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H102" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I102" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="J102" t="n">
         <v>1.07</v>
@@ -12834,10 +12834,10 @@
         <v>3</v>
       </c>
       <c r="N102" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O102" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P102" t="n">
         <v>1.5</v>
@@ -12846,22 +12846,22 @@
         <v>2.5</v>
       </c>
       <c r="R102" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S102" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T102" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U102" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V102" t="n">
         <v>15</v>
       </c>
       <c r="W102" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X102" t="n">
         <v>41</v>
@@ -12870,10 +12870,10 @@
         <v>41</v>
       </c>
       <c r="Z102" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA102" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB102" t="n">
         <v>17</v>
@@ -12882,25 +12882,25 @@
         <v>51</v>
       </c>
       <c r="AD102" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE102" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF102" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG102" t="n">
         <v>9</v>
       </c>
       <c r="AH102" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI102" t="n">
         <v>17</v>
       </c>
       <c r="AJ102" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103">
@@ -12935,52 +12935,52 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J103" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K103" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N103" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P103" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S103" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T103" t="n">
         <v>8</v>
       </c>
-      <c r="L103" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M103" t="n">
-        <v>3</v>
-      </c>
-      <c r="N103" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="O103" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P103" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R103" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S103" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T103" t="n">
-        <v>7.5</v>
-      </c>
       <c r="U103" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V103" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W103" t="n">
         <v>23</v>
@@ -12989,34 +12989,34 @@
         <v>21</v>
       </c>
       <c r="Y103" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z103" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA103" t="n">
         <v>6</v>
       </c>
       <c r="AB103" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC103" t="n">
         <v>51</v>
       </c>
       <c r="AD103" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE103" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF103" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG103" t="n">
         <v>11</v>
       </c>
       <c r="AH103" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI103" t="n">
         <v>26</v>
@@ -13057,67 +13057,67 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H104" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I104" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J104" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K104" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L104" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M104" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N104" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="O104" t="n">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="P104" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R104" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S104" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T104" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U104" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V104" t="n">
         <v>9</v>
       </c>
       <c r="W104" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X104" t="n">
         <v>17</v>
       </c>
       <c r="Y104" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z104" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AA104" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB104" t="n">
         <v>15</v>
@@ -13126,25 +13126,25 @@
         <v>51</v>
       </c>
       <c r="AD104" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE104" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF104" t="n">
         <v>19</v>
       </c>
       <c r="AG104" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH104" t="n">
         <v>41</v>
       </c>
       <c r="AI104" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ104" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105">
@@ -13179,13 +13179,13 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H105" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I105" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J105" t="n">
         <v>1.07</v>
@@ -13221,13 +13221,13 @@
         <v>6.5</v>
       </c>
       <c r="U105" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V105" t="n">
         <v>9</v>
       </c>
       <c r="W105" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X105" t="n">
         <v>17</v>
@@ -13242,13 +13242,13 @@
         <v>6</v>
       </c>
       <c r="AB105" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC105" t="n">
         <v>51</v>
       </c>
       <c r="AD105" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE105" t="n">
         <v>11</v>
@@ -13260,10 +13260,10 @@
         <v>15</v>
       </c>
       <c r="AH105" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI105" t="n">
         <v>41</v>
-      </c>
-      <c r="AI105" t="n">
-        <v>34</v>
       </c>
       <c r="AJ105" t="n">
         <v>41</v>
@@ -13301,13 +13301,13 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H106" t="n">
         <v>4.75</v>
       </c>
       <c r="I106" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J106" t="n">
         <v>1.04</v>
@@ -13340,10 +13340,10 @@
         <v>1.7</v>
       </c>
       <c r="T106" t="n">
+        <v>7</v>
+      </c>
+      <c r="U106" t="n">
         <v>6.5</v>
-      </c>
-      <c r="U106" t="n">
-        <v>6</v>
       </c>
       <c r="V106" t="n">
         <v>8.5</v>
@@ -13370,7 +13370,7 @@
         <v>67</v>
       </c>
       <c r="AD106" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE106" t="n">
         <v>21</v>
@@ -13388,7 +13388,7 @@
         <v>67</v>
       </c>
       <c r="AJ106" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107">
@@ -14765,27 +14765,27 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="H118" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I118" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M118" t="n">
         <v>2.9</v>
       </c>
       <c r="N118" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="O118" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P118" t="n">
         <v>1.39</v>
@@ -14794,37 +14794,37 @@
         <v>2.42</v>
       </c>
       <c r="R118" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="S118" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="T118" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="U118" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="V118" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="W118" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="X118" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y118" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z118" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA118" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="AB118" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC118" t="n">
         <v>65</v>
@@ -14833,19 +14833,19 @@
         <v>500</v>
       </c>
       <c r="AE118" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AF118" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="AG118" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AH118" t="n">
-        <v>12.5</v>
+        <v>10.75</v>
       </c>
       <c r="AI118" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ118" t="n">
         <v>24</v>
@@ -15123,13 +15123,13 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H121" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I121" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J121" t="n">
         <v>1.06</v>
@@ -15144,16 +15144,16 @@
         <v>3.25</v>
       </c>
       <c r="N121" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O121" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P121" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q121" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R121" t="n">
         <v>1.91</v>
@@ -15162,16 +15162,16 @@
         <v>1.91</v>
       </c>
       <c r="T121" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U121" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V121" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W121" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X121" t="n">
         <v>17</v>
@@ -15186,7 +15186,7 @@
         <v>6.5</v>
       </c>
       <c r="AB121" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC121" t="n">
         <v>51</v>
@@ -15195,10 +15195,10 @@
         <v>301</v>
       </c>
       <c r="AE121" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF121" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG121" t="n">
         <v>13</v>
@@ -15245,13 +15245,13 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H122" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I122" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J122" t="n">
         <v>1.03</v>
@@ -15260,31 +15260,31 @@
         <v>17</v>
       </c>
       <c r="L122" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M122" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N122" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O122" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P122" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q122" t="n">
         <v>3.5</v>
       </c>
       <c r="R122" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S122" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T122" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U122" t="n">
         <v>11</v>
@@ -15299,10 +15299,10 @@
         <v>13</v>
       </c>
       <c r="Y122" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z122" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA122" t="n">
         <v>7.5</v>
@@ -15314,13 +15314,13 @@
         <v>34</v>
       </c>
       <c r="AD122" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE122" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF122" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG122" t="n">
         <v>13</v>
@@ -15394,7 +15394,7 @@
         <v>1.85</v>
       </c>
       <c r="P123" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q123" t="n">
         <v>2.75</v>
@@ -16193,13 +16193,13 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H130" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I130" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J130" t="n">
         <v>1.04</v>
@@ -16208,10 +16208,10 @@
         <v>13</v>
       </c>
       <c r="L130" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M130" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N130" t="n">
         <v>1.7</v>
@@ -16226,16 +16226,16 @@
         <v>3.25</v>
       </c>
       <c r="R130" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S130" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T130" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U130" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V130" t="n">
         <v>12</v>
@@ -16274,13 +16274,13 @@
         <v>9</v>
       </c>
       <c r="AH130" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI130" t="n">
         <v>15</v>
       </c>
       <c r="AJ130" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="131">
@@ -16568,10 +16568,10 @@
         <v>1.7</v>
       </c>
       <c r="J133" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K133" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L133" t="n">
         <v>1.3</v>
@@ -16580,10 +16580,10 @@
         <v>3.4</v>
       </c>
       <c r="N133" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O133" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P133" t="n">
         <v>1.44</v>
@@ -16696,16 +16696,16 @@
         <v>11</v>
       </c>
       <c r="L134" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M134" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N134" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="O134" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="P134" t="n">
         <v>1.36</v>
@@ -16925,19 +16925,19 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H136" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I136" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J136" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K136" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L136" t="n">
         <v>1.22</v>
@@ -16946,10 +16946,10 @@
         <v>4</v>
       </c>
       <c r="N136" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O136" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P136" t="n">
         <v>1.33</v>
@@ -16964,7 +16964,7 @@
         <v>1.83</v>
       </c>
       <c r="T136" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U136" t="n">
         <v>7</v>
@@ -16982,7 +16982,7 @@
         <v>26</v>
       </c>
       <c r="Z136" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA136" t="n">
         <v>8</v>
@@ -16994,19 +16994,19 @@
         <v>51</v>
       </c>
       <c r="AD136" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE136" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF136" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG136" t="n">
         <v>21</v>
       </c>
       <c r="AH136" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI136" t="n">
         <v>51</v>
@@ -17047,13 +17047,13 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H137" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I137" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J137" t="n">
         <v>1.05</v>
@@ -17098,7 +17098,7 @@
         <v>13</v>
       </c>
       <c r="X137" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y137" t="n">
         <v>26</v>
@@ -17107,7 +17107,7 @@
         <v>11</v>
       </c>
       <c r="AA137" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB137" t="n">
         <v>17</v>
@@ -17122,7 +17122,7 @@
         <v>13</v>
       </c>
       <c r="AF137" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG137" t="n">
         <v>15</v>
@@ -17175,7 +17175,7 @@
         <v>3.4</v>
       </c>
       <c r="I138" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J138" t="n">
         <v>1.04</v>
@@ -17223,7 +17223,7 @@
         <v>23</v>
       </c>
       <c r="Y138" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z138" t="n">
         <v>13</v>
@@ -17413,58 +17413,58 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H140" t="n">
         <v>3.2</v>
       </c>
       <c r="I140" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="J140" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K140" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="L140" t="n">
         <v>1.31</v>
       </c>
       <c r="M140" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="N140" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O140" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="P140" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q140" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="R140" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S140" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T140" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U140" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V140" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W140" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X140" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y140" t="n">
         <v>34</v>
@@ -17482,25 +17482,25 @@
         <v>51</v>
       </c>
       <c r="AD140" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE140" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF140" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG140" t="n">
         <v>9</v>
       </c>
       <c r="AH140" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI140" t="n">
         <v>17</v>
       </c>
       <c r="AJ140" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="141">
@@ -17535,13 +17535,13 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H141" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I141" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J141" t="n">
         <v>1.05</v>
@@ -17559,7 +17559,7 @@
         <v>1.95</v>
       </c>
       <c r="O141" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P141" t="n">
         <v>1.4</v>
@@ -17577,13 +17577,13 @@
         <v>7</v>
       </c>
       <c r="U141" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V141" t="n">
         <v>8.5</v>
       </c>
       <c r="W141" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X141" t="n">
         <v>15</v>
@@ -17592,34 +17592,34 @@
         <v>26</v>
       </c>
       <c r="Z141" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA141" t="n">
         <v>7</v>
       </c>
       <c r="AB141" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC141" t="n">
         <v>51</v>
       </c>
       <c r="AD141" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE141" t="n">
         <v>12</v>
       </c>
       <c r="AF141" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG141" t="n">
         <v>15</v>
       </c>
       <c r="AH141" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI141" t="n">
         <v>41</v>
-      </c>
-      <c r="AI141" t="n">
-        <v>34</v>
       </c>
       <c r="AJ141" t="n">
         <v>41</v>
@@ -17791,7 +17791,7 @@
         <v>1.06</v>
       </c>
       <c r="K143" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L143" t="n">
         <v>1.3</v>
@@ -17800,22 +17800,22 @@
         <v>3.4</v>
       </c>
       <c r="N143" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O143" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P143" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q143" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R143" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S143" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T143" t="n">
         <v>7</v>
@@ -17824,7 +17824,7 @@
         <v>9</v>
       </c>
       <c r="V143" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W143" t="n">
         <v>17</v>
@@ -17907,13 +17907,13 @@
         <v>4.75</v>
       </c>
       <c r="I144" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="J144" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K144" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L144" t="n">
         <v>1.25</v>
@@ -17922,13 +17922,13 @@
         <v>3.75</v>
       </c>
       <c r="N144" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O144" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P144" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q144" t="n">
         <v>3</v>
@@ -17958,10 +17958,10 @@
         <v>67</v>
       </c>
       <c r="Z144" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA144" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB144" t="n">
         <v>23</v>
@@ -17985,7 +17985,7 @@
         <v>8</v>
       </c>
       <c r="AI144" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ144" t="n">
         <v>34</v>
@@ -18050,7 +18050,7 @@
         <v>1.95</v>
       </c>
       <c r="P145" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q145" t="n">
         <v>3</v>
@@ -18267,13 +18267,13 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="H147" t="n">
         <v>3</v>
       </c>
       <c r="I147" t="n">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="J147" t="n">
         <v>1.07</v>
@@ -18294,10 +18294,10 @@
         <v>1.67</v>
       </c>
       <c r="P147" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="Q147" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R147" t="n">
         <v>1.83</v>
@@ -18306,7 +18306,7 @@
         <v>1.83</v>
       </c>
       <c r="T147" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U147" t="n">
         <v>13</v>
@@ -18315,10 +18315,10 @@
         <v>11</v>
       </c>
       <c r="W147" t="n">
+        <v>29</v>
+      </c>
+      <c r="X147" t="n">
         <v>26</v>
-      </c>
-      <c r="X147" t="n">
-        <v>23</v>
       </c>
       <c r="Y147" t="n">
         <v>34</v>
@@ -18339,19 +18339,19 @@
         <v>301</v>
       </c>
       <c r="AE147" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF147" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG147" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH147" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI147" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ147" t="n">
         <v>34</v>
@@ -18389,7 +18389,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H148" t="n">
         <v>4.2</v>
@@ -18404,16 +18404,16 @@
         <v>13</v>
       </c>
       <c r="L148" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M148" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N148" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O148" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P148" t="n">
         <v>1.33</v>
@@ -18443,7 +18443,7 @@
         <v>12</v>
       </c>
       <c r="Y148" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z148" t="n">
         <v>13</v>
@@ -18452,13 +18452,13 @@
         <v>8.5</v>
       </c>
       <c r="AB148" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC148" t="n">
         <v>51</v>
       </c>
       <c r="AD148" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE148" t="n">
         <v>17</v>
@@ -18520,10 +18520,10 @@
         <v>3.6</v>
       </c>
       <c r="J149" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K149" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L149" t="n">
         <v>1.33</v>
@@ -18755,19 +18755,19 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H151" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I151" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J151" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K151" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L151" t="n">
         <v>1.29</v>
@@ -18776,10 +18776,10 @@
         <v>3.75</v>
       </c>
       <c r="N151" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O151" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P151" t="n">
         <v>1.4</v>
@@ -18833,7 +18833,7 @@
         <v>26</v>
       </c>
       <c r="AG151" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH151" t="n">
         <v>51</v>
@@ -18877,10 +18877,10 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H152" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I152" t="n">
         <v>10</v>
@@ -18889,7 +18889,7 @@
         <v>1.02</v>
       </c>
       <c r="K152" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L152" t="n">
         <v>1.13</v>
@@ -18898,10 +18898,10 @@
         <v>6</v>
       </c>
       <c r="N152" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O152" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="P152" t="n">
         <v>1.22</v>
@@ -18910,10 +18910,10 @@
         <v>4</v>
       </c>
       <c r="R152" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S152" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T152" t="n">
         <v>10</v>
@@ -18922,10 +18922,10 @@
         <v>7.5</v>
       </c>
       <c r="V152" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W152" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X152" t="n">
         <v>10</v>
@@ -18949,19 +18949,19 @@
         <v>251</v>
       </c>
       <c r="AE152" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG152" t="n">
         <v>26</v>
       </c>
-      <c r="AF152" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG152" t="n">
-        <v>23</v>
-      </c>
       <c r="AH152" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI152" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ152" t="n">
         <v>51</v>
@@ -19005,13 +19005,13 @@
         <v>3.9</v>
       </c>
       <c r="I153" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J153" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K153" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L153" t="n">
         <v>1.33</v>
@@ -19020,10 +19020,10 @@
         <v>3.4</v>
       </c>
       <c r="N153" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="O153" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="P153" t="n">
         <v>1.44</v>
@@ -19032,10 +19032,10 @@
         <v>2.63</v>
       </c>
       <c r="R153" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S153" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T153" t="n">
         <v>6</v>
@@ -19056,7 +19056,7 @@
         <v>29</v>
       </c>
       <c r="Z153" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA153" t="n">
         <v>7.5</v>
@@ -19068,7 +19068,7 @@
         <v>67</v>
       </c>
       <c r="AD153" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE153" t="n">
         <v>12</v>
@@ -19086,7 +19086,7 @@
         <v>41</v>
       </c>
       <c r="AJ153" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="154">
@@ -19121,31 +19121,31 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H154" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I154" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J154" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K154" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="L154" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M154" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N154" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O154" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P154" t="n">
         <v>1.44</v>
@@ -19154,16 +19154,16 @@
         <v>2.63</v>
       </c>
       <c r="R154" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S154" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T154" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U154" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V154" t="n">
         <v>9.5</v>
@@ -19175,13 +19175,13 @@
         <v>19</v>
       </c>
       <c r="Y154" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z154" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA154" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB154" t="n">
         <v>15</v>
@@ -19190,7 +19190,7 @@
         <v>51</v>
       </c>
       <c r="AD154" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE154" t="n">
         <v>9</v>
@@ -19199,16 +19199,16 @@
         <v>15</v>
       </c>
       <c r="AG154" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH154" t="n">
         <v>34</v>
       </c>
       <c r="AI154" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ154" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="155">
@@ -19243,13 +19243,13 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H155" t="n">
         <v>6</v>
       </c>
       <c r="I155" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="J155" t="n">
         <v>1.02</v>
@@ -19258,16 +19258,16 @@
         <v>19</v>
       </c>
       <c r="L155" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M155" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N155" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O155" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="P155" t="n">
         <v>1.25</v>
@@ -19303,7 +19303,7 @@
         <v>21</v>
       </c>
       <c r="AA155" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB155" t="n">
         <v>21</v>
@@ -19324,7 +19324,7 @@
         <v>9</v>
       </c>
       <c r="AH155" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI155" t="n">
         <v>11</v>
@@ -19374,10 +19374,10 @@
         <v>4.75</v>
       </c>
       <c r="J156" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K156" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L156" t="n">
         <v>1.36</v>
@@ -19434,7 +19434,7 @@
         <v>51</v>
       </c>
       <c r="AD156" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE156" t="n">
         <v>11</v>
@@ -19508,10 +19508,10 @@
         <v>2.63</v>
       </c>
       <c r="N157" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="O157" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P157" t="n">
         <v>1.53</v>
@@ -19609,19 +19609,19 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I158" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="J158" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K158" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L158" t="n">
         <v>1.5</v>
@@ -19636,28 +19636,28 @@
         <v>1.5</v>
       </c>
       <c r="P158" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q158" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R158" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S158" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T158" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U158" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V158" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W158" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X158" t="n">
         <v>29</v>
@@ -19666,7 +19666,7 @@
         <v>41</v>
       </c>
       <c r="Z158" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA158" t="n">
         <v>6</v>
@@ -19693,7 +19693,7 @@
         <v>23</v>
       </c>
       <c r="AI158" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ158" t="n">
         <v>41</v>
@@ -19731,94 +19731,94 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="H159" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="I159" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J159" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K159" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M159" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N159" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O159" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P159" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="R159" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S159" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T159" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="U159" t="n">
         <v>8.25</v>
       </c>
-      <c r="L159" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M159" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="N159" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O159" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="P159" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q159" t="n">
-        <v>3</v>
-      </c>
-      <c r="R159" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S159" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T159" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="U159" t="n">
-        <v>7.4</v>
-      </c>
       <c r="V159" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="W159" t="n">
-        <v>10.75</v>
+        <v>13.5</v>
       </c>
       <c r="X159" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y159" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z159" t="n">
-        <v>8.25</v>
+        <v>7.3</v>
       </c>
       <c r="AA159" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="AB159" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AC159" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AD159" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AE159" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF159" t="n">
         <v>40</v>
       </c>
       <c r="AG159" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AH159" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI159" t="n">
         <v>60</v>
       </c>
       <c r="AJ159" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="160">
@@ -19853,94 +19853,94 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="H160" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="I160" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J160" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K160" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="L160" t="n">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="M160" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="N160" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O160" t="n">
-        <v>2.42</v>
+        <v>2.1</v>
       </c>
       <c r="P160" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="Q160" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="R160" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S160" t="n">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="T160" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U160" t="n">
         <v>11</v>
-      </c>
-      <c r="U160" t="n">
-        <v>11.5</v>
       </c>
       <c r="V160" t="n">
         <v>8.5</v>
       </c>
       <c r="W160" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="X160" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB160" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y160" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z160" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AA160" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AB160" t="n">
+      <c r="AC160" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE160" t="n">
         <v>12</v>
       </c>
-      <c r="AC160" t="n">
-        <v>37</v>
-      </c>
-      <c r="AD160" t="n">
-        <v>200</v>
-      </c>
-      <c r="AE160" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AF160" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AG160" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AH160" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI160" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ160" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="161">
@@ -19975,91 +19975,91 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="H161" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I161" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="J161" t="n">
         <v>1.04</v>
       </c>
       <c r="K161" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="L161" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="M161" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="N161" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="O161" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="P161" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="Q161" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="R161" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S161" t="n">
         <v>1.9</v>
       </c>
       <c r="T161" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="U161" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="V161" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="W161" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="X161" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="Y161" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z161" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA161" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB161" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC161" t="n">
         <v>75</v>
       </c>
       <c r="AD161" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE161" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AF161" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG161" t="n">
         <v>8</v>
       </c>
       <c r="AH161" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AI161" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AJ161" t="n">
         <v>24</v>
@@ -20341,25 +20341,25 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="H164" t="n">
         <v>3.15</v>
       </c>
       <c r="I164" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="J164" t="n">
         <v>1.08</v>
       </c>
       <c r="K164" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="L164" t="n">
         <v>1.36</v>
       </c>
       <c r="M164" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="N164" t="n">
         <v>2.05</v>
@@ -20368,16 +20368,16 @@
         <v>1.7</v>
       </c>
       <c r="P164" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q164" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="R164" t="n">
         <v>1.83</v>
       </c>
       <c r="S164" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="T164" t="n">
         <v>6.8</v>
@@ -20389,16 +20389,16 @@
         <v>8.5</v>
       </c>
       <c r="W164" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="X164" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y164" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z164" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA164" t="n">
         <v>6.1</v>
@@ -20410,19 +20410,19 @@
         <v>75</v>
       </c>
       <c r="AD164" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE164" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF164" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG164" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH164" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI164" t="n">
         <v>35</v>
@@ -21439,31 +21439,31 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H173" t="n">
         <v>3</v>
       </c>
       <c r="I173" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J173" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="K173" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L173" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="M173" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="N173" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O173" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P173" t="n">
         <v>1.62</v>
@@ -21472,25 +21472,25 @@
         <v>2.2</v>
       </c>
       <c r="R173" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S173" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T173" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U173" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V173" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W173" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X173" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y173" t="n">
         <v>41</v>
@@ -21511,7 +21511,7 @@
         <v>101</v>
       </c>
       <c r="AE173" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF173" t="n">
         <v>15</v>
@@ -21520,13 +21520,13 @@
         <v>13</v>
       </c>
       <c r="AH173" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI173" t="n">
         <v>34</v>
       </c>
       <c r="AJ173" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="174">
@@ -21561,22 +21561,22 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H174" t="n">
         <v>3.1</v>
       </c>
       <c r="I174" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J174" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K174" t="n">
         <v>7</v>
       </c>
       <c r="L174" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M174" t="n">
         <v>2.5</v>
@@ -21600,7 +21600,7 @@
         <v>1.67</v>
       </c>
       <c r="T174" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U174" t="n">
         <v>15</v>
@@ -21609,7 +21609,7 @@
         <v>13</v>
       </c>
       <c r="W174" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X174" t="n">
         <v>34</v>
@@ -21636,7 +21636,7 @@
         <v>6</v>
       </c>
       <c r="AF174" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG174" t="n">
         <v>10</v>
@@ -21645,7 +21645,7 @@
         <v>21</v>
       </c>
       <c r="AI174" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ174" t="n">
         <v>41</v>
@@ -21692,22 +21692,22 @@
         <v>1.73</v>
       </c>
       <c r="J175" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K175" t="n">
         <v>11</v>
       </c>
       <c r="L175" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="M175" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N175" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O175" t="n">
         <v>1.88</v>
-      </c>
-      <c r="O175" t="n">
-        <v>1.98</v>
       </c>
       <c r="P175" t="n">
         <v>1.36</v>
@@ -21814,13 +21814,13 @@
         <v>3.9</v>
       </c>
       <c r="J176" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K176" t="n">
         <v>11</v>
       </c>
       <c r="L176" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M176" t="n">
         <v>3.5</v>
@@ -21927,13 +21927,13 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H177" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I177" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J177" t="n">
         <v>1.04</v>
@@ -21948,34 +21948,34 @@
         <v>4</v>
       </c>
       <c r="N177" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="O177" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="P177" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q177" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R177" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S177" t="n">
         <v>2.2</v>
       </c>
       <c r="T177" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U177" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V177" t="n">
         <v>9</v>
       </c>
       <c r="W177" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X177" t="n">
         <v>15</v>
@@ -22002,7 +22002,7 @@
         <v>13</v>
       </c>
       <c r="AF177" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG177" t="n">
         <v>13</v>
@@ -22011,10 +22011,10 @@
         <v>41</v>
       </c>
       <c r="AI177" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ177" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ177" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="178">
@@ -22049,13 +22049,13 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H178" t="n">
         <v>3.4</v>
       </c>
       <c r="I178" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="J178" t="n">
         <v>1.06</v>
@@ -22064,22 +22064,22 @@
         <v>10</v>
       </c>
       <c r="L178" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M178" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N178" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O178" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P178" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q178" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R178" t="n">
         <v>1.8</v>
@@ -22088,25 +22088,25 @@
         <v>1.95</v>
       </c>
       <c r="T178" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U178" t="n">
         <v>13</v>
       </c>
       <c r="V178" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W178" t="n">
+        <v>26</v>
+      </c>
+      <c r="X178" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y178" t="n">
         <v>29</v>
       </c>
-      <c r="X178" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y178" t="n">
-        <v>34</v>
-      </c>
       <c r="Z178" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA178" t="n">
         <v>6.5</v>
@@ -22124,13 +22124,13 @@
         <v>8</v>
       </c>
       <c r="AF178" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG178" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH178" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI178" t="n">
         <v>21</v>
@@ -22186,16 +22186,16 @@
         <v>17</v>
       </c>
       <c r="L179" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M179" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N179" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O179" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P179" t="n">
         <v>1.29</v>
@@ -22204,10 +22204,10 @@
         <v>3.5</v>
       </c>
       <c r="R179" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="S179" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T179" t="n">
         <v>9</v>
@@ -22228,7 +22228,7 @@
         <v>21</v>
       </c>
       <c r="Z179" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA179" t="n">
         <v>8.5</v>
@@ -22293,91 +22293,91 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H180" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I180" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J180" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K180" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L180" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M180" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N180" t="n">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="O180" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="P180" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="Q180" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="R180" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S180" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T180" t="n">
         <v>8</v>
       </c>
       <c r="U180" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V180" t="n">
         <v>8.5</v>
       </c>
       <c r="W180" t="n">
+        <v>17</v>
+      </c>
+      <c r="X180" t="n">
         <v>15</v>
       </c>
-      <c r="X180" t="n">
-        <v>13</v>
-      </c>
       <c r="Y180" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z180" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA180" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB180" t="n">
         <v>15</v>
       </c>
       <c r="AC180" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD180" t="n">
         <v>201</v>
       </c>
       <c r="AE180" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG180" t="n">
         <v>13</v>
-      </c>
-      <c r="AF180" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG180" t="n">
-        <v>15</v>
       </c>
       <c r="AH180" t="n">
         <v>41</v>
       </c>
       <c r="AI180" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ180" t="n">
         <v>34</v>
@@ -22430,64 +22430,64 @@
         <v>13</v>
       </c>
       <c r="L181" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M181" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N181" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="O181" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="P181" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Q181" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R181" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S181" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T181" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U181" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V181" t="n">
         <v>10</v>
       </c>
       <c r="W181" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X181" t="n">
         <v>21</v>
       </c>
       <c r="Y181" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z181" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA181" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB181" t="n">
         <v>15</v>
       </c>
       <c r="AC181" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD181" t="n">
         <v>201</v>
       </c>
       <c r="AE181" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF181" t="n">
         <v>12</v>
@@ -22537,13 +22537,13 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="H182" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I182" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="J182" t="n">
         <v>1.05</v>
@@ -22552,43 +22552,43 @@
         <v>11</v>
       </c>
       <c r="L182" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M182" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N182" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O182" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P182" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="Q182" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="R182" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S182" t="n">
         <v>1.8</v>
-      </c>
-      <c r="S182" t="n">
-        <v>1.95</v>
       </c>
       <c r="T182" t="n">
         <v>9</v>
       </c>
       <c r="U182" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V182" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W182" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X182" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y182" t="n">
         <v>34</v>
@@ -22597,7 +22597,7 @@
         <v>11</v>
       </c>
       <c r="AA182" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB182" t="n">
         <v>17</v>
@@ -22606,19 +22606,19 @@
         <v>51</v>
       </c>
       <c r="AD182" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE182" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF182" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG182" t="n">
         <v>9</v>
       </c>
       <c r="AH182" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI182" t="n">
         <v>17</v>
@@ -22668,22 +22668,22 @@
         <v>2.9</v>
       </c>
       <c r="J183" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K183" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L183" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M183" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N183" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O183" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P183" t="n">
         <v>1.4</v>
@@ -22796,16 +22796,16 @@
         <v>11</v>
       </c>
       <c r="L184" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M184" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N184" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O184" t="n">
         <v>1.98</v>
-      </c>
-      <c r="O184" t="n">
-        <v>1.88</v>
       </c>
       <c r="P184" t="n">
         <v>1.4</v>
@@ -23269,19 +23269,19 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H188" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I188" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J188" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K188" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L188" t="n">
         <v>1.25</v>
@@ -23290,10 +23290,10 @@
         <v>3.75</v>
       </c>
       <c r="N188" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O188" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="P188" t="n">
         <v>1.36</v>
@@ -23314,7 +23314,7 @@
         <v>10</v>
       </c>
       <c r="V188" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W188" t="n">
         <v>17</v>
@@ -23323,10 +23323,10 @@
         <v>15</v>
       </c>
       <c r="Y188" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z188" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA188" t="n">
         <v>7</v>
@@ -23341,13 +23341,13 @@
         <v>201</v>
       </c>
       <c r="AE188" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF188" t="n">
         <v>19</v>
       </c>
       <c r="AG188" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH188" t="n">
         <v>41</v>
@@ -23391,13 +23391,13 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="H189" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I189" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="J189" t="n">
         <v>1.05</v>
@@ -23406,22 +23406,22 @@
         <v>11</v>
       </c>
       <c r="L189" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M189" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N189" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O189" t="n">
         <v>1.85</v>
       </c>
-      <c r="O189" t="n">
-        <v>2</v>
-      </c>
       <c r="P189" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q189" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R189" t="n">
         <v>1.73</v>
@@ -23433,25 +23433,25 @@
         <v>8</v>
       </c>
       <c r="U189" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="V189" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W189" t="n">
+        <v>21</v>
+      </c>
+      <c r="X189" t="n">
         <v>17</v>
       </c>
-      <c r="X189" t="n">
-        <v>15</v>
-      </c>
       <c r="Y189" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z189" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA189" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB189" t="n">
         <v>13</v>
@@ -23463,19 +23463,19 @@
         <v>201</v>
       </c>
       <c r="AE189" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF189" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG189" t="n">
         <v>12</v>
       </c>
-      <c r="AF189" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG189" t="n">
-        <v>13</v>
-      </c>
       <c r="AH189" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI189" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ189" t="n">
         <v>34</v>
@@ -23757,10 +23757,10 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="H192" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="I192" t="n">
         <v>1.22</v>
@@ -23774,10 +23774,10 @@
         <v>3.7</v>
       </c>
       <c r="N192" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O192" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="P192" t="n">
         <v>1.38</v>
@@ -23786,37 +23786,37 @@
         <v>2.6</v>
       </c>
       <c r="R192" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S192" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="T192" t="n">
         <v>30</v>
       </c>
       <c r="U192" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="V192" t="n">
         <v>40</v>
       </c>
       <c r="W192" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="X192" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="Y192" t="n">
         <v>150</v>
       </c>
       <c r="Z192" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA192" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AB192" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC192" t="n">
         <v>150</v>
@@ -23828,19 +23828,19 @@
         <v>7</v>
       </c>
       <c r="AF192" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AG192" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH192" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AI192" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AJ192" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="193">
@@ -23875,21 +23875,21 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="H193" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I193" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M193" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="N193" t="n">
         <v>2.07</v>
@@ -23904,13 +23904,13 @@
         <v>2.42</v>
       </c>
       <c r="R193" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="S193" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T193" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="U193" t="n">
         <v>45</v>
@@ -23928,13 +23928,13 @@
         <v>120</v>
       </c>
       <c r="Z193" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AA193" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AB193" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC193" t="n">
         <v>175</v>
@@ -23946,19 +23946,19 @@
         <v>5</v>
       </c>
       <c r="AF193" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AG193" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH193" t="n">
         <v>9</v>
-      </c>
-      <c r="AH193" t="n">
-        <v>8.75</v>
       </c>
       <c r="AI193" t="n">
         <v>14</v>
       </c>
       <c r="AJ193" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="194">
@@ -24237,46 +24237,46 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H196" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I196" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J196" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K196" t="n">
+        <v>10</v>
+      </c>
+      <c r="L196" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M196" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N196" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="O196" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P196" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R196" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S196" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T196" t="n">
         <v>9</v>
-      </c>
-      <c r="L196" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M196" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N196" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O196" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P196" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q196" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R196" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S196" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T196" t="n">
-        <v>8.5</v>
       </c>
       <c r="U196" t="n">
         <v>15</v>
@@ -24285,16 +24285,16 @@
         <v>11</v>
       </c>
       <c r="W196" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X196" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y196" t="n">
         <v>34</v>
       </c>
       <c r="Z196" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA196" t="n">
         <v>6.5</v>
@@ -24306,10 +24306,10 @@
         <v>51</v>
       </c>
       <c r="AD196" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE196" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF196" t="n">
         <v>11</v>
@@ -24321,7 +24321,7 @@
         <v>23</v>
       </c>
       <c r="AI196" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ196" t="n">
         <v>29</v>
@@ -24359,13 +24359,13 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H197" t="n">
         <v>3.5</v>
       </c>
       <c r="I197" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J197" t="n">
         <v>1.05</v>
@@ -24398,19 +24398,19 @@
         <v>2</v>
       </c>
       <c r="T197" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U197" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V197" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W197" t="n">
         <v>29</v>
       </c>
       <c r="X197" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y197" t="n">
         <v>29</v>
@@ -24425,7 +24425,7 @@
         <v>15</v>
       </c>
       <c r="AC197" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD197" t="n">
         <v>201</v>
@@ -24481,13 +24481,13 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H198" t="n">
         <v>3.4</v>
       </c>
       <c r="I198" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J198" t="n">
         <v>1.04</v>
@@ -24526,10 +24526,10 @@
         <v>13</v>
       </c>
       <c r="V198" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W198" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X198" t="n">
         <v>19</v>
@@ -24559,10 +24559,10 @@
         <v>15</v>
       </c>
       <c r="AG198" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH198" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI198" t="n">
         <v>21</v>
@@ -24725,13 +24725,13 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H200" t="n">
         <v>3.6</v>
       </c>
       <c r="I200" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="J200" t="n">
         <v>1.03</v>
@@ -24773,7 +24773,7 @@
         <v>10</v>
       </c>
       <c r="W200" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X200" t="n">
         <v>19</v>
@@ -24794,10 +24794,10 @@
         <v>34</v>
       </c>
       <c r="AD200" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE200" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF200" t="n">
         <v>15</v>
@@ -24806,13 +24806,13 @@
         <v>10</v>
       </c>
       <c r="AH200" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI200" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ200" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="201">
@@ -24850,7 +24850,7 @@
         <v>1.65</v>
       </c>
       <c r="H201" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I201" t="n">
         <v>4.5</v>
@@ -24859,19 +24859,19 @@
         <v>1.02</v>
       </c>
       <c r="K201" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L201" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M201" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N201" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="O201" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="P201" t="n">
         <v>1.25</v>
@@ -24889,7 +24889,7 @@
         <v>11</v>
       </c>
       <c r="U201" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V201" t="n">
         <v>8.5</v>
@@ -24901,7 +24901,7 @@
         <v>12</v>
       </c>
       <c r="Y201" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z201" t="n">
         <v>21</v>
@@ -24969,19 +24969,19 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H202" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I202" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J202" t="n">
         <v>1.03</v>
       </c>
       <c r="K202" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L202" t="n">
         <v>1.17</v>
@@ -24990,10 +24990,10 @@
         <v>5</v>
       </c>
       <c r="N202" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O202" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P202" t="n">
         <v>1.29</v>
@@ -25008,7 +25008,7 @@
         <v>2.25</v>
       </c>
       <c r="T202" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U202" t="n">
         <v>10</v>
@@ -25026,13 +25026,13 @@
         <v>21</v>
       </c>
       <c r="Z202" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA202" t="n">
         <v>7.5</v>
       </c>
       <c r="AB202" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC202" t="n">
         <v>41</v>
@@ -25041,13 +25041,13 @@
         <v>126</v>
       </c>
       <c r="AE202" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG202" t="n">
         <v>15</v>
-      </c>
-      <c r="AF202" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG202" t="n">
-        <v>13</v>
       </c>
       <c r="AH202" t="n">
         <v>41</v>
@@ -25056,7 +25056,7 @@
         <v>29</v>
       </c>
       <c r="AJ202" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="203">
@@ -25222,10 +25222,10 @@
         <v>4.75</v>
       </c>
       <c r="J204" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K204" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L204" t="n">
         <v>1.22</v>
@@ -25579,19 +25579,19 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="H207" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I207" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="J207" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K207" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L207" t="n">
         <v>1.25</v>
@@ -25600,10 +25600,10 @@
         <v>3.75</v>
       </c>
       <c r="N207" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O207" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P207" t="n">
         <v>1.4</v>
@@ -25612,25 +25612,25 @@
         <v>2.75</v>
       </c>
       <c r="R207" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S207" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T207" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U207" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V207" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W207" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X207" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y207" t="n">
         <v>26</v>
@@ -25648,7 +25648,7 @@
         <v>41</v>
       </c>
       <c r="AD207" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE207" t="n">
         <v>10</v>
@@ -25657,13 +25657,13 @@
         <v>15</v>
       </c>
       <c r="AG207" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH207" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI207" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ207" t="n">
         <v>29</v>
@@ -25701,19 +25701,19 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H208" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I208" t="n">
         <v>2.3</v>
       </c>
       <c r="J208" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K208" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L208" t="n">
         <v>1.3</v>
@@ -25722,61 +25722,61 @@
         <v>3.4</v>
       </c>
       <c r="N208" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O208" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="P208" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q208" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R208" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S208" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T208" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U208" t="n">
         <v>15</v>
       </c>
       <c r="V208" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W208" t="n">
         <v>34</v>
       </c>
       <c r="X208" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y208" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z208" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA208" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB208" t="n">
         <v>13</v>
       </c>
       <c r="AC208" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD208" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE208" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF208" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG208" t="n">
         <v>9.5</v>
@@ -25788,7 +25788,7 @@
         <v>19</v>
       </c>
       <c r="AJ208" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="209">
@@ -25835,40 +25835,40 @@
         <v>1.08</v>
       </c>
       <c r="K209" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="L209" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="M209" t="n">
-        <v>2.77</v>
+        <v>2.95</v>
       </c>
       <c r="N209" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="O209" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P209" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q209" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R209" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S209" t="n">
         <v>1.9</v>
       </c>
-      <c r="S209" t="n">
-        <v>1.82</v>
-      </c>
       <c r="T209" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="U209" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="V209" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W209" t="n">
         <v>19</v>
@@ -25877,40 +25877,40 @@
         <v>17.5</v>
       </c>
       <c r="Y209" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z209" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AA209" t="n">
         <v>6.1</v>
       </c>
       <c r="AB209" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC209" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AD209" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AE209" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AF209" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AG209" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH209" t="n">
         <v>50</v>
       </c>
       <c r="AI209" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AJ209" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="210">
@@ -26073,13 +26073,13 @@
         <v>3.95</v>
       </c>
       <c r="I211" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="J211" t="n">
         <v>1.04</v>
       </c>
       <c r="K211" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="L211" t="n">
         <v>1.2</v>
@@ -26088,7 +26088,7 @@
         <v>4.05</v>
       </c>
       <c r="N211" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O211" t="n">
         <v>2.18</v>
@@ -26100,16 +26100,16 @@
         <v>3.1</v>
       </c>
       <c r="R211" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S211" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T211" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U211" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="V211" t="n">
         <v>8</v>
@@ -26124,7 +26124,7 @@
         <v>21</v>
       </c>
       <c r="Z211" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA211" t="n">
         <v>8</v>
@@ -26139,7 +26139,7 @@
         <v>400</v>
       </c>
       <c r="AE211" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF211" t="n">
         <v>32</v>
@@ -26189,13 +26189,13 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.3</v>
+        <v>2.47</v>
       </c>
       <c r="H212" t="n">
         <v>3.1</v>
       </c>
       <c r="I212" t="n">
-        <v>2.92</v>
+        <v>2.67</v>
       </c>
       <c r="J212" t="n">
         <v>1.06</v>
@@ -26207,7 +26207,7 @@
         <v>1.28</v>
       </c>
       <c r="M212" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="N212" t="n">
         <v>1.83</v>
@@ -26228,22 +26228,22 @@
         <v>2.12</v>
       </c>
       <c r="T212" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="U212" t="n">
         <v>12.5</v>
       </c>
       <c r="V212" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="W212" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="X212" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="Y212" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Z212" t="n">
         <v>7.3</v>
@@ -26252,7 +26252,7 @@
         <v>6.2</v>
       </c>
       <c r="AB212" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC212" t="n">
         <v>50</v>
@@ -26261,22 +26261,22 @@
         <v>350</v>
       </c>
       <c r="AE212" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF212" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG212" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH212" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AI212" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ212" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ212" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="213">
@@ -26433,91 +26433,91 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="H214" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I214" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="J214" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K214" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="L214" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="M214" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N214" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O214" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="P214" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="Q214" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="R214" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S214" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T214" t="n">
+        <v>13</v>
+      </c>
+      <c r="U214" t="n">
+        <v>23</v>
+      </c>
+      <c r="V214" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="W214" t="n">
+        <v>60</v>
+      </c>
+      <c r="X214" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB214" t="n">
         <v>15</v>
       </c>
-      <c r="U214" t="n">
-        <v>29</v>
-      </c>
-      <c r="V214" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="W214" t="n">
-        <v>80</v>
-      </c>
-      <c r="X214" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y214" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z214" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA214" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB214" t="n">
-        <v>16</v>
-      </c>
       <c r="AC214" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD214" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE214" t="n">
         <v>7.7</v>
       </c>
       <c r="AF214" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AG214" t="n">
         <v>8.25</v>
       </c>
       <c r="AH214" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI214" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ214" t="n">
         <v>24</v>
@@ -26555,19 +26555,19 @@
         </is>
       </c>
       <c r="G215" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H215" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I215" t="n">
         <v>2.52</v>
-      </c>
-      <c r="H215" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>2.62</v>
       </c>
       <c r="J215" t="n">
         <v>1.07</v>
       </c>
       <c r="K215" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="L215" t="n">
         <v>1.33</v>
@@ -26585,7 +26585,7 @@
         <v>1.45</v>
       </c>
       <c r="Q215" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R215" t="n">
         <v>1.75</v>
@@ -26594,52 +26594,52 @@
         <v>1.98</v>
       </c>
       <c r="T215" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U215" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="V215" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W215" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X215" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y215" t="n">
         <v>30</v>
       </c>
       <c r="Z215" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AA215" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB215" t="n">
         <v>13.5</v>
       </c>
       <c r="AC215" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD215" t="n">
         <v>500</v>
       </c>
       <c r="AE215" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF215" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG215" t="n">
         <v>9.75</v>
       </c>
       <c r="AH215" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI215" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ215" t="n">
         <v>32</v>
@@ -26677,13 +26677,13 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H216" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I216" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="J216" t="n">
         <v>1.07</v>
@@ -26710,61 +26710,61 @@
         <v>2.6</v>
       </c>
       <c r="R216" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S216" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="T216" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="U216" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V216" t="n">
         <v>8.25</v>
       </c>
       <c r="W216" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="X216" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y216" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z216" t="n">
         <v>7</v>
       </c>
       <c r="AA216" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AB216" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AC216" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD216" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE216" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AF216" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG216" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH216" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AI216" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ216" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="217">
@@ -26799,19 +26799,19 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="H217" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I217" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="J217" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K217" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="L217" t="n">
         <v>1.32</v>
@@ -26826,46 +26826,46 @@
         <v>1.78</v>
       </c>
       <c r="P217" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q217" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="R217" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S217" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T217" t="n">
         <v>8.25</v>
       </c>
       <c r="U217" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="V217" t="n">
         <v>9.5</v>
       </c>
       <c r="W217" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X217" t="n">
         <v>20</v>
       </c>
       <c r="Y217" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z217" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AA217" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AB217" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC217" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD217" t="n">
         <v>500</v>
@@ -26874,7 +26874,7 @@
         <v>8.5</v>
       </c>
       <c r="AF217" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG217" t="n">
         <v>10</v>
@@ -26924,7 +26924,7 @@
         <v>2.6</v>
       </c>
       <c r="H218" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I218" t="n">
         <v>2.47</v>
@@ -26945,7 +26945,7 @@
         <v>1.87</v>
       </c>
       <c r="O218" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P218" t="n">
         <v>1.42</v>
@@ -26975,13 +26975,13 @@
         <v>22</v>
       </c>
       <c r="Y218" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z218" t="n">
         <v>7.3</v>
       </c>
       <c r="AA218" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB218" t="n">
         <v>13</v>
@@ -26993,7 +26993,7 @@
         <v>400</v>
       </c>
       <c r="AE218" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF218" t="n">
         <v>13</v>
@@ -27005,10 +27005,10 @@
         <v>27</v>
       </c>
       <c r="AI218" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ218" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="219">
@@ -27043,13 +27043,13 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H219" t="n">
         <v>3.2</v>
       </c>
       <c r="I219" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
@@ -27060,7 +27060,7 @@
         <v>2.47</v>
       </c>
       <c r="N219" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="O219" t="n">
         <v>1.52</v>
@@ -27078,16 +27078,16 @@
         <v>1.65</v>
       </c>
       <c r="T219" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="U219" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="V219" t="n">
         <v>12</v>
       </c>
       <c r="W219" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X219" t="n">
         <v>35</v>
@@ -27279,94 +27279,94 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>4.75</v>
+        <v>5.4</v>
       </c>
       <c r="H221" t="n">
         <v>4.1</v>
       </c>
       <c r="I221" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="J221" t="n">
         <v>1.03</v>
       </c>
       <c r="K221" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="L221" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="M221" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="N221" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O221" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="P221" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="Q221" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="R221" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="S221" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="T221" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="U221" t="n">
+        <v>37</v>
+      </c>
+      <c r="V221" t="n">
         <v>17.5</v>
       </c>
-      <c r="U221" t="n">
-        <v>32</v>
-      </c>
-      <c r="V221" t="n">
-        <v>15.5</v>
-      </c>
       <c r="W221" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="X221" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Y221" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Z221" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA221" t="n">
         <v>8.5</v>
       </c>
       <c r="AB221" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC221" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AD221" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE221" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF221" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG221" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AH221" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AI221" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AJ221" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="222">
@@ -27401,49 +27401,49 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="H222" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I222" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J222" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K222" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="L222" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="M222" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="N222" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="O222" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="P222" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q222" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R222" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="S222" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="T222" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="U222" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="V222" t="n">
         <v>9</v>
@@ -27452,43 +27452,43 @@
         <v>20</v>
       </c>
       <c r="X222" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y222" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z222" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AA222" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AB222" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC222" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AD222" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AE222" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF222" t="n">
         <v>15.5</v>
       </c>
       <c r="AG222" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AH222" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ222" t="n">
         <v>37</v>
-      </c>
-      <c r="AI222" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ222" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="223">
@@ -27523,37 +27523,37 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="H223" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="I223" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="J223" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K223" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="L223" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M223" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="N223" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="O223" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P223" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="Q223" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R223" t="n">
         <v>1.75</v>
@@ -27562,7 +27562,7 @@
         <v>1.98</v>
       </c>
       <c r="T223" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="U223" t="n">
         <v>9.5</v>
@@ -27571,46 +27571,46 @@
         <v>8.25</v>
       </c>
       <c r="W223" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="X223" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y223" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z223" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AA223" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="AB223" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC223" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD223" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE223" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AF223" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG223" t="n">
         <v>12.5</v>
       </c>
       <c r="AH223" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI223" t="n">
         <v>37</v>
       </c>
       <c r="AJ223" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="224">
@@ -27645,73 +27645,73 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="H224" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="I224" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="J224" t="n">
         <v>1.04</v>
       </c>
       <c r="K224" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="L224" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M224" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="N224" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O224" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="P224" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="Q224" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="R224" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S224" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T224" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="U224" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="V224" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="W224" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="X224" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Y224" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Z224" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA224" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AB224" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC224" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD224" t="n">
         <v>600</v>
@@ -27720,16 +27720,16 @@
         <v>7.1</v>
       </c>
       <c r="AF224" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AG224" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AH224" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AI224" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AJ224" t="n">
         <v>25</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-29.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="J2" t="n">
         <v>1.04</v>
@@ -662,16 +662,16 @@
         <v>13</v>
       </c>
       <c r="L2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
         <v>1.33</v>
@@ -689,10 +689,10 @@
         <v>15</v>
       </c>
       <c r="U2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W2" t="n">
         <v>51</v>
@@ -704,10 +704,10 @@
         <v>41</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB2" t="n">
         <v>17</v>
@@ -731,7 +731,7 @@
         <v>12</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
         <v>23</v>
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD3" t="n">
         <v>151</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
         <v>10</v>
@@ -906,16 +906,16 @@
         <v>15</v>
       </c>
       <c r="L4" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O4" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="P4" t="n">
         <v>1.29</v>
@@ -1013,19 +1013,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K5" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L5" t="n">
         <v>1.14</v>
@@ -1055,7 +1055,7 @@
         <v>15</v>
       </c>
       <c r="U5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V5" t="n">
         <v>11</v>
@@ -1073,7 +1073,7 @@
         <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB5" t="n">
         <v>10</v>
@@ -1085,19 +1085,19 @@
         <v>81</v>
       </c>
       <c r="AE5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF5" t="n">
         <v>15</v>
       </c>
-      <c r="AF5" t="n">
-        <v>17</v>
-      </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
         <v>19</v>
@@ -1135,94 +1135,94 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="H6" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="I6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J6" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="M6" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="N6" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="O6" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="P6" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="Q6" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="R6" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="T6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U6" t="n">
+        <v>7</v>
+      </c>
+      <c r="V6" t="n">
+        <v>12</v>
+      </c>
+      <c r="W6" t="n">
         <v>6.5</v>
-      </c>
-      <c r="V6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
         <v>81</v>
       </c>
       <c r="AD6" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AF6" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AH6" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AI6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>81</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -1257,79 +1257,79 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L7" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M7" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="O7" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="P7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R7" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V7" t="n">
         <v>9.5</v>
       </c>
       <c r="W7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X7" t="n">
         <v>19</v>
       </c>
       <c r="Y7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD7" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF7" t="n">
         <v>15</v>
@@ -1344,7 +1344,7 @@
         <v>23</v>
       </c>
       <c r="AJ7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J8" t="n">
         <v>1.03</v>
@@ -1394,16 +1394,16 @@
         <v>15</v>
       </c>
       <c r="L8" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O8" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="P8" t="n">
         <v>1.3</v>
@@ -1412,16 +1412,16 @@
         <v>3.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T8" t="n">
         <v>13</v>
       </c>
       <c r="U8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V8" t="n">
         <v>11</v>
@@ -1436,25 +1436,25 @@
         <v>26</v>
       </c>
       <c r="Z8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
         <v>7</v>
       </c>
       <c r="AB8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
         <v>34</v>
       </c>
       <c r="AD8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
         <v>9</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J9" t="n">
         <v>1.04</v>
@@ -1558,7 +1558,7 @@
         <v>23</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
         <v>7.5</v>
@@ -1567,7 +1567,7 @@
         <v>15</v>
       </c>
       <c r="AC9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD9" t="n">
         <v>201</v>
@@ -1585,7 +1585,7 @@
         <v>51</v>
       </c>
       <c r="AI9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ9" t="n">
         <v>41</v>
@@ -1626,10 +1626,10 @@
         <v>2.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I10" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J10" t="n">
         <v>1.03</v>
@@ -1656,10 +1656,10 @@
         <v>3.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T10" t="n">
         <v>15</v>
@@ -1677,13 +1677,13 @@
         <v>17</v>
       </c>
       <c r="Y10" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z10" t="n">
         <v>19</v>
       </c>
-      <c r="Z10" t="n">
-        <v>21</v>
-      </c>
       <c r="AA10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB10" t="n">
         <v>11</v>
@@ -1745,34 +1745,34 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
         <v>1.06</v>
       </c>
       <c r="K11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M11" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N11" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="O11" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="P11" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q11" t="n">
         <v>2.75</v>
@@ -1799,7 +1799,7 @@
         <v>15</v>
       </c>
       <c r="Y11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z11" t="n">
         <v>9.5</v>
@@ -1867,19 +1867,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J12" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L12" t="n">
         <v>1.36</v>
@@ -1888,16 +1888,16 @@
         <v>3.2</v>
       </c>
       <c r="N12" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P12" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R12" t="n">
         <v>2</v>
@@ -1906,13 +1906,13 @@
         <v>1.75</v>
       </c>
       <c r="T12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U12" t="n">
         <v>23</v>
       </c>
       <c r="V12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W12" t="n">
         <v>51</v>
@@ -1921,19 +1921,19 @@
         <v>41</v>
       </c>
       <c r="Y12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD12" t="n">
         <v>401</v>
@@ -1992,10 +1992,10 @@
         <v>1.53</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
         <v>1.08</v>
@@ -2004,10 +2004,10 @@
         <v>8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N13" t="n">
         <v>2.3</v>
@@ -2022,10 +2022,10 @@
         <v>2.5</v>
       </c>
       <c r="R13" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S13" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T13" t="n">
         <v>5</v>
@@ -2049,10 +2049,10 @@
         <v>7.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC13" t="n">
         <v>101</v>
@@ -2065,7 +2065,7 @@
         <v>34</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH13" t="n">
         <v>81</v>
@@ -2231,43 +2231,43 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
         <v>2.5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N15" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O15" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R15" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S15" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T15" t="n">
         <v>8</v>
@@ -2282,13 +2282,13 @@
         <v>29</v>
       </c>
       <c r="X15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA15" t="n">
         <v>6</v>
@@ -2300,13 +2300,13 @@
         <v>51</v>
       </c>
       <c r="AD15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE15" t="n">
         <v>7.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG15" t="n">
         <v>10</v>
@@ -2496,10 +2496,10 @@
         <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P17" t="n">
         <v>1.5</v>
@@ -2618,10 +2618,10 @@
         <v>3.75</v>
       </c>
       <c r="N18" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P18" t="n">
         <v>1.36</v>
@@ -2630,7 +2630,7 @@
         <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S18" t="n">
         <v>2</v>
@@ -2752,7 +2752,7 @@
         <v>3.25</v>
       </c>
       <c r="R19" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S19" t="n">
         <v>2.25</v>
@@ -2972,10 +2972,10 @@
         <v>1.65</v>
       </c>
       <c r="J21" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L21" t="n">
         <v>1.4</v>
@@ -2999,7 +2999,7 @@
         <v>2.1</v>
       </c>
       <c r="S21" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T21" t="n">
         <v>11</v>
@@ -3085,13 +3085,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H22" t="n">
         <v>2.9</v>
       </c>
       <c r="I22" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J22" t="n">
         <v>1.13</v>
@@ -3118,22 +3118,22 @@
         <v>2.2</v>
       </c>
       <c r="R22" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S22" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="T22" t="n">
         <v>5.5</v>
       </c>
       <c r="U22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V22" t="n">
         <v>10</v>
       </c>
       <c r="W22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X22" t="n">
         <v>21</v>
@@ -3157,16 +3157,16 @@
         <v>501</v>
       </c>
       <c r="AE22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI22" t="n">
         <v>41</v>
@@ -3210,7 +3210,7 @@
         <v>1.17</v>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I23" t="n">
         <v>17</v>
@@ -3234,16 +3234,16 @@
         <v>2.75</v>
       </c>
       <c r="P23" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q23" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R23" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S23" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="T23" t="n">
         <v>8.5</v>
@@ -3255,7 +3255,7 @@
         <v>10</v>
       </c>
       <c r="W23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X23" t="n">
         <v>11</v>
@@ -3276,13 +3276,13 @@
         <v>81</v>
       </c>
       <c r="AD23" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF23" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG23" t="n">
         <v>41</v>
@@ -3291,10 +3291,10 @@
         <v>251</v>
       </c>
       <c r="AI23" t="n">
+        <v>126</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>101</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="24">
@@ -3329,19 +3329,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H24" t="n">
         <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K24" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.62</v>
@@ -3371,7 +3371,7 @@
         <v>4.5</v>
       </c>
       <c r="U24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V24" t="n">
         <v>10</v>
@@ -3404,10 +3404,10 @@
         <v>9</v>
       </c>
       <c r="AF24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH24" t="n">
         <v>67</v>
@@ -3573,13 +3573,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="H26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J26" t="n">
         <v>1.08</v>
@@ -3606,13 +3606,13 @@
         <v>2.38</v>
       </c>
       <c r="R26" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="S26" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T26" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="U26" t="n">
         <v>5.5</v>
@@ -3621,7 +3621,7 @@
         <v>9.5</v>
       </c>
       <c r="W26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X26" t="n">
         <v>17</v>
@@ -3633,31 +3633,31 @@
         <v>7</v>
       </c>
       <c r="AA26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB26" t="n">
         <v>29</v>
       </c>
       <c r="AC26" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AD26" t="n">
         <v>501</v>
       </c>
       <c r="AE26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH26" t="n">
         <v>101</v>
       </c>
       <c r="AI26" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ26" t="n">
         <v>81</v>
@@ -3704,10 +3704,10 @@
         <v>8.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L27" t="n">
         <v>1.4</v>
@@ -3817,7 +3817,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="H28" t="n">
         <v>3.2</v>
@@ -3853,7 +3853,7 @@
         <v>2.5</v>
       </c>
       <c r="S28" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T28" t="n">
         <v>5</v>
@@ -3939,7 +3939,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="H29" t="n">
         <v>3.1</v>
@@ -3975,7 +3975,7 @@
         <v>2.5</v>
       </c>
       <c r="S29" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T29" t="n">
         <v>5</v>
@@ -4061,10 +4061,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="H30" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I30" t="n">
         <v>5</v>
@@ -4094,10 +4094,10 @@
         <v>2.1</v>
       </c>
       <c r="R30" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="S30" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T30" t="n">
         <v>4.75</v>
@@ -4112,7 +4112,7 @@
         <v>17</v>
       </c>
       <c r="X30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y30" t="n">
         <v>41</v>
@@ -4133,7 +4133,7 @@
         <v>101</v>
       </c>
       <c r="AE30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF30" t="n">
         <v>21</v>
@@ -4183,13 +4183,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H31" t="n">
         <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J31" t="n">
         <v>1.04</v>
@@ -4198,31 +4198,31 @@
         <v>13</v>
       </c>
       <c r="L31" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N31" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O31" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P31" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R31" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S31" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U31" t="n">
         <v>19</v>
@@ -4231,7 +4231,7 @@
         <v>12</v>
       </c>
       <c r="W31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X31" t="n">
         <v>26</v>
@@ -4246,7 +4246,7 @@
         <v>7</v>
       </c>
       <c r="AB31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC31" t="n">
         <v>41</v>
@@ -4270,7 +4270,7 @@
         <v>15</v>
       </c>
       <c r="AJ31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="H32" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J32" t="n">
         <v>1.04</v>
@@ -4332,7 +4332,7 @@
         <v>2.08</v>
       </c>
       <c r="P32" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q32" t="n">
         <v>3.25</v>
@@ -4353,7 +4353,7 @@
         <v>8.5</v>
       </c>
       <c r="W32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X32" t="n">
         <v>12</v>
@@ -4365,7 +4365,7 @@
         <v>13</v>
       </c>
       <c r="AA32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB32" t="n">
         <v>19</v>
@@ -4383,16 +4383,16 @@
         <v>34</v>
       </c>
       <c r="AG32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH32" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33">
@@ -4427,49 +4427,49 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="H33" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I33" t="n">
-        <v>2.88</v>
+        <v>2.62</v>
       </c>
       <c r="J33" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K33" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L33" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N33" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O33" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="P33" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R33" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S33" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T33" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V33" t="n">
         <v>10</v>
@@ -4484,19 +4484,19 @@
         <v>34</v>
       </c>
       <c r="Z33" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA33" t="n">
         <v>6</v>
       </c>
       <c r="AB33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC33" t="n">
         <v>51</v>
       </c>
       <c r="AD33" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE33" t="n">
         <v>8.5</v>
@@ -4505,16 +4505,16 @@
         <v>13</v>
       </c>
       <c r="AG33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>29</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -4549,10 +4549,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H34" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I34" t="n">
         <v>3.4</v>
@@ -4561,40 +4561,40 @@
         <v>1.03</v>
       </c>
       <c r="K34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L34" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M34" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N34" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="O34" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="P34" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S34" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U34" t="n">
         <v>11</v>
       </c>
       <c r="V34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W34" t="n">
         <v>17</v>
@@ -4603,22 +4603,22 @@
         <v>13</v>
       </c>
       <c r="Y34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA34" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD34" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE34" t="n">
         <v>15</v>
@@ -4636,7 +4636,7 @@
         <v>26</v>
       </c>
       <c r="AJ34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
@@ -4698,7 +4698,7 @@
         <v>2.08</v>
       </c>
       <c r="P35" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q35" t="n">
         <v>3.25</v>
@@ -4793,10 +4793,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="H36" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I36" t="n">
         <v>6.5</v>
@@ -4826,16 +4826,16 @@
         <v>2.63</v>
       </c>
       <c r="R36" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S36" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T36" t="n">
         <v>5.5</v>
       </c>
       <c r="U36" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V36" t="n">
         <v>9</v>
@@ -4856,7 +4856,7 @@
         <v>7.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC36" t="n">
         <v>81</v>
@@ -4868,7 +4868,7 @@
         <v>13</v>
       </c>
       <c r="AF36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG36" t="n">
         <v>21</v>
@@ -4915,13 +4915,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H37" t="n">
         <v>3.1</v>
       </c>
       <c r="I37" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J37" t="n">
         <v>1.1</v>
@@ -4960,7 +4960,7 @@
         <v>10</v>
       </c>
       <c r="V37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W37" t="n">
         <v>21</v>
@@ -5037,19 +5037,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H38" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J38" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K38" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L38" t="n">
         <v>1.44</v>
@@ -5070,10 +5070,10 @@
         <v>2.38</v>
       </c>
       <c r="R38" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S38" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T38" t="n">
         <v>7</v>
@@ -5088,13 +5088,13 @@
         <v>23</v>
       </c>
       <c r="X38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y38" t="n">
         <v>34</v>
       </c>
       <c r="Z38" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA38" t="n">
         <v>6</v>
@@ -5159,7 +5159,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H39" t="n">
         <v>3.1</v>
@@ -5171,7 +5171,7 @@
         <v>1.08</v>
       </c>
       <c r="K39" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L39" t="n">
         <v>1.4</v>
@@ -5210,7 +5210,7 @@
         <v>21</v>
       </c>
       <c r="X39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y39" t="n">
         <v>34</v>
@@ -5281,13 +5281,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="H40" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I40" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
         <v>1.08</v>
@@ -5302,10 +5302,10 @@
         <v>3</v>
       </c>
       <c r="N40" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O40" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P40" t="n">
         <v>1.44</v>
@@ -5314,16 +5314,16 @@
         <v>2.63</v>
       </c>
       <c r="R40" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S40" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T40" t="n">
         <v>6</v>
       </c>
       <c r="U40" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V40" t="n">
         <v>8.5</v>
@@ -5341,7 +5341,7 @@
         <v>8</v>
       </c>
       <c r="AA40" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB40" t="n">
         <v>19</v>
@@ -5356,7 +5356,7 @@
         <v>12</v>
       </c>
       <c r="AF40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG40" t="n">
         <v>17</v>
@@ -5403,7 +5403,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="H41" t="n">
         <v>3.6</v>
@@ -5412,28 +5412,28 @@
         <v>5.25</v>
       </c>
       <c r="J41" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K41" t="n">
         <v>9</v>
       </c>
       <c r="L41" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M41" t="n">
         <v>3.2</v>
       </c>
       <c r="N41" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O41" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="P41" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R41" t="n">
         <v>1.95</v>
@@ -5525,22 +5525,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="H42" t="n">
         <v>3.9</v>
       </c>
       <c r="I42" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J42" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K42" t="n">
         <v>11</v>
       </c>
       <c r="L42" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M42" t="n">
         <v>3.75</v>
@@ -5552,7 +5552,7 @@
         <v>1.98</v>
       </c>
       <c r="P42" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q42" t="n">
         <v>3</v>
@@ -5600,7 +5600,7 @@
         <v>13</v>
       </c>
       <c r="AF42" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG42" t="n">
         <v>15</v>
@@ -6266,10 +6266,10 @@
         <v>3.5</v>
       </c>
       <c r="J48" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K48" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L48" t="n">
         <v>1.57</v>
@@ -6379,19 +6379,19 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="H49" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I49" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J49" t="n">
         <v>1.07</v>
       </c>
       <c r="K49" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L49" t="n">
         <v>1.36</v>
@@ -6412,37 +6412,37 @@
         <v>2.63</v>
       </c>
       <c r="R49" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S49" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T49" t="n">
+        <v>5</v>
+      </c>
+      <c r="U49" t="n">
         <v>5.5</v>
-      </c>
-      <c r="U49" t="n">
-        <v>6</v>
       </c>
       <c r="V49" t="n">
         <v>9</v>
       </c>
       <c r="W49" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X49" t="n">
         <v>15</v>
       </c>
       <c r="Y49" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z49" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA49" t="n">
         <v>9</v>
       </c>
-      <c r="AA49" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AB49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC49" t="n">
         <v>101</v>
@@ -6451,19 +6451,19 @@
         <v>101</v>
       </c>
       <c r="AE49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF49" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG49" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH49" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI49" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ49" t="n">
         <v>67</v>
@@ -6623,31 +6623,31 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H51" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I51" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L51" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M51" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N51" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="O51" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="P51" t="n">
         <v>1.44</v>
@@ -6662,10 +6662,10 @@
         <v>1.95</v>
       </c>
       <c r="T51" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V51" t="n">
         <v>9.5</v>
@@ -6680,10 +6680,10 @@
         <v>29</v>
       </c>
       <c r="Z51" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA51" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB51" t="n">
         <v>15</v>
@@ -6692,22 +6692,22 @@
         <v>51</v>
       </c>
       <c r="AD51" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE51" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG51" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH51" t="n">
         <v>34</v>
       </c>
       <c r="AI51" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ51" t="n">
         <v>34</v>
@@ -6748,52 +6748,52 @@
         <v>1.17</v>
       </c>
       <c r="H52" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I52" t="n">
         <v>17</v>
       </c>
       <c r="J52" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L52" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M52" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N52" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="O52" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="P52" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q52" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R52" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S52" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T52" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U52" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V52" t="n">
         <v>11</v>
       </c>
       <c r="W52" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X52" t="n">
         <v>11</v>
@@ -6802,7 +6802,7 @@
         <v>34</v>
       </c>
       <c r="Z52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA52" t="n">
         <v>13</v>
@@ -6876,10 +6876,10 @@
         <v>1.22</v>
       </c>
       <c r="J53" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L53" t="n">
         <v>1.22</v>
@@ -6888,10 +6888,10 @@
         <v>4</v>
       </c>
       <c r="N53" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O53" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P53" t="n">
         <v>1.33</v>
@@ -7599,76 +7599,76 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="H59" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I59" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J59" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K59" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L59" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M59" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N59" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O59" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="P59" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R59" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S59" t="n">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="T59" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U59" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V59" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W59" t="n">
         <v>13</v>
       </c>
       <c r="X59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y59" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z59" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA59" t="n">
         <v>7</v>
       </c>
       <c r="AB59" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC59" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD59" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AE59" t="n">
         <v>11</v>
@@ -7677,7 +7677,7 @@
         <v>23</v>
       </c>
       <c r="AG59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH59" t="n">
         <v>51</v>
@@ -7686,7 +7686,7 @@
         <v>41</v>
       </c>
       <c r="AJ59" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60">
@@ -7721,13 +7721,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H60" t="n">
         <v>3.3</v>
       </c>
       <c r="I60" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="J60" t="n">
         <v>1.07</v>
@@ -7736,16 +7736,16 @@
         <v>9</v>
       </c>
       <c r="L60" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M60" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N60" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O60" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="P60" t="n">
         <v>1.44</v>
@@ -7757,22 +7757,22 @@
         <v>1.8</v>
       </c>
       <c r="S60" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T60" t="n">
         <v>8.5</v>
       </c>
       <c r="U60" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W60" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X60" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y60" t="n">
         <v>34</v>
@@ -7793,22 +7793,22 @@
         <v>251</v>
       </c>
       <c r="AE60" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG60" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH60" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI60" t="n">
         <v>21</v>
       </c>
       <c r="AJ60" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
@@ -7843,49 +7843,49 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="H61" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="I61" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J61" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K61" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L61" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="M61" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="N61" t="n">
-        <v>1.68</v>
+        <v>1.98</v>
       </c>
       <c r="O61" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="P61" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="Q61" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="R61" t="n">
-        <v>2.37</v>
+        <v>2.63</v>
       </c>
       <c r="S61" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T61" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="U61" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V61" t="n">
         <v>9.5</v>
@@ -7894,26 +7894,26 @@
         <v>7</v>
       </c>
       <c r="X61" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y61" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z61" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA61" t="n">
         <v>11</v>
       </c>
       <c r="AB61" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC61" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD61" t="inlineStr"/>
       <c r="AE61" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AF61" t="n">
         <v>51</v>
@@ -7925,7 +7925,7 @@
         <v>151</v>
       </c>
       <c r="AI61" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AJ61" t="n">
         <v>81</v>
@@ -7963,13 +7963,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H62" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I62" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="J62" t="n">
         <v>1.05</v>
@@ -7984,10 +7984,10 @@
         <v>4</v>
       </c>
       <c r="N62" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="O62" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="P62" t="n">
         <v>1.36</v>
@@ -7996,16 +7996,16 @@
         <v>3</v>
       </c>
       <c r="R62" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S62" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T62" t="n">
         <v>7</v>
       </c>
       <c r="U62" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V62" t="n">
         <v>8.5</v>
@@ -8038,10 +8038,10 @@
         <v>15</v>
       </c>
       <c r="AF62" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG62" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH62" t="n">
         <v>67</v>
@@ -8050,7 +8050,7 @@
         <v>41</v>
       </c>
       <c r="AJ62" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63">
@@ -8085,31 +8085,31 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H63" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I63" t="n">
         <v>3.6</v>
       </c>
       <c r="J63" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L63" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M63" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N63" t="n">
-        <v>1.97</v>
+        <v>1.88</v>
       </c>
       <c r="O63" t="n">
-        <v>1.77</v>
+        <v>1.98</v>
       </c>
       <c r="P63" t="n">
         <v>1.4</v>
@@ -8118,13 +8118,13 @@
         <v>2.75</v>
       </c>
       <c r="R63" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S63" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T63" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U63" t="n">
         <v>10</v>
@@ -8142,25 +8142,25 @@
         <v>26</v>
       </c>
       <c r="Z63" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA63" t="n">
         <v>6.5</v>
       </c>
       <c r="AB63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC63" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD63" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF63" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG63" t="n">
         <v>12</v>
@@ -8207,13 +8207,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H64" t="n">
         <v>3.3</v>
       </c>
       <c r="I64" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J64" t="n">
         <v>1.08</v>
@@ -8240,10 +8240,10 @@
         <v>2.5</v>
       </c>
       <c r="R64" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S64" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T64" t="n">
         <v>7</v>
@@ -8267,10 +8267,10 @@
         <v>8.5</v>
       </c>
       <c r="AA64" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB64" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC64" t="n">
         <v>51</v>
@@ -8279,7 +8279,7 @@
         <v>351</v>
       </c>
       <c r="AE64" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF64" t="n">
         <v>15</v>
@@ -8329,79 +8329,79 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H65" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I65" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J65" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K65" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L65" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M65" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N65" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="O65" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="P65" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R65" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S65" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T65" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U65" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V65" t="n">
         <v>9.5</v>
       </c>
       <c r="W65" t="n">
+        <v>19</v>
+      </c>
+      <c r="X65" t="n">
         <v>21</v>
-      </c>
-      <c r="X65" t="n">
-        <v>19</v>
       </c>
       <c r="Y65" t="n">
         <v>34</v>
       </c>
       <c r="Z65" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA65" t="n">
         <v>6</v>
       </c>
       <c r="AB65" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC65" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD65" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AE65" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF65" t="n">
         <v>17</v>
@@ -8413,7 +8413,7 @@
         <v>41</v>
       </c>
       <c r="AI65" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ65" t="n">
         <v>41</v>
@@ -8454,7 +8454,7 @@
         <v>1.67</v>
       </c>
       <c r="H66" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I66" t="n">
         <v>5.25</v>
@@ -8466,16 +8466,16 @@
         <v>8</v>
       </c>
       <c r="L66" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M66" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N66" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="O66" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P66" t="n">
         <v>1.5</v>
@@ -8484,10 +8484,10 @@
         <v>2.5</v>
       </c>
       <c r="R66" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S66" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T66" t="n">
         <v>5.5</v>
@@ -8532,7 +8532,7 @@
         <v>17</v>
       </c>
       <c r="AH66" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI66" t="n">
         <v>51</v>
@@ -8817,7 +8817,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H69" t="n">
         <v>5.5</v>
@@ -8887,19 +8887,19 @@
       </c>
       <c r="AD69" t="inlineStr"/>
       <c r="AE69" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF69" t="n">
         <v>51</v>
       </c>
       <c r="AG69" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH69" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AI69" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AJ69" t="n">
         <v>101</v>
@@ -8937,10 +8937,10 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H70" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I70" t="n">
         <v>2.8</v>
@@ -8958,22 +8958,22 @@
         <v>4</v>
       </c>
       <c r="N70" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O70" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P70" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q70" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R70" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S70" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T70" t="n">
         <v>9.5</v>
@@ -8994,7 +8994,7 @@
         <v>23</v>
       </c>
       <c r="Z70" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA70" t="n">
         <v>7</v>
@@ -9024,7 +9024,7 @@
         <v>21</v>
       </c>
       <c r="AJ70" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
@@ -9059,31 +9059,31 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H71" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K71" t="n">
+        <v>11</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M71" t="n">
         <v>3.4</v>
       </c>
-      <c r="I71" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K71" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="L71" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M71" t="n">
-        <v>3.25</v>
-      </c>
       <c r="N71" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O71" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="P71" t="n">
         <v>1.44</v>
@@ -9098,10 +9098,10 @@
         <v>1.91</v>
       </c>
       <c r="T71" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U71" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V71" t="n">
         <v>13</v>
@@ -9110,7 +9110,7 @@
         <v>41</v>
       </c>
       <c r="X71" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y71" t="n">
         <v>41</v>
@@ -9119,10 +9119,10 @@
         <v>9.5</v>
       </c>
       <c r="AA71" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB71" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC71" t="n">
         <v>51</v>
@@ -9134,16 +9134,16 @@
         <v>7</v>
       </c>
       <c r="AF71" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AG71" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH71" t="n">
         <v>17</v>
       </c>
       <c r="AI71" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ71" t="n">
         <v>29</v>
@@ -9181,13 +9181,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H72" t="n">
         <v>3.3</v>
       </c>
       <c r="I72" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J72" t="n">
         <v>1.07</v>
@@ -9232,13 +9232,13 @@
         <v>26</v>
       </c>
       <c r="X72" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y72" t="n">
         <v>34</v>
       </c>
       <c r="Z72" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA72" t="n">
         <v>6.5</v>
@@ -9253,16 +9253,16 @@
         <v>351</v>
       </c>
       <c r="AE72" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF72" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG72" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH72" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI72" t="n">
         <v>23</v>
@@ -9303,19 +9303,19 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="H73" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I73" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="J73" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K73" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L73" t="n">
         <v>1.4</v>
@@ -9342,16 +9342,16 @@
         <v>1.7</v>
       </c>
       <c r="T73" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U73" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V73" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W73" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X73" t="n">
         <v>41</v>
@@ -9363,7 +9363,7 @@
         <v>8</v>
       </c>
       <c r="AA73" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB73" t="n">
         <v>19</v>
@@ -9378,13 +9378,13 @@
         <v>6</v>
       </c>
       <c r="AF73" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG73" t="n">
         <v>9</v>
       </c>
       <c r="AH73" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI73" t="n">
         <v>17</v>
@@ -9425,64 +9425,64 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H74" t="n">
         <v>3.5</v>
       </c>
       <c r="I74" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="J74" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K74" t="n">
+        <v>15</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T74" t="n">
         <v>13</v>
       </c>
-      <c r="L74" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M74" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N74" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="O74" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P74" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R74" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S74" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T74" t="n">
+      <c r="U74" t="n">
+        <v>17</v>
+      </c>
+      <c r="V74" t="n">
         <v>11</v>
       </c>
-      <c r="U74" t="n">
-        <v>15</v>
-      </c>
-      <c r="V74" t="n">
-        <v>10</v>
-      </c>
       <c r="W74" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X74" t="n">
         <v>21</v>
       </c>
       <c r="Y74" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z74" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA74" t="n">
         <v>7</v>
@@ -9491,28 +9491,28 @@
         <v>12</v>
       </c>
       <c r="AC74" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD74" t="n">
         <v>126</v>
       </c>
       <c r="AE74" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF74" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG74" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH74" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI74" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ74" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
@@ -9547,13 +9547,13 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H75" t="n">
         <v>4.2</v>
       </c>
       <c r="I75" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J75" t="n">
         <v>1.03</v>
@@ -9574,19 +9574,19 @@
         <v>2.15</v>
       </c>
       <c r="P75" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q75" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R75" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S75" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T75" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U75" t="n">
         <v>8.5</v>
@@ -9595,16 +9595,16 @@
         <v>8.5</v>
       </c>
       <c r="W75" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X75" t="n">
         <v>12</v>
       </c>
       <c r="Y75" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z75" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA75" t="n">
         <v>8</v>
@@ -9631,7 +9631,7 @@
         <v>51</v>
       </c>
       <c r="AI75" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ75" t="n">
         <v>41</v>
@@ -9669,19 +9669,19 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H76" t="n">
         <v>3.4</v>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J76" t="n">
         <v>1.06</v>
       </c>
       <c r="K76" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L76" t="n">
         <v>1.33</v>
@@ -9711,10 +9711,10 @@
         <v>7.5</v>
       </c>
       <c r="U76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V76" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W76" t="n">
         <v>21</v>
@@ -9791,7 +9791,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H77" t="n">
         <v>3.2</v>
@@ -9812,16 +9812,16 @@
         <v>2.5</v>
       </c>
       <c r="N77" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O77" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P77" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R77" t="n">
         <v>2.2</v>
@@ -9851,10 +9851,10 @@
         <v>6.5</v>
       </c>
       <c r="AA77" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB77" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC77" t="n">
         <v>81</v>
@@ -9863,10 +9863,10 @@
         <v>501</v>
       </c>
       <c r="AE77" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF77" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG77" t="n">
         <v>17</v>
@@ -10141,13 +10141,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="H80" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="I80" t="n">
-        <v>8.25</v>
+        <v>10.5</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -10162,22 +10162,22 @@
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S80" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="T80" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="U80" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="V80" t="n">
         <v>7.4</v>
       </c>
       <c r="W80" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="X80" t="n">
         <v>8.75</v>
@@ -10189,7 +10189,7 @@
         <v>15</v>
       </c>
       <c r="AA80" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AB80" t="n">
         <v>16.5</v>
@@ -10198,25 +10198,25 @@
         <v>60</v>
       </c>
       <c r="AD80" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AE80" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AF80" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AG80" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AH80" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI80" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AJ80" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81">
@@ -10373,19 +10373,19 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H82" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I82" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J82" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K82" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L82" t="n">
         <v>1.33</v>
@@ -10415,13 +10415,13 @@
         <v>6</v>
       </c>
       <c r="U82" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V82" t="n">
         <v>8.5</v>
       </c>
       <c r="W82" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X82" t="n">
         <v>15</v>
@@ -10430,7 +10430,7 @@
         <v>29</v>
       </c>
       <c r="Z82" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA82" t="n">
         <v>7</v>
@@ -10448,7 +10448,7 @@
         <v>12</v>
       </c>
       <c r="AF82" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG82" t="n">
         <v>17</v>
@@ -10861,19 +10861,19 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H86" t="n">
         <v>3.6</v>
       </c>
       <c r="I86" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
         <v>1.03</v>
       </c>
       <c r="K86" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L86" t="n">
         <v>1.17</v>
@@ -10888,10 +10888,10 @@
         <v>2.35</v>
       </c>
       <c r="P86" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q86" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R86" t="n">
         <v>1.5</v>
@@ -10918,10 +10918,10 @@
         <v>21</v>
       </c>
       <c r="Z86" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA86" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB86" t="n">
         <v>11</v>
@@ -11593,13 +11593,13 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H92" t="n">
         <v>4.5</v>
       </c>
       <c r="I92" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J92" t="n">
         <v>1.03</v>
@@ -11626,22 +11626,22 @@
         <v>3.5</v>
       </c>
       <c r="R92" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S92" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T92" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U92" t="n">
         <v>8</v>
       </c>
       <c r="V92" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W92" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X92" t="n">
         <v>11</v>
@@ -11656,7 +11656,7 @@
         <v>9</v>
       </c>
       <c r="AB92" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC92" t="n">
         <v>41</v>
@@ -11668,10 +11668,10 @@
         <v>21</v>
       </c>
       <c r="AF92" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG92" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH92" t="n">
         <v>67</v>
@@ -11715,13 +11715,13 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H93" t="n">
         <v>2.9</v>
       </c>
       <c r="I93" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J93" t="n">
         <v>1.08</v>
@@ -11754,7 +11754,7 @@
         <v>1.91</v>
       </c>
       <c r="T93" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U93" t="n">
         <v>11</v>
@@ -11852,16 +11852,16 @@
         <v>6.5</v>
       </c>
       <c r="L94" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M94" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N94" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O94" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P94" t="n">
         <v>1.62</v>
@@ -11959,55 +11959,55 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H95" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I95" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J95" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K95" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L95" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M95" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N95" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="O95" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="P95" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q95" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R95" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S95" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T95" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="U95" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V95" t="n">
         <v>9</v>
       </c>
       <c r="W95" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X95" t="n">
         <v>17</v>
@@ -12016,19 +12016,19 @@
         <v>26</v>
       </c>
       <c r="Z95" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA95" t="n">
         <v>6.5</v>
       </c>
       <c r="AB95" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC95" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD95" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE95" t="n">
         <v>10</v>
@@ -12037,16 +12037,16 @@
         <v>17</v>
       </c>
       <c r="AG95" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH95" t="n">
         <v>34</v>
       </c>
       <c r="AI95" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ95" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96">
@@ -12081,7 +12081,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H96" t="n">
         <v>3</v>
@@ -12090,22 +12090,22 @@
         <v>2.3</v>
       </c>
       <c r="J96" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K96" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L96" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M96" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N96" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O96" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P96" t="n">
         <v>1.57</v>
@@ -12114,10 +12114,10 @@
         <v>2.25</v>
       </c>
       <c r="R96" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S96" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T96" t="n">
         <v>8</v>
@@ -12144,7 +12144,7 @@
         <v>6</v>
       </c>
       <c r="AB96" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC96" t="n">
         <v>67</v>
@@ -12156,7 +12156,7 @@
         <v>6</v>
       </c>
       <c r="AF96" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG96" t="n">
         <v>10</v>
@@ -12165,7 +12165,7 @@
         <v>21</v>
       </c>
       <c r="AI96" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ96" t="n">
         <v>41</v>
@@ -12203,7 +12203,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H97" t="n">
         <v>4.2</v>
@@ -12215,34 +12215,34 @@
         <v>1.03</v>
       </c>
       <c r="K97" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L97" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="M97" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N97" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="O97" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="P97" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q97" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R97" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S97" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T97" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U97" t="n">
         <v>29</v>
@@ -12257,10 +12257,10 @@
         <v>41</v>
       </c>
       <c r="Y97" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z97" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA97" t="n">
         <v>8.5</v>
@@ -12275,10 +12275,10 @@
         <v>151</v>
       </c>
       <c r="AE97" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF97" t="n">
         <v>9</v>
-      </c>
-      <c r="AF97" t="n">
-        <v>8.5</v>
       </c>
       <c r="AG97" t="n">
         <v>8.5</v>
@@ -12287,7 +12287,7 @@
         <v>12</v>
       </c>
       <c r="AI97" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ97" t="n">
         <v>21</v>
@@ -12325,31 +12325,31 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H98" t="n">
         <v>3</v>
       </c>
       <c r="I98" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="J98" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K98" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L98" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M98" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N98" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O98" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P98" t="n">
         <v>1.5</v>
@@ -12358,10 +12358,10 @@
         <v>2.5</v>
       </c>
       <c r="R98" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S98" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T98" t="n">
         <v>8.5</v>
@@ -12370,13 +12370,13 @@
         <v>15</v>
       </c>
       <c r="V98" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W98" t="n">
+        <v>34</v>
+      </c>
+      <c r="X98" t="n">
         <v>29</v>
-      </c>
-      <c r="X98" t="n">
-        <v>26</v>
       </c>
       <c r="Y98" t="n">
         <v>41</v>
@@ -12388,7 +12388,7 @@
         <v>6</v>
       </c>
       <c r="AB98" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC98" t="n">
         <v>51</v>
@@ -12397,16 +12397,16 @@
         <v>351</v>
       </c>
       <c r="AE98" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF98" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG98" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH98" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI98" t="n">
         <v>21</v>
@@ -12447,55 +12447,55 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H99" t="n">
         <v>2.9</v>
       </c>
       <c r="I99" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J99" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K99" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L99" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M99" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N99" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="O99" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P99" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R99" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S99" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="T99" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U99" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V99" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W99" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X99" t="n">
         <v>21</v>
@@ -12504,13 +12504,13 @@
         <v>34</v>
       </c>
       <c r="Z99" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA99" t="n">
         <v>6</v>
       </c>
       <c r="AB99" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC99" t="n">
         <v>51</v>
@@ -12525,7 +12525,7 @@
         <v>15</v>
       </c>
       <c r="AG99" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH99" t="n">
         <v>34</v>
@@ -12569,49 +12569,49 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H100" t="n">
         <v>3</v>
       </c>
       <c r="I100" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J100" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K100" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L100" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M100" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N100" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O100" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="P100" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R100" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S100" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T100" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="U100" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V100" t="n">
         <v>9.5</v>
@@ -12626,13 +12626,13 @@
         <v>34</v>
       </c>
       <c r="Z100" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA100" t="n">
         <v>6</v>
       </c>
       <c r="AB100" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC100" t="n">
         <v>51</v>
@@ -12641,7 +12641,7 @@
         <v>301</v>
       </c>
       <c r="AE100" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF100" t="n">
         <v>15</v>
@@ -12691,13 +12691,13 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H101" t="n">
         <v>3.2</v>
       </c>
       <c r="I101" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J101" t="n">
         <v>1.07</v>
@@ -12712,10 +12712,10 @@
         <v>3</v>
       </c>
       <c r="N101" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O101" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P101" t="n">
         <v>1.44</v>
@@ -12730,7 +12730,7 @@
         <v>1.83</v>
       </c>
       <c r="T101" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U101" t="n">
         <v>12</v>
@@ -12739,7 +12739,7 @@
         <v>10</v>
       </c>
       <c r="W101" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X101" t="n">
         <v>21</v>
@@ -12763,7 +12763,7 @@
         <v>301</v>
       </c>
       <c r="AE101" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF101" t="n">
         <v>13</v>
@@ -12834,13 +12834,13 @@
         <v>3</v>
       </c>
       <c r="N102" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O102" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P102" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q102" t="n">
         <v>2.5</v>
@@ -12947,7 +12947,7 @@
         <v>1.07</v>
       </c>
       <c r="K103" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L103" t="n">
         <v>1.33</v>
@@ -12962,10 +12962,10 @@
         <v>1.73</v>
       </c>
       <c r="P103" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R103" t="n">
         <v>1.8</v>
@@ -12974,7 +12974,7 @@
         <v>1.95</v>
       </c>
       <c r="T103" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U103" t="n">
         <v>11</v>
@@ -13007,13 +13007,13 @@
         <v>251</v>
       </c>
       <c r="AE103" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF103" t="n">
         <v>15</v>
       </c>
       <c r="AG103" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH103" t="n">
         <v>34</v>
@@ -13084,10 +13084,10 @@
         <v>1.73</v>
       </c>
       <c r="P104" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R104" t="n">
         <v>1.91</v>
@@ -13188,10 +13188,10 @@
         <v>4.75</v>
       </c>
       <c r="J105" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K105" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L105" t="n">
         <v>1.36</v>
@@ -13206,10 +13206,10 @@
         <v>1.67</v>
       </c>
       <c r="P105" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R105" t="n">
         <v>1.95</v>
@@ -13239,7 +13239,7 @@
         <v>8</v>
       </c>
       <c r="AA105" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB105" t="n">
         <v>17</v>
@@ -13251,13 +13251,13 @@
         <v>351</v>
       </c>
       <c r="AE105" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF105" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG105" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH105" t="n">
         <v>51</v>
@@ -13301,19 +13301,19 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H106" t="n">
         <v>4.75</v>
       </c>
       <c r="I106" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J106" t="n">
         <v>1.04</v>
       </c>
       <c r="K106" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L106" t="n">
         <v>1.22</v>
@@ -13322,10 +13322,10 @@
         <v>4</v>
       </c>
       <c r="N106" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O106" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P106" t="n">
         <v>1.33</v>
@@ -13334,16 +13334,16 @@
         <v>3.25</v>
       </c>
       <c r="R106" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S106" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T106" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U106" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V106" t="n">
         <v>8.5</v>
@@ -13358,7 +13358,7 @@
         <v>29</v>
       </c>
       <c r="Z106" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA106" t="n">
         <v>9</v>
@@ -13370,7 +13370,7 @@
         <v>67</v>
       </c>
       <c r="AD106" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE106" t="n">
         <v>21</v>
@@ -13388,7 +13388,7 @@
         <v>67</v>
       </c>
       <c r="AJ106" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107">
@@ -13423,19 +13423,19 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H107" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I107" t="n">
         <v>4.5</v>
       </c>
       <c r="J107" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K107" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L107" t="n">
         <v>1.33</v>
@@ -13456,22 +13456,22 @@
         <v>2.63</v>
       </c>
       <c r="R107" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S107" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T107" t="n">
         <v>6.5</v>
       </c>
       <c r="U107" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V107" t="n">
         <v>8.5</v>
       </c>
       <c r="W107" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X107" t="n">
         <v>15</v>
@@ -13498,7 +13498,7 @@
         <v>11</v>
       </c>
       <c r="AF107" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG107" t="n">
         <v>15</v>
@@ -14883,18 +14883,18 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="H119" t="n">
-        <v>4.15</v>
+        <v>3.85</v>
       </c>
       <c r="I119" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M119" t="n">
         <v>3.6</v>
@@ -14912,52 +14912,52 @@
         <v>2.5</v>
       </c>
       <c r="R119" t="n">
-        <v>2.01</v>
+        <v>1.97</v>
       </c>
       <c r="S119" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T119" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="U119" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="V119" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="W119" t="n">
-        <v>7.3</v>
+        <v>8.25</v>
       </c>
       <c r="X119" t="n">
         <v>9.75</v>
       </c>
       <c r="Y119" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z119" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AA119" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="AB119" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC119" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AD119" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AE119" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF119" t="n">
         <v>35</v>
       </c>
       <c r="AG119" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH119" t="n">
         <v>120</v>
@@ -14966,7 +14966,7 @@
         <v>65</v>
       </c>
       <c r="AJ119" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120">
@@ -15123,13 +15123,13 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H121" t="n">
         <v>3.4</v>
       </c>
       <c r="I121" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J121" t="n">
         <v>1.06</v>
@@ -15150,28 +15150,28 @@
         <v>1.7</v>
       </c>
       <c r="P121" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q121" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R121" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S121" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T121" t="n">
         <v>6.5</v>
       </c>
       <c r="U121" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V121" t="n">
         <v>9</v>
       </c>
       <c r="W121" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X121" t="n">
         <v>17</v>
@@ -15180,28 +15180,28 @@
         <v>29</v>
       </c>
       <c r="Z121" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA121" t="n">
         <v>6.5</v>
       </c>
       <c r="AB121" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC121" t="n">
         <v>51</v>
       </c>
       <c r="AD121" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE121" t="n">
         <v>10</v>
       </c>
       <c r="AF121" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG121" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH121" t="n">
         <v>41</v>
@@ -15272,7 +15272,7 @@
         <v>2.4</v>
       </c>
       <c r="P122" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q122" t="n">
         <v>3.5</v>
@@ -15382,19 +15382,19 @@
         <v>11</v>
       </c>
       <c r="L123" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M123" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N123" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O123" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P123" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q123" t="n">
         <v>2.75</v>
@@ -16071,13 +16071,13 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="H129" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I129" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J129" t="n">
         <v>1.03</v>
@@ -16086,22 +16086,22 @@
         <v>15</v>
       </c>
       <c r="L129" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M129" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N129" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O129" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="P129" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q129" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R129" t="n">
         <v>1.62</v>
@@ -16119,7 +16119,7 @@
         <v>8.5</v>
       </c>
       <c r="W129" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X129" t="n">
         <v>12</v>
@@ -16134,7 +16134,7 @@
         <v>8</v>
       </c>
       <c r="AB129" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC129" t="n">
         <v>41</v>
@@ -16146,16 +16146,16 @@
         <v>17</v>
       </c>
       <c r="AF129" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG129" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH129" t="n">
         <v>51</v>
       </c>
       <c r="AI129" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ129" t="n">
         <v>34</v>
@@ -16208,10 +16208,10 @@
         <v>13</v>
       </c>
       <c r="L130" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M130" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N130" t="n">
         <v>1.7</v>
@@ -16324,34 +16324,34 @@
         <v>2.15</v>
       </c>
       <c r="J131" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K131" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L131" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M131" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N131" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="O131" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="P131" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q131" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R131" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S131" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T131" t="n">
         <v>10</v>
@@ -16363,46 +16363,46 @@
         <v>12</v>
       </c>
       <c r="W131" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X131" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y131" t="n">
         <v>34</v>
       </c>
       <c r="Z131" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF131" t="n">
         <v>10</v>
-      </c>
-      <c r="AA131" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB131" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC131" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD131" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE131" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF131" t="n">
-        <v>11</v>
       </c>
       <c r="AG131" t="n">
         <v>9</v>
       </c>
       <c r="AH131" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI131" t="n">
         <v>17</v>
       </c>
       <c r="AJ131" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132">
@@ -16446,10 +16446,10 @@
         <v>2.9</v>
       </c>
       <c r="J132" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K132" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L132" t="n">
         <v>1.44</v>
@@ -16458,10 +16458,10 @@
         <v>2.63</v>
       </c>
       <c r="N132" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O132" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P132" t="n">
         <v>1.53</v>
@@ -16702,25 +16702,25 @@
         <v>3.5</v>
       </c>
       <c r="N134" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O134" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="P134" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q134" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R134" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S134" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T134" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U134" t="n">
         <v>8</v>
@@ -16732,7 +16732,7 @@
         <v>13</v>
       </c>
       <c r="X134" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y134" t="n">
         <v>26</v>
@@ -16803,7 +16803,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="H135" t="n">
         <v>6.25</v>
@@ -16815,7 +16815,7 @@
         <v>1.02</v>
       </c>
       <c r="K135" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L135" t="n">
         <v>1.11</v>
@@ -16824,28 +16824,28 @@
         <v>6.5</v>
       </c>
       <c r="N135" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="O135" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="P135" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="Q135" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="R135" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S135" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T135" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U135" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V135" t="n">
         <v>10</v>
@@ -16860,7 +16860,7 @@
         <v>26</v>
       </c>
       <c r="Z135" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA135" t="n">
         <v>13</v>
@@ -16869,10 +16869,10 @@
         <v>23</v>
       </c>
       <c r="AC135" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD135" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE135" t="n">
         <v>34</v>
@@ -16925,19 +16925,19 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="H136" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I136" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J136" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K136" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L136" t="n">
         <v>1.22</v>
@@ -16946,10 +16946,10 @@
         <v>4</v>
       </c>
       <c r="N136" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O136" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P136" t="n">
         <v>1.33</v>
@@ -16958,10 +16958,10 @@
         <v>3.25</v>
       </c>
       <c r="R136" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S136" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T136" t="n">
         <v>7</v>
@@ -16973,7 +16973,7 @@
         <v>8.5</v>
       </c>
       <c r="W136" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X136" t="n">
         <v>12</v>
@@ -16982,31 +16982,31 @@
         <v>26</v>
       </c>
       <c r="Z136" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA136" t="n">
         <v>8</v>
       </c>
       <c r="AB136" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC136" t="n">
         <v>51</v>
       </c>
       <c r="AD136" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE136" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF136" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG136" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH136" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI136" t="n">
         <v>51</v>
@@ -17172,7 +17172,7 @@
         <v>3.1</v>
       </c>
       <c r="H138" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I138" t="n">
         <v>2.25</v>
@@ -17184,16 +17184,16 @@
         <v>13</v>
       </c>
       <c r="L138" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M138" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N138" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O138" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P138" t="n">
         <v>1.33</v>
@@ -17214,7 +17214,7 @@
         <v>17</v>
       </c>
       <c r="V138" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W138" t="n">
         <v>34</v>
@@ -17241,7 +17241,7 @@
         <v>126</v>
       </c>
       <c r="AE138" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF138" t="n">
         <v>12</v>
@@ -17291,13 +17291,13 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H139" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I139" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J139" t="n">
         <v>1.04</v>
@@ -17306,31 +17306,31 @@
         <v>13</v>
       </c>
       <c r="L139" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M139" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N139" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O139" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P139" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q139" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R139" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S139" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T139" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U139" t="n">
         <v>19</v>
@@ -17342,16 +17342,16 @@
         <v>34</v>
       </c>
       <c r="X139" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y139" t="n">
         <v>29</v>
       </c>
       <c r="Z139" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA139" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB139" t="n">
         <v>12</v>
@@ -17360,10 +17360,10 @@
         <v>41</v>
       </c>
       <c r="AD139" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE139" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF139" t="n">
         <v>11</v>
@@ -17378,7 +17378,7 @@
         <v>15</v>
       </c>
       <c r="AJ139" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140">
@@ -17535,13 +17535,13 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H141" t="n">
         <v>3.5</v>
       </c>
       <c r="I141" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J141" t="n">
         <v>1.05</v>
@@ -17556,10 +17556,10 @@
         <v>3.5</v>
       </c>
       <c r="N141" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O141" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P141" t="n">
         <v>1.4</v>
@@ -17592,7 +17592,7 @@
         <v>26</v>
       </c>
       <c r="Z141" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA141" t="n">
         <v>7</v>
@@ -17619,7 +17619,7 @@
         <v>51</v>
       </c>
       <c r="AI141" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ141" t="n">
         <v>41</v>
@@ -17779,55 +17779,55 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H143" t="n">
         <v>3.4</v>
       </c>
       <c r="I143" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="J143" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K143" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L143" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M143" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N143" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O143" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="P143" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q143" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R143" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S143" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T143" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U143" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V143" t="n">
         <v>9</v>
       </c>
       <c r="W143" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X143" t="n">
         <v>17</v>
@@ -17836,34 +17836,34 @@
         <v>29</v>
       </c>
       <c r="Z143" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA143" t="n">
         <v>6.5</v>
       </c>
       <c r="AB143" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC143" t="n">
         <v>51</v>
       </c>
       <c r="AD143" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AE143" t="n">
         <v>11</v>
       </c>
       <c r="AF143" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG143" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH143" t="n">
         <v>41</v>
       </c>
       <c r="AI143" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ143" t="n">
         <v>41</v>
@@ -17904,10 +17904,10 @@
         <v>10</v>
       </c>
       <c r="H144" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I144" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="J144" t="n">
         <v>1.04</v>
@@ -17916,22 +17916,22 @@
         <v>13</v>
       </c>
       <c r="L144" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M144" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N144" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O144" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P144" t="n">
         <v>1.33</v>
       </c>
       <c r="Q144" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R144" t="n">
         <v>2.2</v>
@@ -17940,19 +17940,19 @@
         <v>1.62</v>
       </c>
       <c r="T144" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U144" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="V144" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="W144" t="n">
         <v>126</v>
       </c>
       <c r="X144" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="Y144" t="n">
         <v>67</v>
@@ -17973,7 +17973,7 @@
         <v>501</v>
       </c>
       <c r="AE144" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF144" t="n">
         <v>6</v>
@@ -17988,7 +17988,7 @@
         <v>12</v>
       </c>
       <c r="AJ144" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145">
@@ -18044,13 +18044,13 @@
         <v>3.75</v>
       </c>
       <c r="N145" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O145" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P145" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q145" t="n">
         <v>3</v>
@@ -18389,13 +18389,13 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="H148" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I148" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="J148" t="n">
         <v>1.04</v>
@@ -18404,16 +18404,16 @@
         <v>13</v>
       </c>
       <c r="L148" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M148" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N148" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O148" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="P148" t="n">
         <v>1.33</v>
@@ -18422,22 +18422,22 @@
         <v>3.25</v>
       </c>
       <c r="R148" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S148" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T148" t="n">
         <v>7.5</v>
       </c>
       <c r="U148" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V148" t="n">
         <v>8.5</v>
       </c>
       <c r="W148" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X148" t="n">
         <v>12</v>
@@ -18449,10 +18449,10 @@
         <v>13</v>
       </c>
       <c r="AA148" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB148" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC148" t="n">
         <v>51</v>
@@ -18461,22 +18461,22 @@
         <v>301</v>
       </c>
       <c r="AE148" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF148" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG148" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH148" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI148" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ148" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="149">
@@ -18633,13 +18633,13 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H150" t="n">
         <v>3.3</v>
       </c>
       <c r="I150" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J150" t="n">
         <v>1.06</v>
@@ -18648,10 +18648,10 @@
         <v>10</v>
       </c>
       <c r="L150" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M150" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N150" t="n">
         <v>2.1</v>
@@ -18681,7 +18681,7 @@
         <v>10</v>
       </c>
       <c r="W150" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X150" t="n">
         <v>21</v>
@@ -18708,7 +18708,7 @@
         <v>8</v>
       </c>
       <c r="AF150" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG150" t="n">
         <v>10</v>
@@ -18755,13 +18755,13 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H151" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I151" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J151" t="n">
         <v>1.05</v>
@@ -18776,10 +18776,10 @@
         <v>3.75</v>
       </c>
       <c r="N151" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O151" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P151" t="n">
         <v>1.4</v>
@@ -18812,7 +18812,7 @@
         <v>26</v>
       </c>
       <c r="Z151" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA151" t="n">
         <v>7</v>
@@ -18824,7 +18824,7 @@
         <v>51</v>
       </c>
       <c r="AD151" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE151" t="n">
         <v>13</v>
@@ -18833,7 +18833,7 @@
         <v>26</v>
       </c>
       <c r="AG151" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH151" t="n">
         <v>51</v>
@@ -18877,13 +18877,13 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H152" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I152" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J152" t="n">
         <v>1.02</v>
@@ -18892,10 +18892,10 @@
         <v>21</v>
       </c>
       <c r="L152" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M152" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N152" t="n">
         <v>1.4</v>
@@ -18922,7 +18922,7 @@
         <v>7.5</v>
       </c>
       <c r="V152" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W152" t="n">
         <v>8</v>
@@ -18931,16 +18931,16 @@
         <v>10</v>
       </c>
       <c r="Y152" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z152" t="n">
         <v>21</v>
       </c>
       <c r="AA152" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB152" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC152" t="n">
         <v>51</v>
@@ -18955,7 +18955,7 @@
         <v>51</v>
       </c>
       <c r="AG152" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH152" t="n">
         <v>126</v>
@@ -19014,10 +19014,10 @@
         <v>9</v>
       </c>
       <c r="L153" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M153" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N153" t="n">
         <v>2.1</v>
@@ -19053,7 +19053,7 @@
         <v>15</v>
       </c>
       <c r="Y153" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z153" t="n">
         <v>9</v>
@@ -19062,13 +19062,13 @@
         <v>7.5</v>
       </c>
       <c r="AB153" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC153" t="n">
         <v>67</v>
       </c>
       <c r="AD153" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE153" t="n">
         <v>12</v>
@@ -19121,13 +19121,13 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H154" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I154" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J154" t="n">
         <v>1.07</v>
@@ -19163,7 +19163,7 @@
         <v>7</v>
       </c>
       <c r="U154" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V154" t="n">
         <v>9.5</v>
@@ -19172,7 +19172,7 @@
         <v>21</v>
       </c>
       <c r="X154" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y154" t="n">
         <v>34</v>
@@ -19193,22 +19193,22 @@
         <v>301</v>
       </c>
       <c r="AE154" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF154" t="n">
         <v>15</v>
       </c>
       <c r="AG154" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH154" t="n">
         <v>34</v>
       </c>
       <c r="AI154" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ154" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="155">
@@ -19243,13 +19243,13 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="H155" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I155" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="J155" t="n">
         <v>1.02</v>
@@ -19264,10 +19264,10 @@
         <v>5.5</v>
       </c>
       <c r="N155" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O155" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="P155" t="n">
         <v>1.25</v>
@@ -19276,22 +19276,22 @@
         <v>3.75</v>
       </c>
       <c r="R155" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S155" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T155" t="n">
         <v>19</v>
       </c>
       <c r="U155" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="V155" t="n">
         <v>19</v>
       </c>
       <c r="W155" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="X155" t="n">
         <v>41</v>
@@ -19306,31 +19306,31 @@
         <v>11</v>
       </c>
       <c r="AB155" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC155" t="n">
         <v>51</v>
       </c>
       <c r="AD155" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE155" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF155" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG155" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH155" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI155" t="n">
         <v>11</v>
       </c>
       <c r="AJ155" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="156">
@@ -19365,13 +19365,13 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="H156" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I156" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J156" t="n">
         <v>1.07</v>
@@ -19386,16 +19386,16 @@
         <v>3</v>
       </c>
       <c r="N156" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O156" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P156" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q156" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R156" t="n">
         <v>2</v>
@@ -19407,13 +19407,13 @@
         <v>6</v>
       </c>
       <c r="U156" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V156" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W156" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X156" t="n">
         <v>17</v>
@@ -19422,7 +19422,7 @@
         <v>34</v>
       </c>
       <c r="Z156" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA156" t="n">
         <v>6.5</v>
@@ -19434,19 +19434,19 @@
         <v>51</v>
       </c>
       <c r="AD156" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE156" t="n">
         <v>11</v>
       </c>
       <c r="AF156" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG156" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH156" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI156" t="n">
         <v>41</v>
@@ -19487,43 +19487,43 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="H157" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I157" t="n">
         <v>2.9</v>
       </c>
       <c r="J157" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K157" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L157" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M157" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N157" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O157" t="n">
         <v>1.44</v>
       </c>
-      <c r="M157" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="N157" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O157" t="n">
-        <v>1.5</v>
-      </c>
       <c r="P157" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q157" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R157" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S157" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T157" t="n">
         <v>7</v>
@@ -19532,37 +19532,37 @@
         <v>12</v>
       </c>
       <c r="V157" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W157" t="n">
         <v>26</v>
       </c>
       <c r="X157" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y157" t="n">
         <v>41</v>
       </c>
       <c r="Z157" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA157" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB157" t="n">
         <v>17</v>
       </c>
       <c r="AC157" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD157" t="n">
         <v>1000</v>
       </c>
       <c r="AE157" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF157" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG157" t="n">
         <v>12</v>
@@ -19571,7 +19571,7 @@
         <v>29</v>
       </c>
       <c r="AI157" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ157" t="n">
         <v>41</v>
@@ -19609,13 +19609,13 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H158" t="n">
         <v>2.9</v>
       </c>
       <c r="I158" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J158" t="n">
         <v>1.11</v>
@@ -19648,10 +19648,10 @@
         <v>1.67</v>
       </c>
       <c r="T158" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U158" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V158" t="n">
         <v>12</v>
@@ -19672,7 +19672,7 @@
         <v>6</v>
       </c>
       <c r="AB158" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC158" t="n">
         <v>67</v>
@@ -19681,16 +19681,16 @@
         <v>1250</v>
       </c>
       <c r="AE158" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF158" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG158" t="n">
         <v>11</v>
       </c>
       <c r="AH158" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI158" t="n">
         <v>26</v>
@@ -19731,94 +19731,94 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H159" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I159" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J159" t="n">
         <v>1.06</v>
       </c>
       <c r="K159" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="L159" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M159" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="N159" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="O159" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P159" t="n">
         <v>1.39</v>
       </c>
       <c r="Q159" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="R159" t="n">
         <v>1.7</v>
       </c>
       <c r="S159" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T159" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="U159" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="V159" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="W159" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="X159" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y159" t="n">
         <v>21</v>
       </c>
       <c r="Z159" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AA159" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AB159" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC159" t="n">
         <v>55</v>
       </c>
       <c r="AD159" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE159" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF159" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG159" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH159" t="n">
         <v>150</v>
       </c>
       <c r="AI159" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ159" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="160">
@@ -19853,94 +19853,94 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="H160" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I160" t="n">
-        <v>3.35</v>
+        <v>2.85</v>
       </c>
       <c r="J160" t="n">
         <v>1.04</v>
       </c>
       <c r="K160" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="L160" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M160" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="N160" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O160" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="P160" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="Q160" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="R160" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S160" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="T160" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U160" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V160" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W160" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="X160" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="Y160" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z160" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AA160" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AB160" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC160" t="n">
         <v>45</v>
       </c>
       <c r="AD160" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AE160" t="n">
         <v>12</v>
       </c>
       <c r="AF160" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AG160" t="n">
-        <v>11.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH160" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AI160" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AJ160" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="161">
@@ -19975,10 +19975,10 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="H161" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I161" t="n">
         <v>1.42</v>
@@ -19987,40 +19987,40 @@
         <v>1.04</v>
       </c>
       <c r="K161" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="L161" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="M161" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="N161" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="O161" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="P161" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="Q161" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="R161" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="S161" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T161" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="U161" t="n">
         <v>45</v>
       </c>
       <c r="V161" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W161" t="n">
         <v>150</v>
@@ -20032,25 +20032,25 @@
         <v>60</v>
       </c>
       <c r="Z161" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA161" t="n">
         <v>8.5</v>
       </c>
       <c r="AB161" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC161" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD161" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE161" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="AF161" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AG161" t="n">
         <v>8</v>
@@ -20059,10 +20059,10 @@
         <v>9.75</v>
       </c>
       <c r="AI161" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AJ161" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="162">
@@ -20341,67 +20341,67 @@
         </is>
       </c>
       <c r="G164" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H164" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I164" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K164" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M164" t="n">
+        <v>3</v>
+      </c>
+      <c r="N164" t="n">
         <v>2.02</v>
       </c>
-      <c r="H164" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I164" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J164" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K164" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L164" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M164" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="N164" t="n">
-        <v>2.05</v>
-      </c>
       <c r="O164" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P164" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q164" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="R164" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S164" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="T164" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="U164" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="V164" t="n">
         <v>8.5</v>
       </c>
       <c r="W164" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="X164" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y164" t="n">
         <v>29</v>
       </c>
       <c r="Z164" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AA164" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AB164" t="n">
         <v>15</v>
@@ -20413,19 +20413,19 @@
         <v>600</v>
       </c>
       <c r="AE164" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AF164" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AG164" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH164" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AI164" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ164" t="n">
         <v>45</v>
@@ -21576,16 +21576,16 @@
         <v>7</v>
       </c>
       <c r="L174" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M174" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N174" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O174" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P174" t="n">
         <v>1.57</v>
@@ -21683,13 +21683,13 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H175" t="n">
         <v>3.8</v>
       </c>
       <c r="I175" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J175" t="n">
         <v>1.05</v>
@@ -21704,25 +21704,25 @@
         <v>3.5</v>
       </c>
       <c r="N175" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O175" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P175" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q175" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R175" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S175" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T175" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U175" t="n">
         <v>23</v>
@@ -21734,31 +21734,31 @@
         <v>51</v>
       </c>
       <c r="X175" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y175" t="n">
         <v>41</v>
       </c>
       <c r="Z175" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA175" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB175" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC175" t="n">
         <v>51</v>
       </c>
       <c r="AD175" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE175" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF175" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG175" t="n">
         <v>8.5</v>
@@ -21826,10 +21826,10 @@
         <v>3.5</v>
       </c>
       <c r="N176" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O176" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="P176" t="n">
         <v>1.4</v>
@@ -21877,7 +21877,7 @@
         <v>251</v>
       </c>
       <c r="AE176" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF176" t="n">
         <v>21</v>
@@ -21927,13 +21927,13 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H177" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I177" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J177" t="n">
         <v>1.04</v>
@@ -21966,16 +21966,16 @@
         <v>2.2</v>
       </c>
       <c r="T177" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U177" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V177" t="n">
         <v>9</v>
       </c>
       <c r="W177" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X177" t="n">
         <v>15</v>
@@ -22002,7 +22002,7 @@
         <v>13</v>
       </c>
       <c r="AF177" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG177" t="n">
         <v>13</v>
@@ -22011,10 +22011,10 @@
         <v>41</v>
       </c>
       <c r="AI177" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ177" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="178">
@@ -22171,49 +22171,49 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H179" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I179" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J179" t="n">
         <v>1.03</v>
       </c>
       <c r="K179" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L179" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="M179" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N179" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="O179" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="P179" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="Q179" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="R179" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="S179" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T179" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U179" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V179" t="n">
         <v>8.5</v>
@@ -22225,25 +22225,25 @@
         <v>12</v>
       </c>
       <c r="Y179" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z179" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA179" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB179" t="n">
         <v>15</v>
       </c>
       <c r="AC179" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD179" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE179" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF179" t="n">
         <v>29</v>
@@ -22903,31 +22903,31 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="H185" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I185" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J185" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K185" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L185" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="M185" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N185" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="O185" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="P185" t="n">
         <v>1.22</v>
@@ -22951,22 +22951,22 @@
         <v>9</v>
       </c>
       <c r="W185" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X185" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y185" t="n">
         <v>17</v>
       </c>
       <c r="Z185" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA185" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB185" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC185" t="n">
         <v>34</v>
@@ -22984,13 +22984,13 @@
         <v>15</v>
       </c>
       <c r="AH185" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI185" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ185" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="186">
@@ -23513,7 +23513,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H190" t="n">
         <v>3.5</v>
@@ -23591,7 +23591,7 @@
         <v>13</v>
       </c>
       <c r="AG190" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH190" t="n">
         <v>21</v>
@@ -23875,33 +23875,33 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>7.4</v>
+        <v>6.7</v>
       </c>
       <c r="H193" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I193" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M193" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="N193" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="O193" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="P193" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q193" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="R193" t="n">
         <v>2.27</v>
@@ -23910,31 +23910,31 @@
         <v>1.5</v>
       </c>
       <c r="T193" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="U193" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="V193" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="W193" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="X193" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="Y193" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="Z193" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AA193" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AB193" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC193" t="n">
         <v>175</v>
@@ -23943,22 +23943,22 @@
         <v>101</v>
       </c>
       <c r="AE193" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AF193" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AG193" t="n">
         <v>8.75</v>
       </c>
       <c r="AH193" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI193" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ193" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="194">
@@ -23993,13 +23993,13 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H194" t="n">
         <v>3.25</v>
       </c>
       <c r="I194" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J194" t="n">
         <v>1.08</v>
@@ -24237,31 +24237,31 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H196" t="n">
         <v>3.4</v>
       </c>
       <c r="I196" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="J196" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K196" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L196" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M196" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N196" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O196" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P196" t="n">
         <v>1.4</v>
@@ -24270,28 +24270,28 @@
         <v>2.75</v>
       </c>
       <c r="R196" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S196" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T196" t="n">
         <v>9</v>
       </c>
       <c r="U196" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V196" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W196" t="n">
         <v>29</v>
       </c>
       <c r="X196" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y196" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z196" t="n">
         <v>10</v>
@@ -24306,22 +24306,22 @@
         <v>51</v>
       </c>
       <c r="AD196" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE196" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF196" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG196" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH196" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI196" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ196" t="n">
         <v>29</v>
@@ -24380,10 +24380,10 @@
         <v>3.5</v>
       </c>
       <c r="N197" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O197" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P197" t="n">
         <v>1.4</v>
@@ -24481,13 +24481,13 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H198" t="n">
         <v>3.4</v>
       </c>
       <c r="I198" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J198" t="n">
         <v>1.04</v>
@@ -24532,7 +24532,7 @@
         <v>23</v>
       </c>
       <c r="X198" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y198" t="n">
         <v>23</v>
@@ -24609,7 +24609,7 @@
         <v>3.9</v>
       </c>
       <c r="I199" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J199" t="n">
         <v>1.03</v>
@@ -24624,10 +24624,10 @@
         <v>4.5</v>
       </c>
       <c r="N199" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O199" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P199" t="n">
         <v>1.3</v>
@@ -24862,16 +24862,16 @@
         <v>19</v>
       </c>
       <c r="L201" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M201" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N201" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O201" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P201" t="n">
         <v>1.25</v>
@@ -24990,10 +24990,10 @@
         <v>5</v>
       </c>
       <c r="N202" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O202" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P202" t="n">
         <v>1.29</v>
@@ -25091,13 +25091,13 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H203" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I203" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J203" t="n">
         <v>1.04</v>
@@ -25124,13 +25124,13 @@
         <v>3.25</v>
       </c>
       <c r="R203" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S203" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T203" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U203" t="n">
         <v>9.5</v>
@@ -25169,7 +25169,7 @@
         <v>23</v>
       </c>
       <c r="AG203" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH203" t="n">
         <v>41</v>
@@ -25710,10 +25710,10 @@
         <v>2.3</v>
       </c>
       <c r="J208" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K208" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L208" t="n">
         <v>1.3</v>
@@ -25725,7 +25725,7 @@
         <v>2.05</v>
       </c>
       <c r="O208" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P208" t="n">
         <v>1.44</v>
@@ -25740,7 +25740,7 @@
         <v>1.95</v>
       </c>
       <c r="T208" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U208" t="n">
         <v>15</v>
@@ -25758,7 +25758,7 @@
         <v>34</v>
       </c>
       <c r="Z208" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA208" t="n">
         <v>6</v>
@@ -25823,19 +25823,19 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H209" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I209" t="n">
         <v>3.5</v>
       </c>
       <c r="J209" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K209" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="L209" t="n">
         <v>1.35</v>
@@ -25853,64 +25853,64 @@
         <v>1.47</v>
       </c>
       <c r="Q209" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R209" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S209" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="T209" t="n">
         <v>6.8</v>
       </c>
       <c r="U209" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="V209" t="n">
         <v>8.5</v>
       </c>
       <c r="W209" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X209" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y209" t="n">
         <v>29</v>
       </c>
       <c r="Z209" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA209" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AB209" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC209" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD209" t="n">
         <v>600</v>
       </c>
       <c r="AE209" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF209" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG209" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH209" t="n">
         <v>50</v>
       </c>
       <c r="AI209" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ209" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="210">
@@ -26067,94 +26067,94 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="H211" t="n">
         <v>3.95</v>
       </c>
       <c r="I211" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="J211" t="n">
         <v>1.04</v>
       </c>
       <c r="K211" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="L211" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="M211" t="n">
-        <v>4.05</v>
+        <v>3.75</v>
       </c>
       <c r="N211" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O211" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="P211" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="Q211" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="R211" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="S211" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="T211" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="U211" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="V211" t="n">
         <v>8</v>
       </c>
       <c r="W211" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X211" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y211" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Z211" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA211" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AB211" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AC211" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AD211" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AE211" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF211" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG211" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AH211" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AI211" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AJ211" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="212">
@@ -26189,10 +26189,10 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="H212" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I212" t="n">
         <v>2.67</v>
@@ -26237,10 +26237,10 @@
         <v>9.25</v>
       </c>
       <c r="W212" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X212" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y212" t="n">
         <v>27</v>
@@ -26252,7 +26252,7 @@
         <v>6.2</v>
       </c>
       <c r="AB212" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC212" t="n">
         <v>50</v>
@@ -26276,7 +26276,7 @@
         <v>21</v>
       </c>
       <c r="AJ212" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="213">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="H213" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I213" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="J213" t="n">
         <v>1.07</v>
       </c>
       <c r="K213" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L213" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M213" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="N213" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O213" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P213" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q213" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R213" t="n">
         <v>1.78</v>
@@ -26350,52 +26350,52 @@
         <v>1.93</v>
       </c>
       <c r="T213" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="U213" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="V213" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W213" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="X213" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y213" t="n">
         <v>30</v>
       </c>
       <c r="Z213" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AA213" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB213" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF213" t="n">
         <v>14</v>
       </c>
-      <c r="AC213" t="n">
-        <v>65</v>
-      </c>
-      <c r="AD213" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE213" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF213" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AG213" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH213" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AI213" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AJ213" t="n">
         <v>35</v>
@@ -26433,10 +26433,10 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H214" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I214" t="n">
         <v>1.7</v>
@@ -26451,7 +26451,7 @@
         <v>1.25</v>
       </c>
       <c r="M214" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="N214" t="n">
         <v>1.75</v>
@@ -26475,13 +26475,13 @@
         <v>13</v>
       </c>
       <c r="U214" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V214" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="W214" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="X214" t="n">
         <v>37</v>
@@ -26493,7 +26493,7 @@
         <v>8</v>
       </c>
       <c r="AA214" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AB214" t="n">
         <v>15</v>
@@ -26505,7 +26505,7 @@
         <v>450</v>
       </c>
       <c r="AE214" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AF214" t="n">
         <v>8.5</v>
@@ -26555,7 +26555,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="H215" t="n">
         <v>3.15</v>
@@ -26591,19 +26591,19 @@
         <v>1.75</v>
       </c>
       <c r="S215" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T215" t="n">
         <v>8.5</v>
       </c>
       <c r="U215" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="V215" t="n">
         <v>9.75</v>
       </c>
       <c r="W215" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X215" t="n">
         <v>22</v>
@@ -26615,10 +26615,10 @@
         <v>6.9</v>
       </c>
       <c r="AA215" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB215" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC215" t="n">
         <v>65</v>
@@ -26677,52 +26677,52 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H216" t="n">
         <v>3.4</v>
       </c>
       <c r="I216" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="J216" t="n">
         <v>1.07</v>
       </c>
       <c r="K216" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="L216" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M216" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="N216" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O216" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P216" t="n">
         <v>1.44</v>
       </c>
       <c r="Q216" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="R216" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S216" t="n">
         <v>1.82</v>
       </c>
       <c r="T216" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="U216" t="n">
         <v>8</v>
       </c>
       <c r="V216" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W216" t="n">
         <v>14.5</v>
@@ -26731,16 +26731,16 @@
         <v>15</v>
       </c>
       <c r="Y216" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z216" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA216" t="n">
         <v>6.7</v>
       </c>
       <c r="AB216" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC216" t="n">
         <v>80</v>
@@ -26799,19 +26799,19 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="H217" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I217" t="n">
         <v>2.65</v>
       </c>
       <c r="J217" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K217" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="L217" t="n">
         <v>1.32</v>
@@ -26829,25 +26829,25 @@
         <v>1.44</v>
       </c>
       <c r="Q217" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="R217" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S217" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T217" t="n">
         <v>8.25</v>
       </c>
       <c r="U217" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="V217" t="n">
         <v>9.5</v>
       </c>
       <c r="W217" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X217" t="n">
         <v>20</v>
@@ -26856,16 +26856,16 @@
         <v>29</v>
       </c>
       <c r="Z217" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AA217" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB217" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC217" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD217" t="n">
         <v>500</v>
@@ -26924,7 +26924,7 @@
         <v>2.6</v>
       </c>
       <c r="H218" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I218" t="n">
         <v>2.47</v>
@@ -26969,19 +26969,19 @@
         <v>9.75</v>
       </c>
       <c r="W218" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X218" t="n">
         <v>22</v>
       </c>
       <c r="Y218" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z218" t="n">
         <v>7.3</v>
       </c>
       <c r="AA218" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB218" t="n">
         <v>13</v>
@@ -26993,7 +26993,7 @@
         <v>400</v>
       </c>
       <c r="AE218" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF218" t="n">
         <v>13</v>
@@ -27008,7 +27008,7 @@
         <v>20</v>
       </c>
       <c r="AJ218" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="219">
@@ -27046,10 +27046,10 @@
         <v>3.2</v>
       </c>
       <c r="H219" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I219" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
@@ -27057,19 +27057,19 @@
         <v>1.42</v>
       </c>
       <c r="M219" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="N219" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="O219" t="n">
         <v>1.52</v>
       </c>
       <c r="P219" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="Q219" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="R219" t="n">
         <v>1.98</v>
@@ -27078,7 +27078,7 @@
         <v>1.65</v>
       </c>
       <c r="T219" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="U219" t="n">
         <v>15</v>
@@ -27090,13 +27090,13 @@
         <v>40</v>
       </c>
       <c r="X219" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y219" t="n">
         <v>50</v>
       </c>
       <c r="Z219" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AA219" t="n">
         <v>6.3</v>
@@ -27114,16 +27114,16 @@
         <v>6.1</v>
       </c>
       <c r="AF219" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AG219" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH219" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI219" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ219" t="n">
         <v>40</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-29.xlsx
@@ -769,94 +769,94 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6.25</v>
       </c>
       <c r="I3" t="n">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="J3" t="n">
         <v>1.01</v>
       </c>
       <c r="K3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="O3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="P3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="T3" t="n">
         <v>41</v>
       </c>
       <c r="U3" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="V3" t="n">
+        <v>26</v>
+      </c>
+      <c r="W3" t="n">
+        <v>101</v>
+      </c>
+      <c r="X3" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y3" t="n">
         <v>41</v>
       </c>
-      <c r="W3" t="n">
-        <v>201</v>
-      </c>
-      <c r="X3" t="n">
-        <v>81</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>51</v>
-      </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB3" t="n">
         <v>17</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>21</v>
       </c>
       <c r="AC3" t="n">
         <v>41</v>
       </c>
       <c r="AD3" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>10</v>
       </c>
       <c r="AJ3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L4" t="n">
         <v>1.2</v>
@@ -912,25 +912,25 @@
         <v>4.5</v>
       </c>
       <c r="N4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O4" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="P4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U4" t="n">
         <v>11</v>
@@ -948,13 +948,13 @@
         <v>21</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
         <v>7.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
         <v>41</v>
@@ -969,7 +969,7 @@
         <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
         <v>41</v>
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H10" t="n">
         <v>3.75</v>
       </c>
       <c r="I10" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J10" t="n">
         <v>1.03</v>
@@ -1989,13 +1989,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H13" t="n">
         <v>3.9</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J13" t="n">
         <v>1.08</v>
@@ -2010,10 +2010,10 @@
         <v>2.75</v>
       </c>
       <c r="N13" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="O13" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P13" t="n">
         <v>1.5</v>
@@ -2065,13 +2065,13 @@
         <v>34</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH13" t="n">
         <v>81</v>
       </c>
       <c r="AI13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ13" t="n">
         <v>67</v>
@@ -2115,40 +2115,40 @@
         <v>3.5</v>
       </c>
       <c r="I14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K14" t="n">
+        <v>9</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O14" t="n">
         <v>1.73</v>
       </c>
-      <c r="J14" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K14" t="n">
-        <v>8</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.62</v>
-      </c>
       <c r="P14" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R14" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="T14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U14" t="n">
         <v>23</v>
@@ -2166,7 +2166,7 @@
         <v>51</v>
       </c>
       <c r="Z14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA14" t="n">
         <v>7</v>
@@ -2178,25 +2178,25 @@
         <v>67</v>
       </c>
       <c r="AD14" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AE14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH14" t="n">
         <v>13</v>
       </c>
       <c r="AI14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
@@ -2353,13 +2353,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J16" t="n">
         <v>1.06</v>
@@ -2374,10 +2374,10 @@
         <v>3.25</v>
       </c>
       <c r="N16" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P16" t="n">
         <v>1.44</v>
@@ -2392,10 +2392,10 @@
         <v>1.95</v>
       </c>
       <c r="T16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V16" t="n">
         <v>11</v>
@@ -2410,7 +2410,7 @@
         <v>34</v>
       </c>
       <c r="Z16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA16" t="n">
         <v>6</v>
@@ -2422,16 +2422,16 @@
         <v>51</v>
       </c>
       <c r="AD16" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE16" t="n">
         <v>7.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
         <v>23</v>
@@ -2440,7 +2440,7 @@
         <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
         <v>2.7</v>
@@ -2496,10 +2496,10 @@
         <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P17" t="n">
         <v>1.5</v>
@@ -2508,10 +2508,10 @@
         <v>2.5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S17" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T17" t="n">
         <v>7.5</v>
@@ -2544,7 +2544,7 @@
         <v>51</v>
       </c>
       <c r="AD17" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE17" t="n">
         <v>8</v>
@@ -2606,10 +2606,10 @@
         <v>1.9</v>
       </c>
       <c r="J18" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L18" t="n">
         <v>1.25</v>
@@ -2618,10 +2618,10 @@
         <v>3.75</v>
       </c>
       <c r="N18" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="O18" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="P18" t="n">
         <v>1.36</v>
@@ -2719,13 +2719,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H19" t="n">
         <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J19" t="n">
         <v>1.03</v>
@@ -2752,10 +2752,10 @@
         <v>3.25</v>
       </c>
       <c r="R19" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T19" t="n">
         <v>9.5</v>
@@ -2764,7 +2764,7 @@
         <v>11</v>
       </c>
       <c r="V19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W19" t="n">
         <v>19</v>
@@ -2782,7 +2782,7 @@
         <v>7</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC19" t="n">
         <v>41</v>
@@ -2803,7 +2803,7 @@
         <v>41</v>
       </c>
       <c r="AI19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
         <v>29</v>
@@ -3085,10 +3085,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
         <v>4.1</v>
@@ -3100,10 +3100,10 @@
         <v>6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M22" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N22" t="n">
         <v>2.75</v>
@@ -3148,7 +3148,7 @@
         <v>6</v>
       </c>
       <c r="AB22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC22" t="n">
         <v>81</v>
@@ -3207,13 +3207,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="H23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J23" t="n">
         <v>1.02</v>
@@ -3222,10 +3222,10 @@
         <v>19</v>
       </c>
       <c r="L23" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M23" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N23" t="n">
         <v>1.44</v>
@@ -3240,13 +3240,13 @@
         <v>3.75</v>
       </c>
       <c r="R23" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S23" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="T23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U23" t="n">
         <v>6.5</v>
@@ -3255,7 +3255,7 @@
         <v>10</v>
       </c>
       <c r="W23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X23" t="n">
         <v>11</v>
@@ -3270,31 +3270,31 @@
         <v>13</v>
       </c>
       <c r="AB23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC23" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD23" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AE23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF23" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG23" t="n">
         <v>41</v>
       </c>
       <c r="AH23" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AI23" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AJ23" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
@@ -3329,13 +3329,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H24" t="n">
         <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
         <v>1.14</v>
@@ -3362,16 +3362,16 @@
         <v>2.1</v>
       </c>
       <c r="R24" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S24" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T24" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="U24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V24" t="n">
         <v>10</v>
@@ -3392,25 +3392,25 @@
         <v>6.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC24" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AD24" t="n">
         <v>101</v>
       </c>
       <c r="AE24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH24" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI24" t="n">
         <v>51</v>
@@ -3704,10 +3704,10 @@
         <v>8.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L27" t="n">
         <v>1.4</v>
@@ -3716,10 +3716,10 @@
         <v>2.75</v>
       </c>
       <c r="N27" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O27" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P27" t="n">
         <v>1.5</v>
@@ -3817,7 +3817,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="H28" t="n">
         <v>3.2</v>
@@ -3853,13 +3853,13 @@
         <v>2.5</v>
       </c>
       <c r="S28" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T28" t="n">
         <v>5</v>
       </c>
       <c r="U28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V28" t="n">
         <v>10</v>
@@ -3939,7 +3939,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
         <v>3.1</v>
@@ -3975,7 +3975,7 @@
         <v>2.5</v>
       </c>
       <c r="S29" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T29" t="n">
         <v>5</v>
@@ -4061,10 +4061,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="H30" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I30" t="n">
         <v>5</v>
@@ -4094,10 +4094,10 @@
         <v>2.1</v>
       </c>
       <c r="R30" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="S30" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T30" t="n">
         <v>4.75</v>
@@ -4305,7 +4305,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="H32" t="n">
         <v>4.75</v>
@@ -4314,10 +4314,10 @@
         <v>7</v>
       </c>
       <c r="J32" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L32" t="n">
         <v>1.22</v>
@@ -4326,10 +4326,10 @@
         <v>4</v>
       </c>
       <c r="N32" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O32" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P32" t="n">
         <v>1.33</v>
@@ -4427,13 +4427,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H33" t="n">
         <v>3.25</v>
       </c>
       <c r="I33" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="J33" t="n">
         <v>1.06</v>
@@ -4481,7 +4481,7 @@
         <v>21</v>
       </c>
       <c r="Y33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z33" t="n">
         <v>9.5</v>
@@ -4671,13 +4671,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="H35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I35" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3.9</v>
       </c>
       <c r="J35" t="n">
         <v>1.04</v>
@@ -4692,16 +4692,16 @@
         <v>4</v>
       </c>
       <c r="N35" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O35" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P35" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R35" t="n">
         <v>1.67</v>
@@ -4710,19 +4710,19 @@
         <v>2.1</v>
       </c>
       <c r="T35" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U35" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V35" t="n">
         <v>8.5</v>
       </c>
       <c r="W35" t="n">
+        <v>17</v>
+      </c>
+      <c r="X35" t="n">
         <v>15</v>
-      </c>
-      <c r="X35" t="n">
-        <v>13</v>
       </c>
       <c r="Y35" t="n">
         <v>23</v>
@@ -4731,22 +4731,22 @@
         <v>13</v>
       </c>
       <c r="AA35" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC35" t="n">
         <v>41</v>
       </c>
       <c r="AD35" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE35" t="n">
         <v>13</v>
       </c>
       <c r="AF35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG35" t="n">
         <v>13</v>
@@ -4755,7 +4755,7 @@
         <v>41</v>
       </c>
       <c r="AI35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ35" t="n">
         <v>34</v>
@@ -4814,10 +4814,10 @@
         <v>3</v>
       </c>
       <c r="N36" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O36" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P36" t="n">
         <v>1.44</v>
@@ -4915,46 +4915,46 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
         <v>3.3</v>
       </c>
       <c r="J37" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K37" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M37" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N37" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="O37" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P37" t="n">
         <v>1.57</v>
       </c>
-      <c r="P37" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Q37" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R37" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S37" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T37" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U37" t="n">
         <v>10</v>
@@ -4963,16 +4963,16 @@
         <v>10</v>
       </c>
       <c r="W37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y37" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z37" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA37" t="n">
         <v>6</v>
@@ -4981,25 +4981,25 @@
         <v>17</v>
       </c>
       <c r="AC37" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD37" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AE37" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF37" t="n">
         <v>15</v>
       </c>
       <c r="AG37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH37" t="n">
         <v>34</v>
       </c>
       <c r="AI37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ37" t="n">
         <v>41</v>
@@ -5058,10 +5058,10 @@
         <v>2.75</v>
       </c>
       <c r="N38" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O38" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P38" t="n">
         <v>1.53</v>
@@ -5180,10 +5180,10 @@
         <v>3</v>
       </c>
       <c r="N39" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O39" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P39" t="n">
         <v>1.5</v>
@@ -5198,7 +5198,7 @@
         <v>1.8</v>
       </c>
       <c r="T39" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U39" t="n">
         <v>10</v>
@@ -5284,82 +5284,82 @@
         <v>1.73</v>
       </c>
       <c r="H40" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J40" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K40" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L40" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N40" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R40" t="n">
         <v>2.2</v>
       </c>
-      <c r="O40" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R40" t="n">
-        <v>2</v>
-      </c>
       <c r="S40" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="T40" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U40" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V40" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W40" t="n">
         <v>13</v>
       </c>
       <c r="X40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y40" t="n">
         <v>34</v>
       </c>
       <c r="Z40" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA40" t="n">
         <v>6.5</v>
       </c>
       <c r="AB40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>501</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG40" t="n">
         <v>19</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>451</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>17</v>
       </c>
       <c r="AH40" t="n">
         <v>51</v>
@@ -5403,46 +5403,46 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="H41" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I41" t="n">
         <v>5.25</v>
       </c>
       <c r="J41" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L41" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M41" t="n">
         <v>3.2</v>
       </c>
       <c r="N41" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O41" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="P41" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R41" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S41" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T41" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U41" t="n">
         <v>7.5</v>
@@ -5460,16 +5460,16 @@
         <v>29</v>
       </c>
       <c r="Z41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB41" t="n">
         <v>17</v>
       </c>
       <c r="AC41" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD41" t="n">
         <v>401</v>
@@ -5478,7 +5478,7 @@
         <v>12</v>
       </c>
       <c r="AF41" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG41" t="n">
         <v>17</v>
@@ -5490,7 +5490,7 @@
         <v>41</v>
       </c>
       <c r="AJ41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42">
@@ -5525,7 +5525,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="H42" t="n">
         <v>3.9</v>
@@ -5534,25 +5534,25 @@
         <v>4.75</v>
       </c>
       <c r="J42" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K42" t="n">
         <v>11</v>
       </c>
       <c r="L42" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="M42" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N42" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="O42" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="P42" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q42" t="n">
         <v>3</v>
@@ -6867,7 +6867,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H53" t="n">
         <v>6</v>
@@ -6900,10 +6900,10 @@
         <v>3.25</v>
       </c>
       <c r="R53" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S53" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T53" t="n">
         <v>21</v>
@@ -6912,19 +6912,19 @@
         <v>51</v>
       </c>
       <c r="V53" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="W53" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="X53" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="Y53" t="n">
         <v>81</v>
       </c>
       <c r="Z53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA53" t="n">
         <v>12</v>
@@ -6939,7 +6939,7 @@
         <v>501</v>
       </c>
       <c r="AE53" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF53" t="n">
         <v>5.5</v>
@@ -6951,7 +6951,7 @@
         <v>6.5</v>
       </c>
       <c r="AI53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ53" t="n">
         <v>41</v>
@@ -6989,10 +6989,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H54" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I54" t="n">
         <v>2.05</v>
@@ -7111,13 +7111,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H55" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J55" t="n">
         <v>1.07</v>
@@ -7144,10 +7144,10 @@
         <v>2.5</v>
       </c>
       <c r="R55" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S55" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T55" t="n">
         <v>9.5</v>
@@ -7162,7 +7162,7 @@
         <v>41</v>
       </c>
       <c r="X55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y55" t="n">
         <v>41</v>
@@ -7174,22 +7174,22 @@
         <v>6</v>
       </c>
       <c r="AB55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC55" t="n">
         <v>51</v>
       </c>
       <c r="AD55" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF55" t="n">
         <v>9.5</v>
       </c>
       <c r="AG55" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH55" t="n">
         <v>19</v>
@@ -7233,19 +7233,19 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H56" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I56" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J56" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K56" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L56" t="n">
         <v>1.29</v>
@@ -7275,13 +7275,13 @@
         <v>6.5</v>
       </c>
       <c r="U56" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V56" t="n">
         <v>8.5</v>
       </c>
       <c r="W56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X56" t="n">
         <v>13</v>
@@ -7311,7 +7311,7 @@
         <v>29</v>
       </c>
       <c r="AG56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH56" t="n">
         <v>51</v>
@@ -7320,7 +7320,7 @@
         <v>41</v>
       </c>
       <c r="AJ56" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57">
@@ -10382,10 +10382,10 @@
         <v>5</v>
       </c>
       <c r="J82" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K82" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L82" t="n">
         <v>1.33</v>
@@ -10394,10 +10394,10 @@
         <v>3.25</v>
       </c>
       <c r="N82" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O82" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P82" t="n">
         <v>1.44</v>
@@ -10864,7 +10864,7 @@
         <v>2.2</v>
       </c>
       <c r="H86" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I86" t="n">
         <v>3</v>
@@ -10876,31 +10876,31 @@
         <v>15</v>
       </c>
       <c r="L86" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M86" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N86" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="O86" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="P86" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q86" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R86" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S86" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T86" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U86" t="n">
         <v>13</v>
@@ -10912,31 +10912,31 @@
         <v>21</v>
       </c>
       <c r="X86" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y86" t="n">
         <v>21</v>
       </c>
       <c r="Z86" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA86" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB86" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC86" t="n">
         <v>34</v>
       </c>
       <c r="AD86" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE86" t="n">
         <v>13</v>
       </c>
       <c r="AF86" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG86" t="n">
         <v>11</v>
@@ -10948,7 +10948,7 @@
         <v>21</v>
       </c>
       <c r="AJ86" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87">
@@ -11837,13 +11837,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H94" t="n">
         <v>2.9</v>
       </c>
       <c r="I94" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J94" t="n">
         <v>1.11</v>
@@ -11852,34 +11852,34 @@
         <v>6.5</v>
       </c>
       <c r="L94" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M94" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N94" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O94" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P94" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R94" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S94" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T94" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U94" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V94" t="n">
         <v>11</v>
@@ -11903,19 +11903,19 @@
         <v>19</v>
       </c>
       <c r="AC94" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD94" t="n">
         <v>501</v>
       </c>
       <c r="AE94" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF94" t="n">
         <v>12</v>
       </c>
       <c r="AG94" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH94" t="n">
         <v>29</v>
@@ -12096,16 +12096,16 @@
         <v>6.5</v>
       </c>
       <c r="L96" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M96" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N96" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O96" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P96" t="n">
         <v>1.57</v>
@@ -12218,10 +12218,10 @@
         <v>17</v>
       </c>
       <c r="L97" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M97" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N97" t="n">
         <v>1.53</v>
@@ -13423,19 +13423,19 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H107" t="n">
         <v>3.5</v>
       </c>
       <c r="I107" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J107" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K107" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L107" t="n">
         <v>1.33</v>
@@ -13444,10 +13444,10 @@
         <v>3.25</v>
       </c>
       <c r="N107" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O107" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P107" t="n">
         <v>1.44</v>
@@ -13456,10 +13456,10 @@
         <v>2.63</v>
       </c>
       <c r="R107" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S107" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T107" t="n">
         <v>6.5</v>
@@ -13492,7 +13492,7 @@
         <v>51</v>
       </c>
       <c r="AD107" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE107" t="n">
         <v>11</v>
@@ -15123,13 +15123,13 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H121" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I121" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J121" t="n">
         <v>1.06</v>
@@ -15144,10 +15144,10 @@
         <v>3.25</v>
       </c>
       <c r="N121" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O121" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P121" t="n">
         <v>1.44</v>
@@ -15165,16 +15165,16 @@
         <v>6.5</v>
       </c>
       <c r="U121" t="n">
+        <v>8</v>
+      </c>
+      <c r="V121" t="n">
         <v>8.5</v>
-      </c>
-      <c r="V121" t="n">
-        <v>9</v>
       </c>
       <c r="W121" t="n">
         <v>15</v>
       </c>
       <c r="X121" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y121" t="n">
         <v>29</v>
@@ -15195,7 +15195,7 @@
         <v>351</v>
       </c>
       <c r="AE121" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF121" t="n">
         <v>21</v>
@@ -15204,10 +15204,10 @@
         <v>15</v>
       </c>
       <c r="AH121" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI121" t="n">
         <v>41</v>
-      </c>
-      <c r="AI121" t="n">
-        <v>34</v>
       </c>
       <c r="AJ121" t="n">
         <v>41</v>
@@ -16458,10 +16458,10 @@
         <v>2.63</v>
       </c>
       <c r="N132" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O132" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P132" t="n">
         <v>1.53</v>
@@ -16559,10 +16559,10 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H133" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I133" t="n">
         <v>1.7</v>
@@ -16571,7 +16571,7 @@
         <v>1.06</v>
       </c>
       <c r="K133" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L133" t="n">
         <v>1.3</v>
@@ -16586,10 +16586,10 @@
         <v>1.8</v>
       </c>
       <c r="P133" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q133" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R133" t="n">
         <v>1.91</v>
@@ -16598,13 +16598,13 @@
         <v>1.8</v>
       </c>
       <c r="T133" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U133" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V133" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W133" t="n">
         <v>51</v>
@@ -16616,10 +16616,10 @@
         <v>41</v>
       </c>
       <c r="Z133" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA133" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB133" t="n">
         <v>17</v>
@@ -16634,7 +16634,7 @@
         <v>6.5</v>
       </c>
       <c r="AF133" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG133" t="n">
         <v>8.5</v>
@@ -16681,13 +16681,13 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="H134" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I134" t="n">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="J134" t="n">
         <v>1.05</v>
@@ -16696,43 +16696,43 @@
         <v>11</v>
       </c>
       <c r="L134" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M134" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N134" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="O134" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="P134" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q134" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R134" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S134" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T134" t="n">
         <v>7</v>
       </c>
       <c r="U134" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V134" t="n">
         <v>8.5</v>
       </c>
       <c r="W134" t="n">
+        <v>11</v>
+      </c>
+      <c r="X134" t="n">
         <v>13</v>
-      </c>
-      <c r="X134" t="n">
-        <v>15</v>
       </c>
       <c r="Y134" t="n">
         <v>26</v>
@@ -16741,28 +16741,28 @@
         <v>11</v>
       </c>
       <c r="AA134" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB134" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AC134" t="n">
         <v>51</v>
       </c>
       <c r="AD134" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE134" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF134" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AG134" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AH134" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI134" t="n">
         <v>41</v>
@@ -16803,25 +16803,25 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="H135" t="n">
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="I135" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J135" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K135" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L135" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M135" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N135" t="n">
         <v>1.36</v>
@@ -16836,61 +16836,61 @@
         <v>5.5</v>
       </c>
       <c r="R135" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="S135" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="T135" t="n">
         <v>10</v>
       </c>
       <c r="U135" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V135" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W135" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X135" t="n">
         <v>11</v>
       </c>
       <c r="Y135" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z135" t="n">
         <v>21</v>
       </c>
       <c r="AA135" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB135" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC135" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD135" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AE135" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF135" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG135" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH135" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AI135" t="n">
+        <v>126</v>
+      </c>
+      <c r="AJ135" t="n">
         <v>81</v>
-      </c>
-      <c r="AJ135" t="n">
-        <v>67</v>
       </c>
     </row>
     <row r="136">
@@ -17291,13 +17291,13 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="H139" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I139" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="J139" t="n">
         <v>1.04</v>
@@ -17306,79 +17306,79 @@
         <v>13</v>
       </c>
       <c r="L139" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M139" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N139" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O139" t="n">
+        <v>2</v>
+      </c>
+      <c r="P139" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>3</v>
+      </c>
+      <c r="R139" t="n">
         <v>1.7</v>
       </c>
-      <c r="O139" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="P139" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q139" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R139" t="n">
-        <v>1.57</v>
-      </c>
       <c r="S139" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="T139" t="n">
+        <v>12</v>
+      </c>
+      <c r="U139" t="n">
+        <v>21</v>
+      </c>
+      <c r="V139" t="n">
         <v>13</v>
       </c>
-      <c r="U139" t="n">
-        <v>19</v>
-      </c>
-      <c r="V139" t="n">
-        <v>12</v>
-      </c>
       <c r="W139" t="n">
+        <v>41</v>
+      </c>
+      <c r="X139" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y139" t="n">
         <v>34</v>
       </c>
-      <c r="X139" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y139" t="n">
-        <v>29</v>
-      </c>
       <c r="Z139" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB139" t="n">
         <v>13</v>
-      </c>
-      <c r="AA139" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB139" t="n">
-        <v>12</v>
       </c>
       <c r="AC139" t="n">
         <v>41</v>
       </c>
       <c r="AD139" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AE139" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AF139" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG139" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH139" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI139" t="n">
         <v>15</v>
       </c>
       <c r="AJ139" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140">
@@ -17657,19 +17657,19 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H142" t="n">
         <v>3.5</v>
       </c>
       <c r="I142" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J142" t="n">
         <v>1.07</v>
       </c>
       <c r="K142" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L142" t="n">
         <v>1.36</v>
@@ -17678,16 +17678,16 @@
         <v>3</v>
       </c>
       <c r="N142" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O142" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P142" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q142" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R142" t="n">
         <v>2.1</v>
@@ -17732,7 +17732,7 @@
         <v>11</v>
       </c>
       <c r="AF142" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG142" t="n">
         <v>17</v>
@@ -17904,46 +17904,46 @@
         <v>10</v>
       </c>
       <c r="H144" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I144" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="J144" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K144" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L144" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M144" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N144" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="O144" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="P144" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q144" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R144" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S144" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T144" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="U144" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="V144" t="n">
         <v>29</v>
@@ -17952,16 +17952,16 @@
         <v>126</v>
       </c>
       <c r="X144" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="Y144" t="n">
         <v>67</v>
       </c>
       <c r="Z144" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA144" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB144" t="n">
         <v>23</v>
@@ -17973,7 +17973,7 @@
         <v>501</v>
       </c>
       <c r="AE144" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF144" t="n">
         <v>6</v>
@@ -17988,7 +17988,7 @@
         <v>12</v>
       </c>
       <c r="AJ144" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="145">
@@ -18023,13 +18023,13 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="H145" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I145" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J145" t="n">
         <v>1.05</v>
@@ -18038,22 +18038,22 @@
         <v>11</v>
       </c>
       <c r="L145" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M145" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N145" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O145" t="n">
         <v>1.88</v>
       </c>
-      <c r="O145" t="n">
-        <v>1.98</v>
-      </c>
       <c r="P145" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q145" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R145" t="n">
         <v>1.91</v>
@@ -18065,13 +18065,13 @@
         <v>7</v>
       </c>
       <c r="U145" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V145" t="n">
         <v>8.5</v>
       </c>
       <c r="W145" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X145" t="n">
         <v>13</v>
@@ -18080,10 +18080,10 @@
         <v>26</v>
       </c>
       <c r="Z145" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA145" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB145" t="n">
         <v>17</v>
@@ -18633,13 +18633,13 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H150" t="n">
         <v>3.3</v>
       </c>
       <c r="I150" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J150" t="n">
         <v>1.06</v>
@@ -18675,16 +18675,16 @@
         <v>8</v>
       </c>
       <c r="U150" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V150" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W150" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X150" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y150" t="n">
         <v>34</v>
@@ -18705,7 +18705,7 @@
         <v>301</v>
       </c>
       <c r="AE150" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF150" t="n">
         <v>12</v>
@@ -18714,10 +18714,10 @@
         <v>10</v>
       </c>
       <c r="AH150" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI150" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ150" t="n">
         <v>34</v>
@@ -19975,94 +19975,94 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="H161" t="n">
-        <v>4.1</v>
+        <v>4.35</v>
       </c>
       <c r="I161" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="J161" t="n">
         <v>1.04</v>
       </c>
       <c r="K161" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M161" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="N161" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O161" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P161" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R161" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S161" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T161" t="n">
+        <v>22</v>
+      </c>
+      <c r="U161" t="n">
+        <v>50</v>
+      </c>
+      <c r="V161" t="n">
+        <v>22</v>
+      </c>
+      <c r="W161" t="n">
+        <v>175</v>
+      </c>
+      <c r="X161" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG161" t="n">
         <v>8.25</v>
       </c>
-      <c r="L161" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M161" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="N161" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O161" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="P161" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Q161" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="R161" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S161" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T161" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="U161" t="n">
-        <v>45</v>
-      </c>
-      <c r="V161" t="n">
-        <v>21</v>
-      </c>
-      <c r="W161" t="n">
-        <v>150</v>
-      </c>
-      <c r="X161" t="n">
-        <v>70</v>
-      </c>
-      <c r="Y161" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z161" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA161" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB161" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC161" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD161" t="n">
-        <v>600</v>
-      </c>
-      <c r="AE161" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AF161" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AG161" t="n">
-        <v>8</v>
-      </c>
       <c r="AH161" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AI161" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AJ161" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162">
@@ -20097,19 +20097,19 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.77</v>
+        <v>2.6</v>
       </c>
       <c r="H162" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I162" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J162" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K162" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="L162" t="n">
         <v>1.32</v>
@@ -20118,10 +20118,10 @@
         <v>3.1</v>
       </c>
       <c r="N162" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O162" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P162" t="n">
         <v>1.39</v>
@@ -20130,58 +20130,58 @@
         <v>2.77</v>
       </c>
       <c r="R162" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S162" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T162" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U162" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="V162" t="n">
         <v>10</v>
       </c>
       <c r="W162" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="X162" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y162" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z162" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AA162" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AB162" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC162" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD162" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE162" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AF162" t="n">
         <v>11.75</v>
       </c>
       <c r="AG162" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH162" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI162" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ162" t="n">
         <v>30</v>
@@ -20463,13 +20463,13 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="H165" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="I165" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="J165" t="n">
         <v>1.03</v>
@@ -20478,40 +20478,40 @@
         <v>9</v>
       </c>
       <c r="L165" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="M165" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="N165" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O165" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="P165" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q165" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="R165" t="n">
         <v>1.7</v>
       </c>
       <c r="S165" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T165" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="U165" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="V165" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="W165" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="X165" t="n">
         <v>50</v>
@@ -20523,19 +20523,19 @@
         <v>9</v>
       </c>
       <c r="AA165" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB165" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC165" t="n">
         <v>60</v>
       </c>
       <c r="AD165" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AE165" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF165" t="n">
         <v>8</v>
@@ -20544,13 +20544,13 @@
         <v>8.25</v>
       </c>
       <c r="AH165" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AI165" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AJ165" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="166">
@@ -21704,10 +21704,10 @@
         <v>3.5</v>
       </c>
       <c r="N175" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O175" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P175" t="n">
         <v>1.4</v>
@@ -21829,7 +21829,7 @@
         <v>1.95</v>
       </c>
       <c r="O176" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P176" t="n">
         <v>1.4</v>
@@ -21933,7 +21933,7 @@
         <v>3.4</v>
       </c>
       <c r="I177" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J177" t="n">
         <v>1.04</v>
@@ -21948,10 +21948,10 @@
         <v>4</v>
       </c>
       <c r="N177" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O177" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P177" t="n">
         <v>1.33</v>
@@ -23028,28 +23028,28 @@
         <v>2.3</v>
       </c>
       <c r="H186" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I186" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J186" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K186" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L186" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M186" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N186" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O186" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P186" t="n">
         <v>1.36</v>
@@ -23058,13 +23058,13 @@
         <v>3</v>
       </c>
       <c r="R186" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S186" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T186" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U186" t="n">
         <v>12</v>
@@ -23076,19 +23076,19 @@
         <v>21</v>
       </c>
       <c r="X186" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y186" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z186" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA186" t="n">
         <v>6.5</v>
       </c>
       <c r="AB186" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC186" t="n">
         <v>41</v>
@@ -23097,16 +23097,16 @@
         <v>151</v>
       </c>
       <c r="AE186" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF186" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG186" t="n">
         <v>11</v>
       </c>
       <c r="AH186" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI186" t="n">
         <v>23</v>
@@ -23993,37 +23993,37 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H194" t="n">
         <v>3.25</v>
       </c>
       <c r="I194" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J194" t="n">
         <v>1.08</v>
       </c>
       <c r="K194" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L194" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M194" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N194" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O194" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P194" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q194" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R194" t="n">
         <v>2</v>
@@ -24050,13 +24050,13 @@
         <v>41</v>
       </c>
       <c r="Z194" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA194" t="n">
         <v>6.5</v>
       </c>
       <c r="AB194" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC194" t="n">
         <v>67</v>
@@ -24065,7 +24065,7 @@
         <v>351</v>
       </c>
       <c r="AE194" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF194" t="n">
         <v>11</v>
@@ -24077,10 +24077,10 @@
         <v>23</v>
       </c>
       <c r="AI194" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ194" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="195">
@@ -24136,10 +24136,10 @@
         <v>3</v>
       </c>
       <c r="N195" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O195" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P195" t="n">
         <v>1.44</v>
@@ -24237,64 +24237,64 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H196" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I196" t="n">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="J196" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K196" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L196" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="M196" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N196" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O196" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="P196" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q196" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R196" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="S196" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T196" t="n">
         <v>9</v>
       </c>
       <c r="U196" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V196" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W196" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X196" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Y196" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Z196" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AA196" t="n">
         <v>6.5</v>
@@ -24306,22 +24306,22 @@
         <v>51</v>
       </c>
       <c r="AD196" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AE196" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AF196" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG196" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH196" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI196" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ196" t="n">
         <v>29</v>
@@ -24359,13 +24359,13 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="H197" t="n">
         <v>3.5</v>
       </c>
       <c r="I197" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="J197" t="n">
         <v>1.05</v>
@@ -24392,10 +24392,10 @@
         <v>2.75</v>
       </c>
       <c r="R197" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S197" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T197" t="n">
         <v>9.5</v>
@@ -24404,13 +24404,13 @@
         <v>15</v>
       </c>
       <c r="V197" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W197" t="n">
         <v>29</v>
       </c>
       <c r="X197" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y197" t="n">
         <v>29</v>
@@ -24422,10 +24422,10 @@
         <v>6.5</v>
       </c>
       <c r="AB197" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC197" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD197" t="n">
         <v>201</v>
@@ -24446,7 +24446,7 @@
         <v>19</v>
       </c>
       <c r="AJ197" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="198">
@@ -24481,13 +24481,13 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H198" t="n">
         <v>3.4</v>
       </c>
       <c r="I198" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J198" t="n">
         <v>1.04</v>
@@ -24496,16 +24496,16 @@
         <v>13</v>
       </c>
       <c r="L198" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M198" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N198" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O198" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P198" t="n">
         <v>1.33</v>
@@ -24514,22 +24514,22 @@
         <v>3.25</v>
       </c>
       <c r="R198" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S198" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T198" t="n">
         <v>10</v>
       </c>
       <c r="U198" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V198" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W198" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X198" t="n">
         <v>17</v>
@@ -24541,7 +24541,7 @@
         <v>13</v>
       </c>
       <c r="AA198" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB198" t="n">
         <v>12</v>
@@ -24550,22 +24550,22 @@
         <v>41</v>
       </c>
       <c r="AD198" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE198" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF198" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG198" t="n">
         <v>11</v>
       </c>
       <c r="AH198" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI198" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ198" t="n">
         <v>26</v>
@@ -24609,7 +24609,7 @@
         <v>3.9</v>
       </c>
       <c r="I199" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J199" t="n">
         <v>1.03</v>
@@ -24859,7 +24859,7 @@
         <v>1.02</v>
       </c>
       <c r="K201" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L201" t="n">
         <v>1.13</v>
@@ -24969,13 +24969,13 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H202" t="n">
         <v>3.9</v>
       </c>
       <c r="I202" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J202" t="n">
         <v>1.03</v>
@@ -24984,34 +24984,34 @@
         <v>15</v>
       </c>
       <c r="L202" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M202" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N202" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O202" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P202" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q202" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R202" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S202" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T202" t="n">
         <v>9.5</v>
       </c>
       <c r="U202" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V202" t="n">
         <v>8.5</v>
@@ -25038,7 +25038,7 @@
         <v>41</v>
       </c>
       <c r="AD202" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE202" t="n">
         <v>17</v>
@@ -25050,10 +25050,10 @@
         <v>15</v>
       </c>
       <c r="AH202" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI202" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ202" t="n">
         <v>34</v>
@@ -25213,7 +25213,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H204" t="n">
         <v>4.1</v>
@@ -25222,10 +25222,10 @@
         <v>4.75</v>
       </c>
       <c r="J204" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K204" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L204" t="n">
         <v>1.22</v>
@@ -25300,7 +25300,7 @@
         <v>34</v>
       </c>
       <c r="AJ204" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="205">
@@ -25457,13 +25457,13 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H206" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I206" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J206" t="n">
         <v>1.03</v>
@@ -25484,22 +25484,22 @@
         <v>2.35</v>
       </c>
       <c r="P206" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q206" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R206" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S206" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T206" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U206" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V206" t="n">
         <v>9.5</v>
@@ -25514,7 +25514,7 @@
         <v>21</v>
       </c>
       <c r="Z206" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA206" t="n">
         <v>7.5</v>
@@ -25722,10 +25722,10 @@
         <v>3.4</v>
       </c>
       <c r="N208" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O208" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P208" t="n">
         <v>1.44</v>
@@ -25823,19 +25823,19 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H209" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I209" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I209" t="n">
-        <v>3.5</v>
       </c>
       <c r="J209" t="n">
         <v>1.07</v>
       </c>
       <c r="K209" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="L209" t="n">
         <v>1.35</v>
@@ -25850,67 +25850,67 @@
         <v>1.7</v>
       </c>
       <c r="P209" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q209" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="R209" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S209" t="n">
         <v>1.83</v>
       </c>
-      <c r="S209" t="n">
-        <v>1.87</v>
-      </c>
       <c r="T209" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="U209" t="n">
         <v>9.25</v>
       </c>
       <c r="V209" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W209" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="X209" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y209" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z209" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AA209" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AB209" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC209" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD209" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE209" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AF209" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AG209" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH209" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AI209" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AJ209" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="210">
@@ -25957,70 +25957,70 @@
         <v>1.06</v>
       </c>
       <c r="K210" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="L210" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M210" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="N210" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O210" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="P210" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q210" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="R210" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S210" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="T210" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="U210" t="n">
         <v>15.5</v>
       </c>
       <c r="V210" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="W210" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X210" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y210" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z210" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AA210" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB210" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC210" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD210" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AE210" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF210" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG210" t="n">
         <v>9</v>
@@ -26029,10 +26029,10 @@
         <v>24</v>
       </c>
       <c r="AI210" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AJ210" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="211">
@@ -26067,13 +26067,13 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="H211" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I211" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="J211" t="n">
         <v>1.04</v>
@@ -26082,16 +26082,16 @@
         <v>8.25</v>
       </c>
       <c r="L211" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M211" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N211" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O211" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P211" t="n">
         <v>1.35</v>
@@ -26100,28 +26100,28 @@
         <v>2.92</v>
       </c>
       <c r="R211" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S211" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="T211" t="n">
         <v>7.5</v>
       </c>
       <c r="U211" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="V211" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="W211" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="X211" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="Y211" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z211" t="n">
         <v>8.25</v>
@@ -26139,22 +26139,22 @@
         <v>500</v>
       </c>
       <c r="AE211" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AF211" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AG211" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AH211" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AI211" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ211" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="212">
@@ -26189,19 +26189,19 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H212" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I212" t="n">
-        <v>2.67</v>
+        <v>2.95</v>
       </c>
       <c r="J212" t="n">
         <v>1.06</v>
       </c>
       <c r="K212" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="L212" t="n">
         <v>1.28</v>
@@ -26210,7 +26210,7 @@
         <v>3.35</v>
       </c>
       <c r="N212" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O212" t="n">
         <v>1.87</v>
@@ -26219,7 +26219,7 @@
         <v>1.42</v>
       </c>
       <c r="Q212" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="R212" t="n">
         <v>1.65</v>
@@ -26234,25 +26234,25 @@
         <v>12.5</v>
       </c>
       <c r="V212" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="W212" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="X212" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y212" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Z212" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AA212" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB212" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC212" t="n">
         <v>50</v>
@@ -26264,19 +26264,19 @@
         <v>9.75</v>
       </c>
       <c r="AF212" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AG212" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH212" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AI212" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AJ212" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="213">
@@ -26582,7 +26582,7 @@
         <v>1.75</v>
       </c>
       <c r="P215" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q215" t="n">
         <v>2.57</v>
@@ -26594,10 +26594,10 @@
         <v>1.95</v>
       </c>
       <c r="T215" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U215" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V215" t="n">
         <v>9.75</v>
@@ -26606,10 +26606,10 @@
         <v>29</v>
       </c>
       <c r="X215" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y215" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z215" t="n">
         <v>6.9</v>
@@ -26627,22 +26627,22 @@
         <v>500</v>
       </c>
       <c r="AE215" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AF215" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG215" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH215" t="n">
         <v>28</v>
       </c>
       <c r="AI215" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ215" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="216">
@@ -26677,19 +26677,19 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="H216" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I216" t="n">
-        <v>4.05</v>
+        <v>4.35</v>
       </c>
       <c r="J216" t="n">
         <v>1.07</v>
       </c>
       <c r="K216" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="L216" t="n">
         <v>1.34</v>
@@ -26707,64 +26707,64 @@
         <v>1.44</v>
       </c>
       <c r="Q216" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="R216" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S216" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="T216" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="U216" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="V216" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W216" t="n">
+        <v>13</v>
+      </c>
+      <c r="X216" t="n">
         <v>14.5</v>
-      </c>
-      <c r="X216" t="n">
-        <v>15</v>
       </c>
       <c r="Y216" t="n">
         <v>30</v>
       </c>
       <c r="Z216" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA216" t="n">
         <v>6.9</v>
       </c>
-      <c r="AA216" t="n">
-        <v>6.7</v>
-      </c>
       <c r="AB216" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC216" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD216" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE216" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF216" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG216" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH216" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AI216" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AJ216" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="217">
@@ -26799,13 +26799,13 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H217" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I217" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="J217" t="n">
         <v>1.06</v>
@@ -26838,7 +26838,7 @@
         <v>1.98</v>
       </c>
       <c r="T217" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U217" t="n">
         <v>12</v>
@@ -26853,7 +26853,7 @@
         <v>20</v>
       </c>
       <c r="Y217" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z217" t="n">
         <v>7.1</v>
@@ -26871,7 +26871,7 @@
         <v>500</v>
       </c>
       <c r="AE217" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF217" t="n">
         <v>13.5</v>
@@ -26880,7 +26880,7 @@
         <v>10</v>
       </c>
       <c r="AH217" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI217" t="n">
         <v>23</v>
@@ -26921,19 +26921,19 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="H218" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I218" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="J218" t="n">
         <v>1.06</v>
       </c>
       <c r="K218" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="L218" t="n">
         <v>1.29</v>
@@ -26945,55 +26945,55 @@
         <v>1.87</v>
       </c>
       <c r="O218" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P218" t="n">
         <v>1.42</v>
       </c>
       <c r="Q218" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="R218" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S218" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T218" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="U218" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="V218" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W218" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X218" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y218" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Z218" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AA218" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AB218" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC218" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD218" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AE218" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF218" t="n">
         <v>13</v>
@@ -27002,13 +27002,13 @@
         <v>9.5</v>
       </c>
       <c r="AH218" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI218" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ218" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="219">
@@ -27099,7 +27099,7 @@
         <v>7.4</v>
       </c>
       <c r="AA219" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB219" t="n">
         <v>18</v>
@@ -27111,7 +27111,7 @@
         <v>101</v>
       </c>
       <c r="AE219" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AF219" t="n">
         <v>9.25</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-29.xlsx
@@ -897,13 +897,13 @@
         <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" t="n">
         <v>1.2</v>
@@ -912,10 +912,10 @@
         <v>4.5</v>
       </c>
       <c r="N4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O4" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P4" t="n">
         <v>1.3</v>
@@ -2597,46 +2597,46 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
         <v>1.9</v>
       </c>
       <c r="J18" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M18" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N18" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="O18" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="P18" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U18" t="n">
         <v>21</v>
@@ -2648,31 +2648,31 @@
         <v>41</v>
       </c>
       <c r="X18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB18" t="n">
         <v>15</v>
       </c>
       <c r="AC18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG18" t="n">
         <v>8.5</v>
@@ -2684,7 +2684,7 @@
         <v>15</v>
       </c>
       <c r="AJ18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
@@ -3207,13 +3207,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J23" t="n">
         <v>1.02</v>
@@ -3234,67 +3234,67 @@
         <v>2.75</v>
       </c>
       <c r="P23" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R23" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S23" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X23" t="n">
         <v>10</v>
       </c>
-      <c r="W23" t="n">
-        <v>7</v>
-      </c>
-      <c r="X23" t="n">
-        <v>11</v>
-      </c>
       <c r="Y23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD23" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AE23" t="n">
         <v>34</v>
       </c>
       <c r="AF23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AH23" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AI23" t="n">
         <v>81</v>
       </c>
       <c r="AJ23" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24">
@@ -3451,13 +3451,13 @@
         </is>
       </c>
       <c r="G25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H25" t="n">
         <v>3.2</v>
       </c>
-      <c r="H25" t="n">
-        <v>3.1</v>
-      </c>
       <c r="I25" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="J25" t="n">
         <v>1.1</v>
@@ -3490,19 +3490,19 @@
         <v>1.67</v>
       </c>
       <c r="T25" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="U25" t="n">
+        <v>17</v>
+      </c>
+      <c r="V25" t="n">
         <v>13</v>
       </c>
-      <c r="V25" t="n">
-        <v>12</v>
-      </c>
       <c r="W25" t="n">
+        <v>41</v>
+      </c>
+      <c r="X25" t="n">
         <v>34</v>
-      </c>
-      <c r="X25" t="n">
-        <v>29</v>
       </c>
       <c r="Y25" t="n">
         <v>41</v>
@@ -3511,31 +3511,31 @@
         <v>7</v>
       </c>
       <c r="AA25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC25" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD25" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AE25" t="n">
         <v>6</v>
       </c>
       <c r="AF25" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI25" t="n">
         <v>21</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>23</v>
       </c>
       <c r="AJ25" t="n">
         <v>41</v>
@@ -3573,19 +3573,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="I26" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="J26" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L26" t="n">
         <v>1.44</v>
@@ -3594,10 +3594,10 @@
         <v>2.63</v>
       </c>
       <c r="N26" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O26" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P26" t="n">
         <v>1.53</v>
@@ -3606,22 +3606,22 @@
         <v>2.38</v>
       </c>
       <c r="R26" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S26" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T26" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="U26" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W26" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="X26" t="n">
         <v>17</v>
@@ -3633,34 +3633,34 @@
         <v>7</v>
       </c>
       <c r="AA26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC26" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AD26" t="n">
         <v>501</v>
       </c>
       <c r="AE26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG26" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AH26" t="n">
+        <v>126</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>101</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>67</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="27">
@@ -3701,13 +3701,13 @@
         <v>3.9</v>
       </c>
       <c r="I27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J27" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K27" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L27" t="n">
         <v>1.4</v>
@@ -3728,19 +3728,19 @@
         <v>2.5</v>
       </c>
       <c r="R27" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S27" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T27" t="n">
         <v>5</v>
       </c>
       <c r="U27" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W27" t="n">
         <v>9.5</v>
@@ -3752,13 +3752,13 @@
         <v>41</v>
       </c>
       <c r="Z27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC27" t="n">
         <v>101</v>
@@ -3773,7 +3773,7 @@
         <v>41</v>
       </c>
       <c r="AG27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH27" t="n">
         <v>101</v>
@@ -3782,7 +3782,7 @@
         <v>67</v>
       </c>
       <c r="AJ27" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
@@ -4103,13 +4103,13 @@
         <v>4.75</v>
       </c>
       <c r="U30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V30" t="n">
         <v>10</v>
       </c>
       <c r="W30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X30" t="n">
         <v>21</v>
@@ -4136,7 +4136,7 @@
         <v>9</v>
       </c>
       <c r="AF30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG30" t="n">
         <v>19</v>
@@ -4793,10 +4793,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H36" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I36" t="n">
         <v>6.5</v>
@@ -4814,16 +4814,16 @@
         <v>3</v>
       </c>
       <c r="N36" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P36" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R36" t="n">
         <v>2.2</v>
@@ -4841,7 +4841,7 @@
         <v>9</v>
       </c>
       <c r="W36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X36" t="n">
         <v>15</v>
@@ -4853,7 +4853,7 @@
         <v>8</v>
       </c>
       <c r="AA36" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB36" t="n">
         <v>21</v>
@@ -4874,7 +4874,7 @@
         <v>21</v>
       </c>
       <c r="AH36" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI36" t="n">
         <v>51</v>
@@ -4915,13 +4915,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H37" t="n">
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J37" t="n">
         <v>1.11</v>
@@ -4930,10 +4930,10 @@
         <v>6.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M37" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N37" t="n">
         <v>2.6</v>
@@ -4948,10 +4948,10 @@
         <v>2.25</v>
       </c>
       <c r="R37" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S37" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T37" t="n">
         <v>6</v>
@@ -4960,7 +4960,7 @@
         <v>10</v>
       </c>
       <c r="V37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W37" t="n">
         <v>23</v>
@@ -4972,13 +4972,13 @@
         <v>41</v>
       </c>
       <c r="Z37" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA37" t="n">
         <v>6</v>
       </c>
       <c r="AB37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC37" t="n">
         <v>67</v>
@@ -4987,19 +4987,19 @@
         <v>501</v>
       </c>
       <c r="AE37" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH37" t="n">
         <v>34</v>
       </c>
       <c r="AI37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ37" t="n">
         <v>41</v>
@@ -5037,13 +5037,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="H38" t="n">
         <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="J38" t="n">
         <v>1.1</v>
@@ -5070,37 +5070,37 @@
         <v>2.38</v>
       </c>
       <c r="R38" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S38" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T38" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U38" t="n">
+        <v>12</v>
+      </c>
+      <c r="V38" t="n">
         <v>11</v>
       </c>
-      <c r="V38" t="n">
-        <v>10</v>
-      </c>
       <c r="W38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X38" t="n">
         <v>23</v>
       </c>
       <c r="Y38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z38" t="n">
         <v>7</v>
       </c>
       <c r="AA38" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC38" t="n">
         <v>51</v>
@@ -5109,19 +5109,19 @@
         <v>401</v>
       </c>
       <c r="AE38" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF38" t="n">
         <v>13</v>
       </c>
       <c r="AG38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI38" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ38" t="n">
         <v>41</v>
@@ -5159,19 +5159,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H39" t="n">
         <v>3.1</v>
       </c>
       <c r="I39" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J39" t="n">
         <v>1.08</v>
       </c>
       <c r="K39" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L39" t="n">
         <v>1.4</v>
@@ -5201,16 +5201,16 @@
         <v>6.5</v>
       </c>
       <c r="U39" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V39" t="n">
         <v>9.5</v>
       </c>
       <c r="W39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y39" t="n">
         <v>34</v>
@@ -5222,16 +5222,16 @@
         <v>6</v>
       </c>
       <c r="AB39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC39" t="n">
         <v>51</v>
       </c>
       <c r="AD39" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF39" t="n">
         <v>17</v>
@@ -5243,7 +5243,7 @@
         <v>41</v>
       </c>
       <c r="AI39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ39" t="n">
         <v>41</v>
@@ -5284,43 +5284,43 @@
         <v>1.73</v>
       </c>
       <c r="H40" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I40" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J40" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K40" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="M40" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N40" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="O40" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S40" t="n">
         <v>1.57</v>
       </c>
-      <c r="P40" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1.62</v>
-      </c>
       <c r="T40" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U40" t="n">
         <v>7</v>
@@ -5335,10 +5335,10 @@
         <v>17</v>
       </c>
       <c r="Y40" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z40" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA40" t="n">
         <v>6.5</v>
@@ -5362,10 +5362,10 @@
         <v>19</v>
       </c>
       <c r="AH40" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI40" t="n">
         <v>51</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>41</v>
       </c>
       <c r="AJ40" t="n">
         <v>51</v>
@@ -5403,10 +5403,10 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H41" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I41" t="n">
         <v>5.25</v>
@@ -5415,7 +5415,7 @@
         <v>1.07</v>
       </c>
       <c r="K41" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L41" t="n">
         <v>1.36</v>
@@ -5463,10 +5463,10 @@
         <v>8.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC41" t="n">
         <v>67</v>
@@ -5525,13 +5525,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="H42" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I42" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="J42" t="n">
         <v>1.05</v>
@@ -5546,49 +5546,49 @@
         <v>3.5</v>
       </c>
       <c r="N42" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O42" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="P42" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q42" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R42" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S42" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T42" t="n">
         <v>7</v>
       </c>
       <c r="U42" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V42" t="n">
         <v>8.5</v>
       </c>
       <c r="W42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y42" t="n">
         <v>26</v>
       </c>
       <c r="Z42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA42" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC42" t="n">
         <v>51</v>
@@ -5597,19 +5597,19 @@
         <v>251</v>
       </c>
       <c r="AE42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG42" t="n">
         <v>15</v>
       </c>
       <c r="AH42" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ42" t="n">
         <v>41</v>
@@ -6257,31 +6257,31 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I48" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J48" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K48" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L48" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="M48" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="N48" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O48" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P48" t="n">
         <v>1.67</v>
@@ -6290,25 +6290,25 @@
         <v>2.1</v>
       </c>
       <c r="R48" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S48" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T48" t="n">
         <v>5.5</v>
       </c>
       <c r="U48" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V48" t="n">
         <v>11</v>
       </c>
       <c r="W48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X48" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y48" t="n">
         <v>41</v>
@@ -6320,22 +6320,22 @@
         <v>6</v>
       </c>
       <c r="AB48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC48" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD48" t="n">
         <v>101</v>
       </c>
       <c r="AE48" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF48" t="n">
         <v>15</v>
       </c>
       <c r="AG48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH48" t="n">
         <v>41</v>
@@ -6388,10 +6388,10 @@
         <v>7.5</v>
       </c>
       <c r="J49" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K49" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L49" t="n">
         <v>1.36</v>
@@ -7111,13 +7111,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H55" t="n">
         <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J55" t="n">
         <v>1.07</v>
@@ -7150,16 +7150,16 @@
         <v>1.83</v>
       </c>
       <c r="T55" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U55" t="n">
         <v>17</v>
       </c>
       <c r="V55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W55" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X55" t="n">
         <v>29</v>
@@ -7186,13 +7186,13 @@
         <v>7</v>
       </c>
       <c r="AF55" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG55" t="n">
         <v>9.5</v>
       </c>
       <c r="AH55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI55" t="n">
         <v>19</v>
@@ -7233,13 +7233,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="H56" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I56" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="J56" t="n">
         <v>1.06</v>
@@ -7260,64 +7260,64 @@
         <v>1.85</v>
       </c>
       <c r="P56" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q56" t="n">
         <v>2.75</v>
       </c>
       <c r="R56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S56" t="n">
         <v>1.91</v>
       </c>
-      <c r="S56" t="n">
-        <v>1.8</v>
-      </c>
       <c r="T56" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="U56" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="V56" t="n">
         <v>8.5</v>
       </c>
       <c r="W56" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="X56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y56" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z56" t="n">
         <v>10</v>
       </c>
       <c r="AA56" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC56" t="n">
         <v>51</v>
       </c>
       <c r="AD56" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AE56" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG56" t="n">
         <v>13</v>
       </c>
-      <c r="AF56" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>17</v>
-      </c>
       <c r="AH56" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI56" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ56" t="n">
         <v>41</v>
@@ -15123,31 +15123,31 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H121" t="n">
         <v>3.5</v>
       </c>
       <c r="I121" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J121" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K121" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L121" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M121" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N121" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="O121" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P121" t="n">
         <v>1.44</v>
@@ -15156,16 +15156,16 @@
         <v>2.63</v>
       </c>
       <c r="R121" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S121" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T121" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U121" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V121" t="n">
         <v>8.5</v>
@@ -15189,10 +15189,10 @@
         <v>17</v>
       </c>
       <c r="AC121" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD121" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE121" t="n">
         <v>11</v>
@@ -15245,19 +15245,19 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="H122" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="I122" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="J122" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K122" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L122" t="n">
         <v>1.14</v>
@@ -15266,49 +15266,49 @@
         <v>5.5</v>
       </c>
       <c r="N122" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="O122" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="P122" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R122" t="n">
         <v>1.53</v>
       </c>
-      <c r="O122" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="P122" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q122" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R122" t="n">
-        <v>1.5</v>
-      </c>
       <c r="S122" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T122" t="n">
         <v>11</v>
       </c>
       <c r="U122" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V122" t="n">
         <v>8.5</v>
       </c>
       <c r="W122" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X122" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y122" t="n">
         <v>19</v>
       </c>
       <c r="Z122" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA122" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB122" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC122" t="n">
         <v>34</v>
@@ -15320,16 +15320,16 @@
         <v>17</v>
       </c>
       <c r="AF122" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG122" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH122" t="n">
         <v>41</v>
       </c>
       <c r="AI122" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ122" t="n">
         <v>29</v>
@@ -15382,16 +15382,16 @@
         <v>11</v>
       </c>
       <c r="L123" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M123" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N123" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="O123" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="P123" t="n">
         <v>1.4</v>
@@ -15603,27 +15603,27 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="H125" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I125" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="M125" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="N125" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O125" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="P125" t="n">
         <v>1.38</v>
@@ -15632,61 +15632,61 @@
         <v>2.6</v>
       </c>
       <c r="R125" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S125" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="T125" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="U125" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="V125" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W125" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="X125" t="n">
         <v>12</v>
       </c>
       <c r="Y125" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Z125" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AA125" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AB125" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AC125" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AD125" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AE125" t="n">
         <v>14.5</v>
       </c>
       <c r="AF125" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG125" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH125" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AI125" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AJ125" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126">
@@ -15721,27 +15721,27 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="H126" t="n">
-        <v>4.2</v>
+        <v>4.05</v>
       </c>
       <c r="I126" t="n">
-        <v>6.7</v>
+        <v>5.8</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M126" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N126" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="O126" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="P126" t="n">
         <v>1.39</v>
@@ -15756,28 +15756,28 @@
         <v>1.7</v>
       </c>
       <c r="T126" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="U126" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="V126" t="n">
         <v>8.25</v>
       </c>
       <c r="W126" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="X126" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y126" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z126" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA126" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB126" t="n">
         <v>20</v>
@@ -15789,22 +15789,22 @@
         <v>900</v>
       </c>
       <c r="AE126" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AF126" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AG126" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH126" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI126" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AJ126" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="127">
@@ -15839,13 +15839,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="H127" t="n">
         <v>5.7</v>
       </c>
       <c r="I127" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -15856,48 +15856,48 @@
         <v>3.6</v>
       </c>
       <c r="N127" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="O127" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr"/>
       <c r="R127" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S127" t="n">
         <v>1.65</v>
       </c>
       <c r="T127" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U127" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="V127" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W127" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X127" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Y127" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z127" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA127" t="n">
         <v>12</v>
       </c>
       <c r="AB127" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC127" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD127" t="n">
         <v>900</v>
@@ -15915,10 +15915,10 @@
         <v>300</v>
       </c>
       <c r="AI127" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AJ127" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128">
@@ -16437,19 +16437,19 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I132" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="J132" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K132" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L132" t="n">
         <v>1.44</v>
@@ -16470,28 +16470,28 @@
         <v>2.38</v>
       </c>
       <c r="R132" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S132" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T132" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U132" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V132" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W132" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="X132" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Y132" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z132" t="n">
         <v>7</v>
@@ -16500,7 +16500,7 @@
         <v>6</v>
       </c>
       <c r="AB132" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC132" t="n">
         <v>67</v>
@@ -16509,19 +16509,19 @@
         <v>301</v>
       </c>
       <c r="AE132" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF132" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG132" t="n">
         <v>13</v>
       </c>
-      <c r="AG132" t="n">
-        <v>12</v>
-      </c>
       <c r="AH132" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AI132" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AJ132" t="n">
         <v>41</v>
@@ -16559,19 +16559,19 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H133" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I133" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J133" t="n">
         <v>1.06</v>
       </c>
       <c r="K133" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L133" t="n">
         <v>1.3</v>
@@ -16592,25 +16592,25 @@
         <v>2.75</v>
       </c>
       <c r="R133" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S133" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T133" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U133" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V133" t="n">
         <v>15</v>
       </c>
       <c r="W133" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X133" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y133" t="n">
         <v>41</v>
@@ -16619,10 +16619,10 @@
         <v>9.5</v>
       </c>
       <c r="AA133" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB133" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC133" t="n">
         <v>51</v>
@@ -16631,16 +16631,16 @@
         <v>301</v>
       </c>
       <c r="AE133" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF133" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG133" t="n">
         <v>8.5</v>
       </c>
       <c r="AH133" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI133" t="n">
         <v>15</v>
@@ -16824,10 +16824,10 @@
         <v>7</v>
       </c>
       <c r="N135" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="O135" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P135" t="n">
         <v>1.14</v>
@@ -16925,19 +16925,19 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H136" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I136" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J136" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K136" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L136" t="n">
         <v>1.22</v>
@@ -16946,10 +16946,10 @@
         <v>4</v>
       </c>
       <c r="N136" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O136" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P136" t="n">
         <v>1.33</v>
@@ -16958,10 +16958,10 @@
         <v>3.25</v>
       </c>
       <c r="R136" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S136" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T136" t="n">
         <v>7</v>
@@ -16973,7 +16973,7 @@
         <v>8.5</v>
       </c>
       <c r="W136" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X136" t="n">
         <v>12</v>
@@ -16982,13 +16982,13 @@
         <v>26</v>
       </c>
       <c r="Z136" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA136" t="n">
         <v>8</v>
       </c>
       <c r="AB136" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC136" t="n">
         <v>51</v>
@@ -17003,7 +17003,7 @@
         <v>41</v>
       </c>
       <c r="AG136" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH136" t="n">
         <v>81</v>
@@ -18023,7 +18023,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="H145" t="n">
         <v>3.7</v>
@@ -18074,7 +18074,7 @@
         <v>13</v>
       </c>
       <c r="X145" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y145" t="n">
         <v>26</v>
@@ -18098,10 +18098,10 @@
         <v>13</v>
       </c>
       <c r="AF145" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG145" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH145" t="n">
         <v>51</v>
@@ -24115,13 +24115,13 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H195" t="n">
         <v>3.25</v>
       </c>
       <c r="I195" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="J195" t="n">
         <v>1.07</v>
@@ -24136,10 +24136,10 @@
         <v>3</v>
       </c>
       <c r="N195" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O195" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P195" t="n">
         <v>1.44</v>
@@ -24166,16 +24166,16 @@
         <v>34</v>
       </c>
       <c r="X195" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y195" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z195" t="n">
         <v>8.5</v>
       </c>
       <c r="AA195" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB195" t="n">
         <v>15</v>
@@ -24184,13 +24184,13 @@
         <v>51</v>
       </c>
       <c r="AD195" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE195" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF195" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG195" t="n">
         <v>9.5</v>
@@ -24202,7 +24202,7 @@
         <v>19</v>
       </c>
       <c r="AJ195" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="196">
@@ -24603,49 +24603,49 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="H199" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I199" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J199" t="n">
         <v>1.03</v>
       </c>
       <c r="K199" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L199" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M199" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N199" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="O199" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P199" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R199" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S199" t="n">
         <v>2.25</v>
       </c>
-      <c r="P199" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q199" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R199" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S199" t="n">
-        <v>2.2</v>
-      </c>
       <c r="T199" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U199" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V199" t="n">
         <v>8.5</v>
@@ -24654,16 +24654,16 @@
         <v>15</v>
       </c>
       <c r="X199" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y199" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z199" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA199" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB199" t="n">
         <v>13</v>
@@ -24672,19 +24672,19 @@
         <v>41</v>
       </c>
       <c r="AD199" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE199" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF199" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AG199" t="n">
         <v>15</v>
       </c>
       <c r="AH199" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI199" t="n">
         <v>34</v>
@@ -24725,13 +24725,13 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="H200" t="n">
         <v>3.6</v>
       </c>
       <c r="I200" t="n">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="J200" t="n">
         <v>1.03</v>
@@ -24740,43 +24740,43 @@
         <v>15</v>
       </c>
       <c r="L200" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M200" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N200" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O200" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R200" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S200" t="n">
         <v>2.25</v>
       </c>
-      <c r="P200" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q200" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R200" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S200" t="n">
-        <v>2.38</v>
-      </c>
       <c r="T200" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U200" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V200" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W200" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="X200" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y200" t="n">
         <v>23</v>
@@ -24788,31 +24788,31 @@
         <v>7</v>
       </c>
       <c r="AB200" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>126</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG200" t="n">
         <v>11</v>
       </c>
-      <c r="AC200" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD200" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE200" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF200" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG200" t="n">
-        <v>10</v>
-      </c>
       <c r="AH200" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AI200" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ200" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="201">
@@ -24847,10 +24847,10 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="H201" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I201" t="n">
         <v>4.5</v>
@@ -24859,19 +24859,19 @@
         <v>1.02</v>
       </c>
       <c r="K201" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L201" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M201" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N201" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O201" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="P201" t="n">
         <v>1.25</v>
@@ -24880,13 +24880,13 @@
         <v>3.75</v>
       </c>
       <c r="R201" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S201" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T201" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U201" t="n">
         <v>10</v>
@@ -24904,13 +24904,13 @@
         <v>19</v>
       </c>
       <c r="Z201" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA201" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB201" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC201" t="n">
         <v>34</v>
@@ -24919,16 +24919,16 @@
         <v>101</v>
       </c>
       <c r="AE201" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF201" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG201" t="n">
         <v>15</v>
       </c>
       <c r="AH201" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI201" t="n">
         <v>29</v>
@@ -24969,13 +24969,13 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H202" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I202" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J202" t="n">
         <v>1.03</v>
@@ -24984,16 +24984,16 @@
         <v>15</v>
       </c>
       <c r="L202" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M202" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N202" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="O202" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="P202" t="n">
         <v>1.3</v>
@@ -25002,22 +25002,22 @@
         <v>3.4</v>
       </c>
       <c r="R202" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S202" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T202" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U202" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V202" t="n">
         <v>8.5</v>
       </c>
       <c r="W202" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X202" t="n">
         <v>13</v>
@@ -25091,13 +25091,13 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H203" t="n">
         <v>3.6</v>
       </c>
       <c r="I203" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J203" t="n">
         <v>1.04</v>
@@ -25169,13 +25169,13 @@
         <v>23</v>
       </c>
       <c r="AG203" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH203" t="n">
         <v>41</v>
       </c>
       <c r="AI203" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ203" t="n">
         <v>34</v>
@@ -25222,16 +25222,16 @@
         <v>4.75</v>
       </c>
       <c r="J204" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K204" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L204" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M204" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N204" t="n">
         <v>1.7</v>
@@ -25335,13 +25335,13 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H205" t="n">
         <v>3.4</v>
       </c>
       <c r="I205" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J205" t="n">
         <v>1.05</v>
@@ -25359,7 +25359,7 @@
         <v>1.85</v>
       </c>
       <c r="O205" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P205" t="n">
         <v>1.36</v>
@@ -25377,7 +25377,7 @@
         <v>9</v>
       </c>
       <c r="U205" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V205" t="n">
         <v>9</v>
@@ -25389,7 +25389,7 @@
         <v>17</v>
       </c>
       <c r="Y205" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z205" t="n">
         <v>11</v>
@@ -25469,7 +25469,7 @@
         <v>1.03</v>
       </c>
       <c r="K206" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L206" t="n">
         <v>1.17</v>
@@ -25478,10 +25478,10 @@
         <v>5</v>
       </c>
       <c r="N206" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O206" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P206" t="n">
         <v>1.3</v>
@@ -25600,10 +25600,10 @@
         <v>3.75</v>
       </c>
       <c r="N207" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O207" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P207" t="n">
         <v>1.4</v>
@@ -25704,7 +25704,7 @@
         <v>3.2</v>
       </c>
       <c r="H208" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I208" t="n">
         <v>2.3</v>
@@ -25716,16 +25716,16 @@
         <v>10</v>
       </c>
       <c r="L208" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M208" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N208" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O208" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="P208" t="n">
         <v>1.44</v>
@@ -25740,13 +25740,13 @@
         <v>1.95</v>
       </c>
       <c r="T208" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U208" t="n">
         <v>15</v>
       </c>
       <c r="V208" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W208" t="n">
         <v>34</v>
@@ -25761,10 +25761,10 @@
         <v>9.5</v>
       </c>
       <c r="AA208" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB208" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC208" t="n">
         <v>51</v>
@@ -25773,7 +25773,7 @@
         <v>251</v>
       </c>
       <c r="AE208" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF208" t="n">
         <v>11</v>
@@ -26192,16 +26192,16 @@
         <v>2.3</v>
       </c>
       <c r="H212" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I212" t="n">
         <v>3.05</v>
-      </c>
-      <c r="I212" t="n">
-        <v>2.95</v>
       </c>
       <c r="J212" t="n">
         <v>1.06</v>
       </c>
       <c r="K212" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="L212" t="n">
         <v>1.28</v>
@@ -26210,7 +26210,7 @@
         <v>3.35</v>
       </c>
       <c r="N212" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O212" t="n">
         <v>1.87</v>
@@ -26222,49 +26222,49 @@
         <v>2.65</v>
       </c>
       <c r="R212" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S212" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="T212" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U212" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V212" t="n">
         <v>8.75</v>
       </c>
       <c r="W212" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X212" t="n">
         <v>18</v>
       </c>
       <c r="Y212" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z212" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AA212" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AB212" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC212" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD212" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE212" t="n">
         <v>9.75</v>
       </c>
       <c r="AF212" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG212" t="n">
         <v>10.5</v>
@@ -26273,7 +26273,7 @@
         <v>40</v>
       </c>
       <c r="AI212" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ212" t="n">
         <v>30</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="H213" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I213" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="J213" t="n">
         <v>1.07</v>
       </c>
       <c r="K213" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="L213" t="n">
         <v>1.33</v>
@@ -26338,67 +26338,67 @@
         <v>1.75</v>
       </c>
       <c r="P213" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q213" t="n">
         <v>2.57</v>
       </c>
       <c r="R213" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S213" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T213" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="U213" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="V213" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W213" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="X213" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y213" t="n">
         <v>30</v>
       </c>
       <c r="Z213" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA213" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AB213" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC213" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD213" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE213" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF213" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG213" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH213" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ213" t="n">
         <v>32</v>
-      </c>
-      <c r="AI213" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ213" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="214">
@@ -26555,13 +26555,13 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.57</v>
+        <v>2.9</v>
       </c>
       <c r="H215" t="n">
         <v>3.15</v>
       </c>
       <c r="I215" t="n">
-        <v>2.52</v>
+        <v>2.3</v>
       </c>
       <c r="J215" t="n">
         <v>1.07</v>
@@ -26582,7 +26582,7 @@
         <v>1.75</v>
       </c>
       <c r="P215" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q215" t="n">
         <v>2.57</v>
@@ -26594,19 +26594,19 @@
         <v>1.95</v>
       </c>
       <c r="T215" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="U215" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="V215" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="W215" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="X215" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y215" t="n">
         <v>32</v>
@@ -26615,10 +26615,10 @@
         <v>6.9</v>
       </c>
       <c r="AA215" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB215" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC215" t="n">
         <v>65</v>
@@ -26627,19 +26627,19 @@
         <v>500</v>
       </c>
       <c r="AE215" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="AF215" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG215" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH215" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI215" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AJ215" t="n">
         <v>30</v>
@@ -26683,13 +26683,13 @@
         <v>3.5</v>
       </c>
       <c r="I216" t="n">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="J216" t="n">
         <v>1.07</v>
       </c>
       <c r="K216" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="L216" t="n">
         <v>1.34</v>
@@ -26704,28 +26704,28 @@
         <v>1.72</v>
       </c>
       <c r="P216" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q216" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="R216" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S216" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T216" t="n">
         <v>6.2</v>
       </c>
       <c r="U216" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="V216" t="n">
         <v>8.25</v>
       </c>
       <c r="W216" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="X216" t="n">
         <v>14.5</v>
@@ -26734,37 +26734,37 @@
         <v>30</v>
       </c>
       <c r="Z216" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AA216" t="n">
         <v>7</v>
       </c>
-      <c r="AA216" t="n">
-        <v>6.9</v>
-      </c>
       <c r="AB216" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC216" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD216" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE216" t="n">
         <v>11.25</v>
       </c>
       <c r="AF216" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG216" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH216" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI216" t="n">
         <v>50</v>
       </c>
       <c r="AJ216" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="217">
@@ -26802,7 +26802,7 @@
         <v>2.4</v>
       </c>
       <c r="H217" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I217" t="n">
         <v>2.67</v>
@@ -26838,13 +26838,13 @@
         <v>1.98</v>
       </c>
       <c r="T217" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U217" t="n">
         <v>12</v>
       </c>
       <c r="V217" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W217" t="n">
         <v>26</v>
@@ -26853,7 +26853,7 @@
         <v>20</v>
       </c>
       <c r="Y217" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z217" t="n">
         <v>7.1</v>
@@ -26871,7 +26871,7 @@
         <v>500</v>
       </c>
       <c r="AE217" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF217" t="n">
         <v>13.5</v>
@@ -26880,7 +26880,7 @@
         <v>10</v>
       </c>
       <c r="AH217" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI217" t="n">
         <v>23</v>
@@ -26945,7 +26945,7 @@
         <v>1.87</v>
       </c>
       <c r="O218" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P218" t="n">
         <v>1.42</v>
@@ -26960,10 +26960,10 @@
         <v>2.1</v>
       </c>
       <c r="T218" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="U218" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="V218" t="n">
         <v>9.5</v>
@@ -26975,7 +26975,7 @@
         <v>21</v>
       </c>
       <c r="Y218" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z218" t="n">
         <v>7.2</v>
@@ -26993,10 +26993,10 @@
         <v>350</v>
       </c>
       <c r="AE218" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF218" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AG218" t="n">
         <v>9.5</v>
@@ -27043,48 +27043,48 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="H219" t="n">
-        <v>3.15</v>
+        <v>2.7</v>
       </c>
       <c r="I219" t="n">
-        <v>2.18</v>
+        <v>2.47</v>
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M219" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="N219" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O219" t="n">
         <v>1.42</v>
       </c>
-      <c r="M219" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="N219" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="O219" t="n">
-        <v>1.52</v>
-      </c>
       <c r="P219" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q219" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="R219" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S219" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T219" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="U219" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="V219" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="W219" t="n">
         <v>40</v>
@@ -27093,40 +27093,40 @@
         <v>32</v>
       </c>
       <c r="Y219" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z219" t="n">
-        <v>7.4</v>
+        <v>6.1</v>
       </c>
       <c r="AA219" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="AB219" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC219" t="n">
         <v>110</v>
       </c>
       <c r="AD219" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AE219" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AF219" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="AG219" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH219" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AI219" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AJ219" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="220">
@@ -27161,81 +27161,81 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="H220" t="n">
-        <v>3.3</v>
+        <v>2.92</v>
       </c>
       <c r="I220" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M220" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="N220" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="O220" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P220" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="Q220" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="R220" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S220" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T220" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="U220" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="V220" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W220" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="X220" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y220" t="n">
         <v>35</v>
       </c>
       <c r="Z220" t="n">
-        <v>7.9</v>
+        <v>7.1</v>
       </c>
       <c r="AA220" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="AB220" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF220" t="n">
         <v>18</v>
       </c>
-      <c r="AC220" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD220" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE220" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF220" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AG220" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH220" t="n">
         <v>55</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-29.xlsx
@@ -3695,46 +3695,46 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H27" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K27" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="L27" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M27" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N27" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R27" t="n">
         <v>2.25</v>
       </c>
-      <c r="O27" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2.38</v>
-      </c>
       <c r="S27" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T27" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U27" t="n">
         <v>6</v>
@@ -3743,43 +3743,43 @@
         <v>9</v>
       </c>
       <c r="W27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X27" t="n">
         <v>15</v>
       </c>
       <c r="Y27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z27" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB27" t="n">
         <v>23</v>
       </c>
       <c r="AC27" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD27" t="n">
         <v>451</v>
       </c>
       <c r="AE27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH27" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ27" t="n">
         <v>67</v>
@@ -5403,19 +5403,19 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H41" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I41" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J41" t="n">
         <v>1.07</v>
       </c>
       <c r="K41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L41" t="n">
         <v>1.36</v>
@@ -5445,13 +5445,13 @@
         <v>6</v>
       </c>
       <c r="U41" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V41" t="n">
         <v>8.5</v>
       </c>
       <c r="W41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X41" t="n">
         <v>15</v>
@@ -5463,25 +5463,25 @@
         <v>8.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC41" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD41" t="n">
         <v>401</v>
       </c>
       <c r="AE41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH41" t="n">
         <v>51</v>
@@ -5490,7 +5490,7 @@
         <v>41</v>
       </c>
       <c r="AJ41" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42">
@@ -6278,16 +6278,16 @@
         <v>2.1</v>
       </c>
       <c r="N48" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O48" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P48" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R48" t="n">
         <v>2.5</v>
@@ -6385,7 +6385,7 @@
         <v>4.5</v>
       </c>
       <c r="I49" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J49" t="n">
         <v>1.06</v>
@@ -6418,13 +6418,13 @@
         <v>1.5</v>
       </c>
       <c r="T49" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U49" t="n">
         <v>5.5</v>
       </c>
       <c r="V49" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W49" t="n">
         <v>8.5</v>
@@ -6436,7 +6436,7 @@
         <v>41</v>
       </c>
       <c r="Z49" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA49" t="n">
         <v>9</v>
@@ -7260,7 +7260,7 @@
         <v>1.85</v>
       </c>
       <c r="P56" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q56" t="n">
         <v>2.75</v>
@@ -7305,7 +7305,7 @@
         <v>251</v>
       </c>
       <c r="AE56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF56" t="n">
         <v>21</v>
@@ -15367,13 +15367,13 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H123" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I123" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J123" t="n">
         <v>1.05</v>
@@ -15382,16 +15382,16 @@
         <v>11</v>
       </c>
       <c r="L123" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M123" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N123" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="O123" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P123" t="n">
         <v>1.4</v>
@@ -15400,22 +15400,22 @@
         <v>2.75</v>
       </c>
       <c r="R123" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S123" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T123" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U123" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="V123" t="n">
         <v>8.5</v>
       </c>
       <c r="W123" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X123" t="n">
         <v>15</v>
@@ -15436,22 +15436,22 @@
         <v>51</v>
       </c>
       <c r="AD123" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE123" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF123" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG123" t="n">
         <v>15</v>
       </c>
       <c r="AH123" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI123" t="n">
         <v>41</v>
-      </c>
-      <c r="AI123" t="n">
-        <v>34</v>
       </c>
       <c r="AJ123" t="n">
         <v>41</v>
@@ -15839,13 +15839,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="H127" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="I127" t="n">
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -15856,10 +15856,10 @@
         <v>3.6</v>
       </c>
       <c r="N127" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="O127" t="n">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="P127" t="inlineStr"/>
       <c r="Q127" t="inlineStr"/>
@@ -15870,16 +15870,16 @@
         <v>1.65</v>
       </c>
       <c r="T127" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U127" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="V127" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="W127" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="X127" t="n">
         <v>10.5</v>
@@ -15888,37 +15888,37 @@
         <v>29</v>
       </c>
       <c r="Z127" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AA127" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB127" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AC127" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD127" t="n">
         <v>900</v>
       </c>
       <c r="AE127" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AF127" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG127" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AH127" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AI127" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AJ127" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="128">
@@ -15953,27 +15953,27 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.25</v>
+        <v>1.9</v>
       </c>
       <c r="H128" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I128" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="M128" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="N128" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="O128" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="P128" t="n">
         <v>1.4</v>
@@ -15982,61 +15982,61 @@
         <v>2.52</v>
       </c>
       <c r="R128" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S128" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="T128" t="n">
         <v>8.25</v>
       </c>
       <c r="U128" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="V128" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="W128" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="X128" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="Y128" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z128" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="AA128" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="AB128" t="n">
         <v>13</v>
       </c>
       <c r="AC128" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD128" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AE128" t="n">
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="AF128" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AG128" t="n">
-        <v>10.75</v>
+        <v>12.5</v>
       </c>
       <c r="AH128" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ128" t="n">
         <v>37</v>
-      </c>
-      <c r="AI128" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ128" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="129">
@@ -24990,28 +24990,28 @@
         <v>4.33</v>
       </c>
       <c r="N202" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O202" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P202" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q202" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R202" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S202" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T202" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U202" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V202" t="n">
         <v>8.5</v>
@@ -25023,25 +25023,25 @@
         <v>13</v>
       </c>
       <c r="Y202" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z202" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA202" t="n">
         <v>7.5</v>
       </c>
       <c r="AB202" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC202" t="n">
         <v>41</v>
       </c>
       <c r="AD202" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE202" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF202" t="n">
         <v>26</v>
@@ -25056,7 +25056,7 @@
         <v>34</v>
       </c>
       <c r="AJ202" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="203">
@@ -25091,13 +25091,13 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H203" t="n">
         <v>3.6</v>
       </c>
       <c r="I203" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J203" t="n">
         <v>1.04</v>
@@ -25112,10 +25112,10 @@
         <v>4.33</v>
       </c>
       <c r="N203" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O203" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P203" t="n">
         <v>1.33</v>
@@ -25124,22 +25124,22 @@
         <v>3.25</v>
       </c>
       <c r="R203" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S203" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T203" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U203" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V203" t="n">
         <v>8.5</v>
       </c>
       <c r="W203" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X203" t="n">
         <v>13</v>
@@ -25154,7 +25154,7 @@
         <v>7</v>
       </c>
       <c r="AB203" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC203" t="n">
         <v>41</v>
@@ -25166,16 +25166,16 @@
         <v>15</v>
       </c>
       <c r="AF203" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG203" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH203" t="n">
         <v>41</v>
       </c>
       <c r="AI203" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ203" t="n">
         <v>34</v>
@@ -25184,7 +25184,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>zytvMCeD</t>
+          <t>v9nVNYQ0</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -25204,79 +25204,79 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Minnesota United</t>
+          <t>Nashville SC</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Real Salt Lake</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="H204" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="I204" t="n">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="J204" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K204" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L204" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="M204" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="N204" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O204" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="P204" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="Q204" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="R204" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S204" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T204" t="n">
         <v>8</v>
       </c>
       <c r="U204" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="V204" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W204" t="n">
+        <v>21</v>
+      </c>
+      <c r="X204" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB204" t="n">
         <v>13</v>
-      </c>
-      <c r="X204" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y204" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z204" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA204" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB204" t="n">
-        <v>15</v>
       </c>
       <c r="AC204" t="n">
         <v>41</v>
@@ -25285,28 +25285,28 @@
         <v>201</v>
       </c>
       <c r="AE204" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AF204" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI204" t="n">
         <v>26</v>
       </c>
-      <c r="AG204" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH204" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI204" t="n">
+      <c r="AJ204" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ204" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>v9nVNYQ0</t>
+          <t>zytvMCeD</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -25326,103 +25326,103 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Nashville SC</t>
+          <t>Minnesota United</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>Real Salt Lake</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="H205" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="I205" t="n">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="J205" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K205" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L205" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="M205" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="N205" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="O205" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="P205" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q205" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R205" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S205" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T205" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U205" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="V205" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W205" t="n">
+        <v>13</v>
+      </c>
+      <c r="X205" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y205" t="n">
         <v>21</v>
       </c>
-      <c r="X205" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y205" t="n">
-        <v>23</v>
-      </c>
       <c r="Z205" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA205" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AB205" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC205" t="n">
         <v>41</v>
       </c>
       <c r="AD205" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE205" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AF205" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AG205" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AH205" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI205" t="n">
         <v>34</v>
       </c>
-      <c r="AI205" t="n">
-        <v>23</v>
-      </c>
       <c r="AJ205" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="206">
@@ -25457,13 +25457,13 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.35</v>
+        <v>2.63</v>
       </c>
       <c r="H206" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I206" t="n">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="J206" t="n">
         <v>1.03</v>
@@ -25472,10 +25472,10 @@
         <v>15</v>
       </c>
       <c r="L206" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M206" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N206" t="n">
         <v>1.6</v>
@@ -25490,28 +25490,28 @@
         <v>3.4</v>
       </c>
       <c r="R206" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S206" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T206" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U206" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V206" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W206" t="n">
+        <v>26</v>
+      </c>
+      <c r="X206" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y206" t="n">
         <v>23</v>
-      </c>
-      <c r="X206" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y206" t="n">
-        <v>21</v>
       </c>
       <c r="Z206" t="n">
         <v>17</v>
@@ -25520,31 +25520,31 @@
         <v>7.5</v>
       </c>
       <c r="AB206" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC206" t="n">
         <v>34</v>
       </c>
       <c r="AD206" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE206" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF206" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI206" t="n">
         <v>17</v>
       </c>
-      <c r="AG206" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH206" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI206" t="n">
+      <c r="AJ206" t="n">
         <v>21</v>
-      </c>
-      <c r="AJ206" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="207">
@@ -25579,19 +25579,19 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="H207" t="n">
         <v>3.4</v>
       </c>
       <c r="I207" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="J207" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K207" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L207" t="n">
         <v>1.25</v>
@@ -25600,16 +25600,16 @@
         <v>3.75</v>
       </c>
       <c r="N207" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O207" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="P207" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q207" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R207" t="n">
         <v>1.67</v>
@@ -25618,31 +25618,31 @@
         <v>2.1</v>
       </c>
       <c r="T207" t="n">
+        <v>9</v>
+      </c>
+      <c r="U207" t="n">
+        <v>12</v>
+      </c>
+      <c r="V207" t="n">
         <v>9.5</v>
       </c>
-      <c r="U207" t="n">
-        <v>13</v>
-      </c>
-      <c r="V207" t="n">
-        <v>10</v>
-      </c>
       <c r="W207" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="X207" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y207" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z207" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA207" t="n">
         <v>6.5</v>
       </c>
       <c r="AB207" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC207" t="n">
         <v>41</v>
@@ -25651,19 +25651,19 @@
         <v>151</v>
       </c>
       <c r="AE207" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF207" t="n">
         <v>15</v>
       </c>
       <c r="AG207" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH207" t="n">
         <v>29</v>
       </c>
       <c r="AI207" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ207" t="n">
         <v>29</v>
@@ -25701,13 +25701,13 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H208" t="n">
         <v>3.3</v>
       </c>
       <c r="I208" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J208" t="n">
         <v>1.06</v>
@@ -25743,25 +25743,25 @@
         <v>9.5</v>
       </c>
       <c r="U208" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V208" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W208" t="n">
         <v>34</v>
       </c>
       <c r="X208" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y208" t="n">
         <v>34</v>
       </c>
       <c r="Z208" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA208" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB208" t="n">
         <v>15</v>
@@ -25776,10 +25776,10 @@
         <v>7.5</v>
       </c>
       <c r="AF208" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG208" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH208" t="n">
         <v>21</v>
@@ -26799,37 +26799,37 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="H217" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I217" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="J217" t="n">
         <v>1.06</v>
       </c>
       <c r="K217" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="L217" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M217" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N217" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O217" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P217" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q217" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="R217" t="n">
         <v>1.75</v>
@@ -26838,28 +26838,28 @@
         <v>1.98</v>
       </c>
       <c r="T217" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U217" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="V217" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W217" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="X217" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Y217" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z217" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AA217" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AB217" t="n">
         <v>14</v>
@@ -26871,19 +26871,19 @@
         <v>500</v>
       </c>
       <c r="AE217" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF217" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG217" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH217" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI217" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ217" t="n">
         <v>32</v>
@@ -26921,52 +26921,52 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="H218" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I218" t="n">
         <v>2.52</v>
       </c>
       <c r="J218" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K218" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L218" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M218" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="N218" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="O218" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P218" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q218" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="R218" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S218" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T218" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="U218" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="V218" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W218" t="n">
         <v>32</v>
@@ -26975,28 +26975,28 @@
         <v>21</v>
       </c>
       <c r="Y218" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z218" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AA218" t="n">
         <v>6.1</v>
       </c>
       <c r="AB218" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC218" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD218" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE218" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AF218" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG218" t="n">
         <v>9.5</v>
@@ -27005,10 +27005,10 @@
         <v>29</v>
       </c>
       <c r="AI218" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ218" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="219">
@@ -27161,90 +27161,90 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="H220" t="n">
         <v>2.92</v>
       </c>
       <c r="I220" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="M220" t="n">
-        <v>2.5</v>
+        <v>2.87</v>
       </c>
       <c r="N220" t="n">
-        <v>2.18</v>
+        <v>1.93</v>
       </c>
       <c r="O220" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="P220" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="Q220" t="n">
-        <v>2.22</v>
+        <v>2.37</v>
       </c>
       <c r="R220" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="S220" t="n">
-        <v>1.72</v>
+        <v>1.93</v>
       </c>
       <c r="T220" t="n">
-        <v>6.3</v>
+        <v>7.2</v>
       </c>
       <c r="U220" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="V220" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W220" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X220" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y220" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="Z220" t="n">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="AA220" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB220" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC220" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AD220" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="AE220" t="n">
-        <v>8.5</v>
+        <v>10.25</v>
       </c>
       <c r="AF220" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG220" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH220" t="n">
         <v>55</v>
       </c>
       <c r="AI220" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AJ220" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="221">
